--- a/TestData/FCCB_TBCL_data.xlsx
+++ b/TestData/FCCB_TBCL_data.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu-b\git\PageObjectModel\src\main\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu-b\git\PageObjectModel\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B4D2DC-581D-4DA0-9BAD-E60BF0BEA914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF27F3B-FCA1-484C-BCCC-4356EB03ECDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="133">
   <si>
     <t>fbbs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -515,26 +515,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>06201890101202000000000145</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>06201890101202000000000146</t>
-  </si>
-  <si>
-    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\test\FCCB_TB_JCX_2_未知弹窗_20200630111100664.png</t>
-  </si>
-  <si>
-    <t>未知弹窗_投保人 李宇轩 的社会统一信用代码错误，请修改！</t>
+    <t>06201890101202000000000148</t>
+  </si>
+  <si>
+    <t>06201890101202000000000149</t>
+  </si>
+  <si>
+    <t>C:\Users\liu-b\git\PageObjectModel\screenshot\FCCB_TB_JCX_2_异常截屏_20200630032013588.png</t>
+  </si>
+  <si>
+    <t>未知异常No frame element found by name or id RiskFrame
+Build info: version: '3.14.0', revision: 'aacccce0', time: '2018-08-02T20:19:58.91Z'
+System info: host: 'DESKTOP-I9S3ABE', ip: '100.100.94.239', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
+Driver info: driver.version: unknown</t>
+  </si>
+  <si>
+    <t>未知异常Currently focused window has been closed.
+Build info: version: '3.14.0', revision: 'aacccce0', time: '2018-08-02T20:19:58.91Z'
+System info: host: 'DESKTOP-I9S3ABE', ip: '100.100.94.239', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
+Driver info: org.openqa.selenium.ie.InternetExplorerDriver
+Capabilities {acceptInsecureCerts: false, browserName: internet explorer, browserVersion: 11, javascriptEnabled: true, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:ieOptions: {browserAttachTimeout: 0, elementScrollBehavior: 0, enablePersistentHover: true, ie.browserCommandLineSwitches: , ie.ensureCleanSession: false, ie.fileUploadDialogTimeout: 3000, ie.forceCreateProcessApi: false, ignoreProtectedModeSettings: true, ignoreZoomSetting: false, initialBrowserUrl: http://localhost:27086/, nativeEvents: true, requireWindowFocus: false}, setWindowRect: true, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: ignore}
+Session ID: bd9f92f1-016b-4f7d-8f4a-0a3cf60ff988
+*** Element info: {Using=name, value=SelectIt}</t>
+  </si>
+  <si>
+    <t>tbr_sj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -966,44 +980,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FB4AF2-2C99-459C-9147-AD7590C3225D}">
-  <dimension ref="A1:BZ5"/>
+  <dimension ref="A1:CA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
-      <selection activeCell="BX5" sqref="BX5"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="19.125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="18.75" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="33.125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="9.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="12.25" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="16.375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="8.25" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="11.625" collapsed="true"/>
-    <col min="10" max="12" customWidth="true" style="1" width="14.75" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="18.25" collapsed="true"/>
-    <col min="14" max="16" style="1" width="8.75" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="1" width="20.5" collapsed="true"/>
-    <col min="18" max="19" customWidth="true" style="1" width="19.5" collapsed="true"/>
-    <col min="20" max="20" style="1" width="8.75" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="12.625" collapsed="true"/>
-    <col min="22" max="24" style="1" width="8.75" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="16.625" collapsed="true"/>
-    <col min="26" max="46" style="1" width="8.75" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" style="1" width="15.5" collapsed="true"/>
-    <col min="48" max="65" style="1" width="8.75" collapsed="true"/>
-    <col min="66" max="66" customWidth="true" style="1" width="26.75" collapsed="true"/>
-    <col min="67" max="75" style="1" width="8.75" collapsed="true"/>
-    <col min="76" max="76" customWidth="true" style="1" width="17.125" collapsed="true"/>
-    <col min="77" max="77" customWidth="true" style="1" width="16.5" collapsed="true"/>
-    <col min="78" max="78" customWidth="true" style="1" width="25.0" collapsed="true"/>
-    <col min="79" max="16384" style="1" width="8.75" collapsed="true"/>
+    <col min="1" max="1" width="19.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.25" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="12" width="14.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.25" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16" width="8.75" style="1" collapsed="1"/>
+    <col min="17" max="17" width="20.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="19.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="8.75" style="1" collapsed="1"/>
+    <col min="21" max="21" width="12.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="24" width="8.75" style="1" collapsed="1"/>
+    <col min="25" max="25" width="16.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="39" width="8.75" style="1" collapsed="1"/>
+    <col min="40" max="40" width="8.75" style="1"/>
+    <col min="41" max="47" width="8.75" style="1" collapsed="1"/>
+    <col min="48" max="48" width="15.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="66" width="8.75" style="1" collapsed="1"/>
+    <col min="67" max="67" width="26.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="76" width="8.75" style="1" collapsed="1"/>
+    <col min="77" max="77" width="17.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="16.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="25" style="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="16384" width="8.75" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78">
+    <row r="1" spans="1:79">
       <c r="A1" s="12" t="s">
         <v>56</v>
       </c>
@@ -1061,10 +1077,10 @@
       <c r="AS1" s="12"/>
       <c r="AT1" s="12"/>
       <c r="AU1" s="12"/>
-      <c r="AV1" s="12" t="s">
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="AW1" s="12"/>
       <c r="AX1" s="12"/>
       <c r="AY1" s="12"/>
       <c r="AZ1" s="12"/>
@@ -1074,34 +1090,35 @@
       <c r="BD1" s="12"/>
       <c r="BE1" s="12"/>
       <c r="BF1" s="12"/>
-      <c r="BG1" s="12" t="s">
+      <c r="BG1" s="12"/>
+      <c r="BH1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="BH1" s="12"/>
       <c r="BI1" s="12"/>
       <c r="BJ1" s="12"/>
       <c r="BK1" s="12"/>
       <c r="BL1" s="12"/>
       <c r="BM1" s="12"/>
       <c r="BN1" s="12"/>
-      <c r="BO1" s="9" t="s">
+      <c r="BO1" s="12"/>
+      <c r="BP1" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="BP1" s="10"/>
       <c r="BQ1" s="10"/>
       <c r="BR1" s="10"/>
       <c r="BS1" s="10"/>
       <c r="BT1" s="10"/>
       <c r="BU1" s="10"/>
       <c r="BV1" s="10"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="9" t="s">
+      <c r="BW1" s="10"/>
+      <c r="BX1" s="11"/>
+      <c r="BY1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="BY1" s="10"/>
       <c r="BZ1" s="10"/>
+      <c r="CA1" s="10"/>
     </row>
-    <row r="2" spans="1:78">
+    <row r="2" spans="1:79">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -1220,124 +1237,127 @@
         <v>46</v>
       </c>
       <c r="AN2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="BA2" s="6" t="s">
+      <c r="BB2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="BB2" s="6" t="s">
+      <c r="BC2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="BC2" s="6" t="s">
+      <c r="BD2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="BD2" s="6" t="s">
+      <c r="BE2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="BE2" s="6" t="s">
+      <c r="BF2" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="BF2" s="6" t="s">
+      <c r="BG2" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="BG2" s="6" t="s">
+      <c r="BH2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="BH2" s="6" t="s">
+      <c r="BI2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="BI2" s="6" t="s">
+      <c r="BJ2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="BJ2" s="6" t="s">
+      <c r="BK2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="BK2" s="6" t="s">
+      <c r="BL2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="BL2" s="6" t="s">
+      <c r="BM2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="BM2" s="6" t="s">
+      <c r="BN2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="BN2" s="6" t="s">
+      <c r="BO2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="BO2" s="6" t="s">
+      <c r="BP2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="BP2" s="6" t="s">
+      <c r="BQ2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="BQ2" s="6" t="s">
+      <c r="BR2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BR2" s="6" t="s">
+      <c r="BS2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="BS2" s="6" t="s">
+      <c r="BT2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="BT2" s="6" t="s">
+      <c r="BU2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="BU2" s="6" t="s">
+      <c r="BV2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="BV2" s="6" t="s">
+      <c r="BW2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="BW2" s="6" t="s">
+      <c r="BX2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="BX2" s="6" t="s">
+      <c r="BY2" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="BY2" s="6" t="s">
+      <c r="BZ2" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="BZ2" s="6" t="s">
+      <c r="CA2" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:78">
+    <row r="3" spans="1:79">
       <c r="A3" s="3" t="s">
         <v>88</v>
       </c>
@@ -1401,7 +1421,9 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
+      <c r="AH3" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
       <c r="AK3" s="2" t="s">
@@ -1411,107 +1433,108 @@
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
-      <c r="AP3" s="3" t="s">
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AQ3" s="3"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
       <c r="AT3" s="3"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4" t="s">
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4" t="s">
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="AZ3" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="BA3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="BB3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BD3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BE3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BF3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BG3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BH3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BM3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BN3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BO3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BP3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BQ3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BR3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="BR3" s="4" t="s">
+      <c r="BS3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="BS3" s="4" t="s">
+      <c r="BT3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="BT3" s="4" t="s">
+      <c r="BU3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="BU3" s="4" t="s">
+      <c r="BV3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BV3" s="4" t="s">
+      <c r="BW3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BW3" s="4" t="s">
+      <c r="BX3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="BX3" s="4" t="s">
+      <c r="BY3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="BY3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BZ3" s="4" t="s">
-        <v>127</v>
-      </c>
     </row>
-    <row r="4" spans="1:78">
+    <row r="4" spans="1:79">
       <c r="A4" s="3" t="s">
         <v>88</v>
       </c>
@@ -1575,7 +1598,9 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
+      <c r="AH4" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3" t="s">
@@ -1585,107 +1610,108 @@
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
-      <c r="AP4" s="3" t="s">
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AQ4" s="3"/>
       <c r="AR4" s="3"/>
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4" t="s">
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4" t="s">
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AY4" s="4" t="s">
+      <c r="AZ4" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="AZ4" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="BA4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="BB4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="BC4" s="4" t="s">
+      <c r="BD4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BD4" s="8" t="s">
+      <c r="BE4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="BE4" s="8" t="s">
+      <c r="BF4" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="BF4" s="8" t="s">
+      <c r="BG4" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="BG4" s="4" t="s">
+      <c r="BH4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="BH4" s="4" t="s">
+      <c r="BI4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BI4" s="4" t="s">
+      <c r="BJ4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="BJ4" s="4" t="s">
+      <c r="BK4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="BK4" s="4" t="s">
+      <c r="BL4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="BL4" s="4" t="s">
+      <c r="BM4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BM4" s="4" t="s">
+      <c r="BN4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BN4" s="4" t="s">
+      <c r="BO4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="BO4" s="4" t="s">
+      <c r="BP4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="BP4" s="4" t="s">
+      <c r="BQ4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="BQ4" s="4" t="s">
+      <c r="BR4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="BR4" s="4" t="s">
+      <c r="BS4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="BS4" s="4" t="s">
+      <c r="BT4" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="BT4" s="4" t="s">
+      <c r="BU4" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="BU4" s="4" t="s">
+      <c r="BV4" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="BV4" s="4" t="s">
+      <c r="BW4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BW4" s="4" t="s">
+      <c r="BX4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="BX4" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="BY4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ4" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="BZ4" s="4" t="s">
+      <c r="CA4" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:78">
+    <row r="5" spans="1:79">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1733,7 +1759,7 @@
       <c r="AS5" s="2"/>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2"/>
-      <c r="AV5" s="4"/>
+      <c r="AV5" s="2"/>
       <c r="AW5" s="4"/>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
@@ -1764,18 +1790,19 @@
       <c r="BX5" s="4"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
+      <c r="CA5" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="BX1:BZ1"/>
-    <mergeCell ref="BO1:BW1"/>
-    <mergeCell ref="BG1:BN1"/>
-    <mergeCell ref="AV1:BF1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="BH1:BO1"/>
+    <mergeCell ref="AW1:BG1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:L1"/>
     <mergeCell ref="M1:T1"/>
     <mergeCell ref="V1:AG1"/>
-    <mergeCell ref="AI1:AU1"/>
+    <mergeCell ref="AI1:AV1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/FCCB_TBCL_data.xlsx
+++ b/TestData/FCCB_TBCL_data.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu-b\git\PageObjectModel\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF27F3B-FCA1-484C-BCCC-4356EB03ECDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19874A67-0078-4A08-9B98-060B7EDD7D8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="144">
   <si>
     <t>fbbs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -515,40 +515,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>06201890101202000000000148</t>
-  </si>
-  <si>
-    <t>06201890101202000000000149</t>
-  </si>
-  <si>
-    <t>C:\Users\liu-b\git\PageObjectModel\screenshot\FCCB_TB_JCX_2_异常截屏_20200630032013588.png</t>
-  </si>
-  <si>
-    <t>未知异常No frame element found by name or id RiskFrame
+    <t>tbr_sj</t>
+  </si>
+  <si>
+    <t>未知弹窗_投保人 李宇轩 的社会统一信用代码错误，请修改！</t>
+  </si>
+  <si>
+    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_JCX_1_异常截屏_20200701091358884.png</t>
+  </si>
+  <si>
+    <t>未知异常No frame element found by name or id mainFrame
 Build info: version: '3.14.0', revision: 'aacccce0', time: '2018-08-02T20:19:58.91Z'
-System info: host: 'DESKTOP-I9S3ABE', ip: '100.100.94.239', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
+System info: host: 'DESKTOP-I9S3ABE', ip: '100.100.92.227', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
 Driver info: driver.version: unknown</t>
   </si>
   <si>
-    <t>未知异常Currently focused window has been closed.
+    <t>06201890101202000000000159</t>
+  </si>
+  <si>
+    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_JCX_2_未知弹窗_20200701110022974.png</t>
+  </si>
+  <si>
+    <t>06201890101202000000000158</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06201890101202000000000160</t>
+  </si>
+  <si>
+    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_JCX_2_未知弹窗_20200701021926699.png</t>
+  </si>
+  <si>
+    <t>06201890101202000000000169</t>
+  </si>
+  <si>
+    <t>06201890101202000000000170</t>
+  </si>
+  <si>
+    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_JCX_2_未知弹窗_20200701044658634.png</t>
+  </si>
+  <si>
+    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_JCX_1_异常截屏_20200701060502602.png</t>
+  </si>
+  <si>
+    <t>未知异常No frame element found by name or id mainFrame
 Build info: version: '3.14.0', revision: 'aacccce0', time: '2018-08-02T20:19:58.91Z'
-System info: host: 'DESKTOP-I9S3ABE', ip: '100.100.94.239', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
-Driver info: org.openqa.selenium.ie.InternetExplorerDriver
-Capabilities {acceptInsecureCerts: false, browserName: internet explorer, browserVersion: 11, javascriptEnabled: true, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:ieOptions: {browserAttachTimeout: 0, elementScrollBehavior: 0, enablePersistentHover: true, ie.browserCommandLineSwitches: , ie.ensureCleanSession: false, ie.fileUploadDialogTimeout: 3000, ie.forceCreateProcessApi: false, ignoreProtectedModeSettings: true, ignoreZoomSetting: false, initialBrowserUrl: http://localhost:27086/, nativeEvents: true, requireWindowFocus: false}, setWindowRect: true, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: ignore}
-Session ID: bd9f92f1-016b-4f7d-8f4a-0a3cf60ff988
-*** Element info: {Using=name, value=SelectIt}</t>
-  </si>
-  <si>
-    <t>tbr_sj</t>
+System info: host: 'DESKTOP-I9S3ABE', ip: '100.100.90.19', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
+Driver info: driver.version: unknown</t>
+  </si>
+  <si>
+    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_JCX_2_异常截屏_20200701060527927.png</t>
+  </si>
+  <si>
+    <t>06201890101202000000000171</t>
+  </si>
+  <si>
+    <t>06201890101202000000000172</t>
+  </si>
+  <si>
+    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_JCX_2_未知弹窗_20200701062530719.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -982,41 +1014,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FB4AF2-2C99-459C-9147-AD7590C3225D}">
   <dimension ref="A1:CA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AI7" sqref="AI7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.25" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="14.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.25" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="8.75" style="1" collapsed="1"/>
-    <col min="17" max="17" width="20.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="19.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="8.75" style="1" collapsed="1"/>
-    <col min="21" max="21" width="12.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="24" width="8.75" style="1" collapsed="1"/>
-    <col min="25" max="25" width="16.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="39" width="8.75" style="1" collapsed="1"/>
-    <col min="40" max="40" width="8.75" style="1"/>
-    <col min="41" max="47" width="8.75" style="1" collapsed="1"/>
-    <col min="48" max="48" width="15.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="66" width="8.75" style="1" collapsed="1"/>
-    <col min="67" max="67" width="26.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="76" width="8.75" style="1" collapsed="1"/>
-    <col min="77" max="77" width="17.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="78" width="16.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="79" width="25" style="1" customWidth="1" collapsed="1"/>
-    <col min="80" max="16384" width="8.75" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="19.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="18.75" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="33.125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="12.25" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="16.375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="8.25" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="11.625" collapsed="true"/>
+    <col min="10" max="12" customWidth="true" style="1" width="14.75" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="18.25" collapsed="true"/>
+    <col min="14" max="16" style="1" width="8.75" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="20.5" collapsed="true"/>
+    <col min="18" max="19" customWidth="true" style="1" width="19.5" collapsed="true"/>
+    <col min="20" max="20" style="1" width="8.75" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="12.625" collapsed="true"/>
+    <col min="22" max="24" style="1" width="8.75" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="26" max="47" style="1" width="8.75" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" style="1" width="15.5" collapsed="true"/>
+    <col min="49" max="66" style="1" width="8.75" collapsed="true"/>
+    <col min="67" max="67" customWidth="true" style="1" width="26.75" collapsed="true"/>
+    <col min="68" max="76" style="1" width="8.75" collapsed="true"/>
+    <col min="77" max="77" customWidth="true" style="1" width="17.125" collapsed="true"/>
+    <col min="78" max="78" customWidth="true" style="1" width="16.5" collapsed="true"/>
+    <col min="79" max="79" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="80" max="16384" style="1" width="8.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79">
@@ -1237,7 +1267,7 @@
         <v>46</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="AO2" s="6" t="s">
         <v>47</v>
@@ -1525,13 +1555,13 @@
         <v>107</v>
       </c>
       <c r="BY3" s="4" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="BZ3" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="CA3" s="4" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:79">
@@ -1702,13 +1732,13 @@
         <v>107</v>
       </c>
       <c r="BY4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="BZ4" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BZ4" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="CA4" s="4" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:79">

--- a/TestData/FCCB_TBCL_data.xlsx
+++ b/TestData/FCCB_TBCL_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu-b\git\PageObjectModel\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19874A67-0078-4A08-9B98-060B7EDD7D8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A1E51F-FD07-40AC-8301-9A9921EE5CA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="142">
   <si>
     <t>fbbs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,14 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021-08-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jqbm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,9 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>bdw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,10 +433,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020-06-25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -521,59 +506,75 @@
     <t>未知弹窗_投保人 李宇轩 的社会统一信用代码错误，请修改！</t>
   </si>
   <si>
-    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_JCX_1_异常截屏_20200701091358884.png</t>
-  </si>
-  <si>
-    <t>未知异常No frame element found by name or id mainFrame
+    <t>06201890101202000000000181</t>
+  </si>
+  <si>
+    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_JCX_2_未知弹窗_20200706092907817.png</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保单费用信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsfdj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fsh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsfxs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HXXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_JCX_1_异常截屏_20200709110436682.png</t>
+  </si>
+  <si>
+    <t>未知异常Element is not interactable, it must not be hidden and it must be able to receive focus
 Build info: version: '3.14.0', revision: 'aacccce0', time: '2018-08-02T20:19:58.91Z'
-System info: host: 'DESKTOP-I9S3ABE', ip: '100.100.92.227', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
-Driver info: driver.version: unknown</t>
-  </si>
-  <si>
-    <t>06201890101202000000000159</t>
-  </si>
-  <si>
-    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_JCX_2_未知弹窗_20200701110022974.png</t>
-  </si>
-  <si>
-    <t>06201890101202000000000158</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06201890101202000000000160</t>
-  </si>
-  <si>
-    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_JCX_2_未知弹窗_20200701021926699.png</t>
-  </si>
-  <si>
-    <t>06201890101202000000000169</t>
-  </si>
-  <si>
-    <t>06201890101202000000000170</t>
-  </si>
-  <si>
-    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_JCX_2_未知弹窗_20200701044658634.png</t>
-  </si>
-  <si>
-    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_JCX_1_异常截屏_20200701060502602.png</t>
-  </si>
-  <si>
-    <t>未知异常No frame element found by name or id mainFrame
-Build info: version: '3.14.0', revision: 'aacccce0', time: '2018-08-02T20:19:58.91Z'
-System info: host: 'DESKTOP-I9S3ABE', ip: '100.100.90.19', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
-Driver info: driver.version: unknown</t>
-  </si>
-  <si>
-    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_JCX_2_异常截屏_20200701060527927.png</t>
-  </si>
-  <si>
-    <t>06201890101202000000000171</t>
-  </si>
-  <si>
-    <t>06201890101202000000000172</t>
-  </si>
-  <si>
-    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_JCX_2_未知弹窗_20200701062530719.png</t>
+System info: host: 'DESKTOP-I9S3ABE', ip: '100.100.93.26', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
+Driver info: org.openqa.selenium.ie.InternetExplorerDriver
+Capabilities {acceptInsecureCerts: false, browserName: internet explorer, browserVersion: 11, javascriptEnabled: true, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:ieOptions: {browserAttachTimeout: 0, elementScrollBehavior: 0, enablePersistentHover: true, ie.browserCommandLineSwitches: , ie.ensureCleanSession: false, ie.fileUploadDialogTimeout: 3000, ie.forceCreateProcessApi: false, ignoreProtectedModeSettings: true, ignoreZoomSetting: false, initialBrowserUrl: http://localhost:45237/, nativeEvents: true, requireWindowFocus: false}, setWindowRect: true, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: ignore}
+Session ID: 10a7d0c3-5c71-4efb-9faf-2a5c4ab4a96b</t>
+  </si>
+  <si>
+    <t>06201890101202000000000207</t>
+  </si>
+  <si>
+    <t>06201890101202000000000208</t>
   </si>
 </sst>
 </file>
@@ -1012,53 +1013,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FB4AF2-2C99-459C-9147-AD7590C3225D}">
-  <dimension ref="A1:CA5"/>
+  <dimension ref="A1:CE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="BM1" workbookViewId="0">
+      <selection activeCell="BT4" sqref="BT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="19.125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="18.75" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="33.125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="9.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="12.25" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="16.375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="8.25" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="11.625" collapsed="true"/>
-    <col min="10" max="12" customWidth="true" style="1" width="14.75" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="18.25" collapsed="true"/>
-    <col min="14" max="16" style="1" width="8.75" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="1" width="20.5" collapsed="true"/>
-    <col min="18" max="19" customWidth="true" style="1" width="19.5" collapsed="true"/>
-    <col min="20" max="20" style="1" width="8.75" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="12.625" collapsed="true"/>
-    <col min="22" max="24" style="1" width="8.75" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="16.625" collapsed="true"/>
-    <col min="26" max="47" style="1" width="8.75" collapsed="true"/>
-    <col min="48" max="48" customWidth="true" style="1" width="15.5" collapsed="true"/>
-    <col min="49" max="66" style="1" width="8.75" collapsed="true"/>
-    <col min="67" max="67" customWidth="true" style="1" width="26.75" collapsed="true"/>
-    <col min="68" max="76" style="1" width="8.75" collapsed="true"/>
-    <col min="77" max="77" customWidth="true" style="1" width="17.125" collapsed="true"/>
-    <col min="78" max="78" customWidth="true" style="1" width="16.5" collapsed="true"/>
-    <col min="79" max="79" customWidth="true" style="1" width="25.0" collapsed="true"/>
-    <col min="80" max="16384" style="1" width="8.75" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" style="1" width="19.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="18.75" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="33.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="9.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="12.25" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="16.375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="8.25" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="11.625" collapsed="true"/>
+    <col min="11" max="13" customWidth="true" style="1" width="14.75" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="18.25" collapsed="true"/>
+    <col min="15" max="17" style="1" width="8.75" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="1" width="20.5" collapsed="true"/>
+    <col min="19" max="20" customWidth="true" style="1" width="19.5" collapsed="true"/>
+    <col min="21" max="21" style="1" width="8.75" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="12.625" collapsed="true"/>
+    <col min="23" max="25" style="1" width="8.75" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="27" max="48" style="1" width="8.75" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" style="1" width="15.5" collapsed="true"/>
+    <col min="50" max="67" style="1" width="8.75" collapsed="true"/>
+    <col min="68" max="68" customWidth="true" style="1" width="26.75" collapsed="true"/>
+    <col min="69" max="80" style="1" width="8.75" collapsed="true"/>
+    <col min="81" max="81" customWidth="true" style="1" width="17.125" collapsed="true"/>
+    <col min="82" max="82" customWidth="true" style="1" width="16.5" collapsed="true"/>
+    <col min="83" max="83" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="84" max="16384" style="1" width="8.75" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79">
+    <row r="1" spans="1:83">
       <c r="A1" s="12" t="s">
         <v>56</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
@@ -1066,21 +1067,21 @@
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="12"/>
+      <c r="N1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="12"/>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
       <c r="T1" s="12"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="12" t="s">
+      <c r="U1" s="12"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="12"/>
       <c r="X1" s="12"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="12"/>
@@ -1091,11 +1092,11 @@
       <c r="AE1" s="12"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="12" t="s">
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AJ1" s="12"/>
       <c r="AK1" s="12"/>
       <c r="AL1" s="12"/>
       <c r="AM1" s="12"/>
@@ -1108,10 +1109,10 @@
       <c r="AT1" s="12"/>
       <c r="AU1" s="12"/>
       <c r="AV1" s="12"/>
-      <c r="AW1" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AX1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="AY1" s="12"/>
       <c r="AZ1" s="12"/>
       <c r="BA1" s="12"/>
@@ -1121,628 +1122,661 @@
       <c r="BE1" s="12"/>
       <c r="BF1" s="12"/>
       <c r="BG1" s="12"/>
-      <c r="BH1" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="BI1" s="12"/>
+      <c r="BH1" s="12"/>
+      <c r="BI1" s="12" t="s">
+        <v>109</v>
+      </c>
       <c r="BJ1" s="12"/>
       <c r="BK1" s="12"/>
       <c r="BL1" s="12"/>
       <c r="BM1" s="12"/>
       <c r="BN1" s="12"/>
       <c r="BO1" s="12"/>
-      <c r="BP1" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="BQ1" s="10"/>
+      <c r="BP1" s="12"/>
+      <c r="BQ1" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="BR1" s="10"/>
       <c r="BS1" s="10"/>
       <c r="BT1" s="10"/>
       <c r="BU1" s="10"/>
       <c r="BV1" s="10"/>
       <c r="BW1" s="10"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="9" t="s">
+      <c r="BX1" s="10"/>
+      <c r="BY1" s="11"/>
+      <c r="BZ1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA1" s="10"/>
+      <c r="CB1" s="11"/>
+      <c r="CC1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD1" s="10"/>
+      <c r="CE1" s="10"/>
+    </row>
+    <row r="2" spans="1:83">
+      <c r="A2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="BZ1" s="10"/>
-      <c r="CA1" s="10"/>
+      <c r="AP2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="BF2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BG2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BH2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BI2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BO2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="BT2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BU2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="BX2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="BY2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="BZ2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="CC2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="CD2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE2" s="6" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="2" spans="1:79">
-      <c r="A2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN2" s="6" t="s">
+    <row r="3" spans="1:83">
+      <c r="A3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AO2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AW2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AX2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AY2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="BD2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="BE2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF2" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="BG2" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="BH2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="BM2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="BN2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BP2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="BQ2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BS2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="BT2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="BU2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="BV2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="BW2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BX2" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="BY2" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="BZ2" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="CA2" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:79">
-      <c r="A3" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="B3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="U3" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
-      <c r="AA3" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="AA3" s="3"/>
       <c r="AB3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AC3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AD3" s="3"/>
+      <c r="AD3" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
-      <c r="AH3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AJ3" s="3"/>
-      <c r="AK3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
       <c r="AP3" s="3"/>
-      <c r="AQ3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="AS3" s="3"/>
       <c r="AT3" s="3"/>
       <c r="AU3" s="3"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4" t="s">
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AZ3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA3" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
       <c r="BB3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="BC3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="BD3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="BD3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="BE3" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="BE3" s="4"/>
       <c r="BF3" s="4" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="BG3" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="BH3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BN3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BO3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BQ3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BR3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BV3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BW3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BY3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BZ3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="CA3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="CB3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="CD3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="CE3" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:83">
+      <c r="A4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="BK3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BM3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN3" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BO3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="BP3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BQ3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BR3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="BS3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BT3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BU3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BV3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BW3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="BX3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="BY3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="BZ3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="CA3" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:79">
-      <c r="A4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
+      <c r="U4" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
-      <c r="AA4" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="AA4" s="3"/>
       <c r="AB4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AD4" s="3"/>
+      <c r="AD4" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
-      <c r="AH4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AJ4" s="3"/>
-      <c r="AK4" s="3" t="s">
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
       <c r="AP4" s="3"/>
-      <c r="AQ4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>
       <c r="AU4" s="3"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4" t="s">
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AZ4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA4" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
       <c r="BB4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="BC4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="BD4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="BD4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="BE4" s="8" t="s">
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="BF4" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="BG4" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BH4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="BI4" s="4" t="s">
+      <c r="BN4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BJ4" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BK4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BL4" s="4" t="s">
+      <c r="BO4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="BM4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="BO4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="BP4" s="4" t="s">
+      <c r="BQ4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BR4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="BQ4" s="4" t="s">
+      <c r="BV4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="BR4" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="BS4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BT4" s="4" t="s">
+      <c r="BW4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX4" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="BU4" s="4" t="s">
+      <c r="BY4" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="BV4" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BW4" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="BX4" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="BY4" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="BZ4" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="CA4" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
+      </c>
+      <c r="CB4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="CC4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="CD4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="CE4" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:79">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:83">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1777,10 +1811,10 @@
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
-      <c r="AJ5" s="3"/>
+      <c r="AJ5" s="2"/>
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
-      <c r="AM5" s="2"/>
+      <c r="AM5" s="3"/>
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
@@ -1790,7 +1824,7 @@
       <c r="AT5" s="2"/>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
-      <c r="AW5" s="4"/>
+      <c r="AW5" s="2"/>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
@@ -1821,18 +1855,23 @@
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
       <c r="CA5" s="4"/>
+      <c r="CB5" s="4"/>
+      <c r="CC5" s="4"/>
+      <c r="CD5" s="4"/>
+      <c r="CE5" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BH1:BO1"/>
-    <mergeCell ref="AW1:BG1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="V1:AG1"/>
-    <mergeCell ref="AI1:AV1"/>
+  <mergeCells count="10">
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="BQ1:BY1"/>
+    <mergeCell ref="BI1:BP1"/>
+    <mergeCell ref="AX1:BH1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="AJ1:AW1"/>
+    <mergeCell ref="BZ1:CB1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/FCCB_TBCL_data.xlsx
+++ b/TestData/FCCB_TBCL_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu-b\git\PageObjectModel\TestData\"/>
     </mc:Choice>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="430">
   <si>
     <t>fbbs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1769,6 +1769,36 @@
 Capabilities {acceptInsecureCerts: false, browserName: internet explorer, browserVersion: 11, javascriptEnabled: true, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:ieOptions: {browserAttachTimeout: 0, elementScrollBehavior: 0, enablePersistentHover: true, ie.browserCommandLineSwitches: , ie.ensureCleanSession: false, ie.fileUploadDialogTimeout: 3000, ie.forceCreateProcessApi: false, ignoreProtectedModeSettings: true, ignoreZoomSetting: false, initialBrowserUrl: http://localhost:17551/, nativeEvents: true, requireWindowFocus: false}, setWindowRect: true, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: accept}
 Session ID: 86c3eb3e-5dd3-46b3-8981-026c24d6421f
 *** Element info: {Using=id, value=username}</t>
+  </si>
+  <si>
+    <t>06205030701202000000000022</t>
+  </si>
+  <si>
+    <t>06201900702202000000000040</t>
+  </si>
+  <si>
+    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_GCX_0710_1_异常截屏_20200722110942775.png</t>
+  </si>
+  <si>
+    <t>06201900101202000000000120</t>
+  </si>
+  <si>
+    <t>06201900104202000000000012</t>
+  </si>
+  <si>
+    <t>06201900123202000000000014</t>
+  </si>
+  <si>
+    <t>06201900101202000000000121</t>
+  </si>
+  <si>
+    <t>06201900107202000000000044</t>
+  </si>
+  <si>
+    <t>06201900122202000000000014</t>
+  </si>
+  <si>
+    <t>06201900102202000000000165</t>
   </si>
 </sst>
 </file>
@@ -2265,63 +2295,63 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="19.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="48.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.25" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.25" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="13" width="14.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.25" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="8.75" style="1" collapsed="1"/>
-    <col min="18" max="18" width="20.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="22" width="19.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="8.75" style="1" collapsed="1"/>
-    <col min="24" max="24" width="12.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="27" width="8.75" style="1" collapsed="1"/>
-    <col min="28" max="28" width="16.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="45" width="8.75" style="1" collapsed="1"/>
-    <col min="46" max="46" width="20.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="23.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="51" width="8.75" style="1" collapsed="1"/>
-    <col min="52" max="52" width="15.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="56" width="8.75" style="1" collapsed="1"/>
-    <col min="57" max="58" width="8.75" style="16" collapsed="1"/>
-    <col min="59" max="70" width="8.75" style="1" collapsed="1"/>
-    <col min="71" max="71" width="8.75" style="16" collapsed="1"/>
-    <col min="72" max="72" width="13.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="20.875" style="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="97" width="8.75" style="1" collapsed="1"/>
-    <col min="98" max="113" width="23.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="114" max="118" width="8.75" style="1" collapsed="1"/>
-    <col min="119" max="119" width="17.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="120" max="120" width="16.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="121" max="121" width="25" style="1" customWidth="1" collapsed="1"/>
-    <col min="122" max="122" width="8.75" style="1" collapsed="1"/>
-    <col min="123" max="123" width="29.25" style="1" customWidth="1" collapsed="1"/>
-    <col min="124" max="124" width="12.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="125" max="125" width="15.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="126" max="128" width="18.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="129" max="129" width="17.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="130" max="133" width="8.75" style="1" collapsed="1"/>
-    <col min="134" max="134" width="24" style="1" customWidth="1" collapsed="1"/>
-    <col min="135" max="137" width="8.75" style="1" collapsed="1"/>
-    <col min="138" max="138" width="20.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="139" max="139" width="16.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="140" max="140" width="17.25" style="1" customWidth="1" collapsed="1"/>
-    <col min="141" max="141" width="8.75" style="1" collapsed="1"/>
-    <col min="142" max="142" width="14.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="143" max="146" width="8.75" style="1" collapsed="1"/>
-    <col min="147" max="147" width="21.875" style="1" customWidth="1" collapsed="1"/>
-    <col min="148" max="148" width="8.75" style="1" collapsed="1"/>
-    <col min="149" max="149" width="15.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="150" max="162" width="20.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="163" max="163" width="38.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="164" max="16384" width="8.75" style="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="1" width="19.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="18.75" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="48.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="9.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="12.25" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="16.375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="8.25" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="11.625" collapsed="true"/>
+    <col min="11" max="13" customWidth="true" style="1" width="14.75" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="18.25" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="25.75" collapsed="true"/>
+    <col min="16" max="17" style="1" width="8.75" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="1" width="20.5" collapsed="true"/>
+    <col min="19" max="22" customWidth="true" style="1" width="19.5" collapsed="true"/>
+    <col min="23" max="23" style="1" width="8.75" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="12.625" collapsed="true"/>
+    <col min="25" max="27" style="1" width="8.75" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="29" max="45" style="1" width="8.75" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" style="1" width="20.375" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" style="1" width="23.375" collapsed="true"/>
+    <col min="48" max="51" style="1" width="8.75" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" style="1" width="15.5" collapsed="true"/>
+    <col min="53" max="56" style="1" width="8.75" collapsed="true"/>
+    <col min="57" max="58" style="16" width="8.75" collapsed="true"/>
+    <col min="59" max="70" style="1" width="8.75" collapsed="true"/>
+    <col min="71" max="71" style="16" width="8.75" collapsed="true"/>
+    <col min="72" max="72" customWidth="true" style="1" width="13.125" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" style="1" width="20.875" collapsed="true"/>
+    <col min="74" max="97" style="1" width="8.75" collapsed="true"/>
+    <col min="98" max="113" customWidth="true" style="1" width="23.375" collapsed="true"/>
+    <col min="114" max="118" style="1" width="8.75" collapsed="true"/>
+    <col min="119" max="119" customWidth="true" style="1" width="17.125" collapsed="true"/>
+    <col min="120" max="120" customWidth="true" style="1" width="16.5" collapsed="true"/>
+    <col min="121" max="121" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="122" max="122" style="1" width="8.75" collapsed="true"/>
+    <col min="123" max="123" customWidth="true" style="1" width="29.25" collapsed="true"/>
+    <col min="124" max="124" customWidth="true" style="1" width="12.625" collapsed="true"/>
+    <col min="125" max="125" customWidth="true" style="1" width="15.125" collapsed="true"/>
+    <col min="126" max="128" customWidth="true" style="1" width="18.625" collapsed="true"/>
+    <col min="129" max="129" customWidth="true" style="1" width="17.75" collapsed="true"/>
+    <col min="130" max="133" style="1" width="8.75" collapsed="true"/>
+    <col min="134" max="134" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="135" max="137" style="1" width="8.75" collapsed="true"/>
+    <col min="138" max="138" customWidth="true" style="1" width="20.75" collapsed="true"/>
+    <col min="139" max="139" customWidth="true" style="1" width="16.5" collapsed="true"/>
+    <col min="140" max="140" customWidth="true" style="1" width="17.25" collapsed="true"/>
+    <col min="141" max="141" style="1" width="8.75" collapsed="true"/>
+    <col min="142" max="142" customWidth="true" style="1" width="14.125" collapsed="true"/>
+    <col min="143" max="146" style="1" width="8.75" collapsed="true"/>
+    <col min="147" max="147" customWidth="true" style="1" width="21.875" collapsed="true"/>
+    <col min="148" max="148" style="1" width="8.75" collapsed="true"/>
+    <col min="149" max="149" customWidth="true" style="1" width="15.375" collapsed="true"/>
+    <col min="150" max="162" customWidth="true" style="1" width="20.125" collapsed="true"/>
+    <col min="163" max="163" customWidth="true" style="1" width="38.125" collapsed="true"/>
+    <col min="164" max="16384" style="1" width="8.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:165">
@@ -3310,7 +3340,7 @@
         <v>398</v>
       </c>
       <c r="FG3" s="4" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="FH3" s="4" t="s">
         <v>399</v>
@@ -3609,7 +3639,7 @@
         <v>397</v>
       </c>
       <c r="FG4" s="4" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="FH4" s="4" t="s">
         <v>402</v>
@@ -3919,10 +3949,10 @@
         <v>411</v>
       </c>
       <c r="FH5" s="4" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="FI5" s="4" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:165">
@@ -4207,7 +4237,7 @@
         <v>397</v>
       </c>
       <c r="FG6" s="4" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="FH6" s="4" t="s">
         <v>399</v>
@@ -4472,7 +4502,7 @@
         <v>397</v>
       </c>
       <c r="FG7" s="4" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="FH7" s="4" t="s">
         <v>405</v>
@@ -4737,7 +4767,7 @@
         <v>397</v>
       </c>
       <c r="FG8" s="4" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="FH8" s="4" t="s">
         <v>405</v>
@@ -5010,7 +5040,7 @@
         <v>397</v>
       </c>
       <c r="FG9" s="4" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="FH9" s="4" t="s">
         <v>416</v>
@@ -5283,7 +5313,7 @@
         <v>397</v>
       </c>
       <c r="FG10" s="4" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="FH10" s="4" t="s">
         <v>416</v>
@@ -5564,7 +5594,7 @@
         <v>397</v>
       </c>
       <c r="FG11" s="4" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="FH11" s="4" t="s">
         <v>399</v>
@@ -5971,7 +6001,7 @@
         <v>397</v>
       </c>
       <c r="FG13" s="4" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="FH13" s="4" t="s">
         <v>419</v>

--- a/TestData/FCCB_TBCL_data.xlsx
+++ b/TestData/FCCB_TBCL_data.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu-b\git\PageObjectModel\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D198B361-B044-4DEB-AC31-027454645AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482B20DF-73BB-485D-8572-388DB1321D3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CM7" authorId="0" shapeId="0" xr:uid="{895CE292-9A8F-4BAD-B314-7B80E80E209C}">
+    <comment ref="CM10" authorId="0" shapeId="0" xr:uid="{895CE292-9A8F-4BAD-B314-7B80E80E209C}">
       <text>
         <r>
           <rPr>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="396">
   <si>
     <t>fbbs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -547,18 +547,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screenshot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>proposalNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tbr_sj</t>
   </si>
   <si>
@@ -1263,10 +1251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1355,14 +1339,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>121121123123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>140108</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1691,114 +1667,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_GCX_0710_1_异常截屏_20200722063811775.png</t>
-  </si>
-  <si>
-    <t>未知异常Unable to find element with css selector == #username
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.9.0', revision: '698b3178f0', time: '2018-02-05T14:26:55.441Z'
-System info: host: 'DESKTOP-I9S3ABE', ip: '127.0.0.1', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
-Driver info: org.openqa.selenium.ie.InternetExplorerDriver
-Capabilities {acceptInsecureCerts: false, browserName: internet explorer, browserVersion: 11, javascriptEnabled: true, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:ieOptions: {browserAttachTimeout: 0, elementScrollBehavior: 0, enablePersistentHover: true, ie.browserCommandLineSwitches: , ie.ensureCleanSession: false, ie.fileUploadDialogTimeout: 3000, ie.forceCreateProcessApi: false, ignoreProtectedModeSettings: true, ignoreZoomSetting: false, initialBrowserUrl: http://localhost:32889/, nativeEvents: true, requireWindowFocus: false}, setWindowRect: true, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: accept}
-Session ID: dc1c4204-0094-4067-ada5-a3a4d48f335b
-*** Element info: {Using=id, value=username}</t>
-  </si>
-  <si>
-    <t>未知异常Returned value cannot be converted to WebElement: iVBORw0KGgoAAAANSUhEUgAAB4AAAAPCCAYAAACZfcWyAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAAP+lSURBVHhe7L0JvGRVea/d9+b7cpN8Jma6EdQkooZMmsmMt01MTExEHKLRmETJNTFiTKK0GjQxMTgPhFm0hVZA5qEREUTGhmZGZlSEtgFBZBBknml6ffXu2m/Vu9961x7q1Dl9qup5fr+na++11l57qF27TtW/164VBx10UEJERERERERERERERERExOlWKALgt7zlLYiIiIiIiIiIiIiIiIiIOKV++9vfrgbAC+XuBx5LJ156S3rvkVel1+52bvqNVV9KP/cPn09b/81RaevXHp6e9bqj0m+8cW36i/eckv79Uxekz6/bmL5710Pl0gAAAAAAAAAAAAAAAAAAMC4TCYAf2/REOvbSW9JrPvmVtPW/fCk95R9PSD+14/Fpqzcel57yhmPT1jsck7Z+3VFp6786Mj3tNYenp73q0PS0Pz84Pf1lB6Wnv+SA9NMv/mx6xaovpkNO/EZ64KHHyl4BAAAAAAAAAAAAAAAAAKALCwqAH9u0OR1w/rfTb3343LT1O05NP7XqlLTVW09KW73lxPSUN38xbfWmL6St/u7zaev/uzY99fVHF6OAn/raI9JTX31YetorD0lPe8XB6ekvPSg9fbsD0tP+7DNp6z/ZP/38Kz6X9j7s8vTgwwTBAAAAAAAAAAAAAAAAAABdGDsAvvCGe9If731Jevq/n5me/u516an/elra6u2npK3ednLa6p/7o4C32vGL6Slv/EIxCnirvx2OAn7qXx6envoX/VHAT3v559LTtj+wGAX81BetSU/54/3TT/3hp9Nz/+Lg9KWzry/XBgAAAAAAAAAAAAAAAAAATXQOgDc9sTn99xk3pme979z0s/91dvqZ/1ifnvZv69LTdj69Mgr4Kf80HAX8lL8/LhwF/PRXDUcB//RLhqOAn/LC/dL/fsGn048//1Ppnz54enr4kcfLtQMAAAAAAAAAAAAAAAAAQI5OAfB9j2xKrzvsG2nbD1+Qnv2B89M2u5yTfvY/z05Pf89Zg1HAT3n7qYNRwFu/5cTBKOCt/+7zg1HAT/3reBTw0+0o4D/aL/3EH6xOP7Hyk+n5OxyZvnP7/eVWAAAAAAAAAAAAAAAAAABAROsA+HsPPZ5e+rmr07M+fnH6uY9clLb94AXp2e8/L21TjgL+6X8/Mz1t5zOKUcBbrTolPeWtXy5GAW/1jyekp7zp+GIU8FZvODZtvcMx/VHAf3VEeuprhqOAn/ay4Sjgn93ugPS3/3ly+u2/OSL9xO9/Kv3Y7+2bnvvKz6Xrbrqn3JrJcPEVt6Rf/eP9B273uiPKmlH+csdjK23XnXtDWVPPez56Zvqnf//ywONPubasWRyu/PptlfXlfOf7TktfXrexXCrPM377E+nHf3G3gYd//mtlTXde9NrDKn3947tPKmu6c+ddD6VzL7qp4iOPbiprF470tfpzl2Q9ZO1V6Y7vPVi03XDd98I23s8dfWX61rfjc1jOp3d96Iz0+n/5QuH7dz97sNx/7XrWoFw84rivpbvuebh4Lnb+4OnpTf96YqW9+M/v+XL68N7nFm3OvvDGci1Vvn3LvZXjd/4l/YuBcP8Dj1b6Ex99bFM64dQNlbJPH3xpcR5JXR1Xb7ij8voR/+3D68rahXPuV75d2S7r/odeNtg3ea7sPrfxqm/cXizr2XjDXelLp39zbM+7+Nvp8U1PlL1VOfqEq8N96eqe+19UOXfkvLj+prvLtQAAAAAAAAAAAAAAwCzSKgB+4NEn0vaHXZueuftl6Vm7Xpye/dGvpG0/fOFwFPB7h6OAt/7X0wejgJ/yLycNRwH/gx0FfHQxCnjr1x6envbq/ijgp778c+np5Sjgp/1p/1bQr/nXL6X37nte2vqPPp1+4aUHpue+/KB06x0PlFvVjQcefKwIw6wSmtlA8tm/98mRNupz/2i/Stt3f+iMkTYSynnevsupleV+/88/V5SfctZ1Rbi6UD+wx9lFf4oES3Z9dT7luXuke+57pFwyRtZhl5H9jLjg0ptHjof3zTt/qdLX1r+6ZzroqCvDttZjTri6XMuQ//z4mZW+ntc7Z04+c2HH9K/+8fNl76k4Lrb/yP+70/FF250/cHpYH7nVr+yZLvvqrcVyFgnlo/aRL3/DUUUoGdVFvu6fv1CupYrsr233mjetLWtSOvTYr1bqXvw3h6eHHn4sPf039q6Uq/bYKdffeHexneI73OtA3GO/Cwf147hp0+ZyTSn9+0fWjfTvvek793Y6zurL/vbIci1VXt07XlH7Lsr14OGHR29x/we98qj9JJRrBAAAAAAAAAAAAAAAzC6NAbBkLDt88Yb0s3tfmZ65x+XpmbtdOhwF/CEzCvg/h6OAt3rnaYNRwHIraB0FvNUbzShguRV0OQr4aa86dDAK+OmD3wJek57ywv3Tti87MO3+uUvS6//tpPTPHzojPf9vjhjrN4FvvPneMAyZpBJKeWTkoW/31Wu+my658pYimGvrn/zloZU+fuo5exTlMhLVYgNgCShlv60yAvI3X/zZQRvZDgm4cv7v5+w+aCv+du/5ifZznGCtrRLOWmS06bYrP1lps/unLxwJv2VEt454zikhuLaX/VV8ACyh6xdP2ZB+8Q9WD8ok9Nzce3388h9+utJWAmvZFtX/J4A3vuOEci1DZFtsG/nPCToCVUb52rp/eOeJxXNgy6SNHbX688//1KBOzhPPrbffn37yl6vPrR2dvv3rj6zUyXkm/8FB90n20f+nCBl9bpHjaesnrf3PCz4AlhG0O733lEqZjNj1x1lGZdvnSn3arw+DbnteKDL62x8/GV0bjcK1yqhse86Jsg2ey796W+X5HNdjv/SNyrpE2T8AAAAAAAAAAAAAAJhdGgPgT1x6R3rGJ7+WfuYTV6Vt9rqiHAV8SXr2x/qjgLf94PnpWe87txgF/DP/cVZ6WjkKWG4F/ZSd+qOAtzKjgLcqRgGvLUYBy62gB6OAX3nIcBTwdgcMRgH/9btPSr/1V4elnXdbn/5hl1PT2z96Ztrpw2eUW9eeLTUCWALCX+vth112l/9eX9a2R0Ib24cPRRXbTsKuzfffkh675riBmx+8oxLMRQF1kxIseST80/Bs0spoaYsEsXZ7JIi75bb7i7a2XJ6TJuQ4avu6AFiOpWCD5w/seU4xmte2k5GbHjn3ZOSvtvnZ39pn5JbJPpi02y7Boa2Ttj4AljYWucWy1kUBsIy+tcv/3P/55GCb5BbBtu6nn7d3sQ8eub2wbSevJ4vsw8f2Pa94rdh24m/86ZqibiE+Yv4jiA+A5fnb+zNfGcxv/Wt7FSOG/XGWUcERufNC2e+QSyv9SKgbvf4j5D8A2GVfukM8wngSRP/xRV4nAAAAAAAAAAAAAAAwu9QGwFfd8XB61v7fSD+7+uvpZ/b9ajEKeJs9zSjgj9pRwOcUo4Cf/u9npqe+qz8KeOt3nJJ+9T9OTi/6wAnpFR86Pm3/gePTH/zb8WmbNx83GAW89V8dmZ72msP7o4D//OD09HIU8E+/+LPpqS/qjwL+54+sSy976/Hp3/Y8J73942elV771C+nL66uh4DhIkGmDEQnNcvhbsnYJUWTUn132l17w6fTEE5uLUE3CpSblVro+3GwbAEvoe88HVgx8/FtnFn1qmyu+Vj/S0N/yV0I+O/LSc8Y5NxTrVWX0q+xrGyTUs8vKbYgjXvvmYyvbpLcfXuwAWEZ92rLPn3RN+mDvnLRlEgpHyG9I23b+N6Slf1u/mAGw/KcEuWW2Xf4/PnZmWZvSR/apnq9v7b2GI3xQLKPDI3xQLH7msMvL2skQBcDyG9M6/8evObRo94JXHlxpN24A7Efk/80/HVfWNCP/ocEu+xO/VN0O+X1rOZcX6mOPP0EADAAAAAAAAAAAAAAwh2QDYMns/vyEm9Iz1lyTtvn01elnzSjgbcwo4J/7iBkF/F9np5Uf+XL6yCc/mM741J+l7x70c+nBg3+66mE/lx4+5dXppvUfTyecvzG958BL06+++fPpqa8+rBgF/LtvOjb92du+OBgF/M8fXZe2fflB6V93X59e/rbj064HXJzeu/e56Q926HYr6Ks33FEEYVa5RbANRp7663uNtFFl1KZtKwGQbyO3U4647bsPFIGe9d77HhkJGZ/5O/sWQbOMxrTlEvZJaGPLJhUA6+2czzr/W4My8eP7nl+U2yBMtMFkxLXXfa/SXjznwtERwx65JbEEYXa5E07dUNYO+c5t943celfb+WPUtK1ClwD47AtvrJTJ7bR/76UHVsrkt5AjDjzqyko7+d1gy1IGwOd+ZXTUt7w+BAnr7bLihZl9Elb2Xpu27dev7fdjedFrD6u0ESUAl31oqzzHErir8h8XLFEAbP/Txtv+85SinQ++f3f7A4p2XrnFurbxAfB137qr0ocot1puiwSz/hbme+53YVk7+h9TxlWOAQEwAAAAAAAAAAAAAMD8kQ2Av3jD/emZB34zPeOz16ZtBqOAv5aesU9/FPCzdrs0PVtHAX/4gvS3ux2Qzl79wvTAQU9LD3zuaenBg58+DH0PeUZ65Kwd06abz0hp0+jo0U1PbE5fvujb6c92PqkYBfzSd56Y3rfmK+m3XndEMQr43Xudm37hFQelfY+4Im3/ls+n93/qgvTOXc9Kex54cdlDMxLMSdjXpB/xKsrvgUZtvf5WxcJeay6q3LZWwjclChkFH2ZJALbYAfBBLqA86vivF+WyHlveJlT1oyzlt1ib2PeAiyvLSOD+yKPV2yQLu62+oNJOgjQJ1ISuAbDcEtj+1uur3nhMWRM/NzaIlf8scN/9jxbPlSqjaKXPiO/e+WClrdye2NI1AJbfiLVlEjBbfmf7AwZ1r/z74X4JdmSsKAGt4kPu3Khe5b97r0XbXs5xy8233lepn5RyjlnkmNp6GUW79a8Ob7u95tDLinY+AJbfb5bA22t/+9oHwPKfI2wfcs14+OFuv0v+bx+ubq/8RwLl9jtG/8PIOMotvQmAAQAAAAAAAAAAAADmjzAAlgjrxSfcnJ71uY1pmwM2pGd+5tr0jHIU8M9+4qvpGToK+L8vSS/c/cS0fvUfpwcO2Do9cKD41EoI/Mj6N6fN91Vvd1vHSRfcmP7uw+vSmz5yZvrYQZekf/rIuvS0F61JHzvg4iIE/sK6jemfPnh68ZvAL3vL5zuNAm5DNPpuIYGJ/73P7V9fP8pU8GHWUgTA7+sdTy0TddTnOAHwJ1yYK31EYa7lD19VDY11xKZFbl0svx1r271317PK2tEAWEJaWXdOG/6KcjtnJXpuZJt0Xm4pLKGfDXW7uOsn+yOsFR8A222X36+1dX/+d0enF77mkErZVy7/TtlTn79b9cVK/dEnXF2Uy8hz6dvWfe7oYXh85nnfqvyHBbmldx1y62Lb/ojjqufH/odeVlmXKL+nbZdpoxwH28fr/6U6qlmOqa2/+IpbKvPyW9eCD4DHuQX0b774s5U+3rzzl8qa9vjfjhb1tThJCIABAAAAAAAAAAAAAOaPMAA++9aH07MOuyE98+Dr0jYHbQxHAT9jzyvSe/Z5X/re/j+dHvjMU3puVQmBHzz8F9Omm+LfDm3i/oceS7sfcUX6wvrr0/s+fWH65FFXpp/Z7rNpz0MuTS9809p0yAlXpz0+d0n6u/84OR30+fh3YiPkt3QlzKlTbv/qA5P/87IDw7ai/PZn7rdqhS+v21jpS25z/O1b+qHTcgqAfWAot60WfPDWJgCObud84mmjt3NW5FbKtq0Y3Tb6/gceLdb/p391WBFiij/zm/ukHcsA7sqv31bss/elOxxZhI7qb/XOJVsvv3ErobUNqaPnxt7KeNV/nTrSposyytQi/dt6GXmr55gPLeX3hN/z0TOLWztLELrPZ79S9jLkhpvuSf/8ni8Pbk8uI3uFW267vziGz/nD/QbHUEZby+/0TpoP7XVOsR677eK/vKf7dUGOl+1DXiMW/5qRUNvOS/AtLDQAvvSq0eD2tLOvL2u7YUdpi/9l/jODILfJltdzV+3vSxMAAwAAAAAAAAAAAADMH2EA/I4L70zPOuLG9OxDry9GAT/jwG8ORgH/zKe+np75iSvSZz/5d+n+/f53un//nyoD4J6f7YfAD639vbT5vm8VfS2Ujd++J+1zxBXpoC9enX77dUekXT51fvrE4Zend+2+Pn10zUXpH/6zfZgkYacPQyalhJgRcnviZ/3uvpW2GrYtpwD4j149HFEqoaDSJQCW2+aq8ju9T3nuHsVteEW5Ta70FfnTz9t70K7w16ojd3/lhdWwVAJNu03+N249MoLUtvfha4R/bt7ybydVbg/+88//VBEcy4jxcZQRqhYfANvjHN0CWkb0Snlbr9l4Z9lbHx+oyjES5Dd85fxr4xt2+mJxK2b1r9/y+aIPxfZvlWW70jUAtrdYlnNRzu9vfPPOkQBYfk/YPzcS6NrfAP7btx1frmV0PXIL8gcefKx4vqzfvD6+Hlj22O/CSl+/+Aeri99gVvw+t9We3wTAAAAAAAAAAAAAAADzx0gA/MimzelXj/tOevaRN6afO/xb6VmHXF+MAn7mARvSNvtfk7ZZ/dV01Kdem+7/9E+WAXDPNRoCb5UePOq30uYHquHWQrn/wceK2/9++DNfSe/a85z056u+mE674MYiAH7tO09It9x+f9mynigA9mGIBEBNbb54yoaRNjLSN8c7djm10vb5rzioKF9OAfAzf2cYUtvfI5X1aLlog0mPbSf+yV8eOhiBuhB1hK8iZXY9Mi/I6EwfxIm+/bN/75NhO1Hxz438jq4EaxJQa5ncCliCf71N8bFf+kbxu8A6b3/nV24XreXilVdXb/fbNQCORqrXafsTcgGwP8+6apFzS5QR17aNPJ9a11YJR20fTQHwm/71xCKctWUnn3ndSADcpIxkP/6Ua8u1pPT+3c8ujr96wJFXFM+7X07uNtCE/D6y7UuUwFbxz5Gsx4fVol8/ATAAAAAAAAAAAAAAwHwzEgBfdMej6efW3pyeffS3B6OAn/m56wajgD+z+o3p/tU/ke7/tKgh8E8VIfCDn3tmeuKefBC6UDY9sTm9fKfj04Ff+HpaffSVafeDLknv/cR56fDy902bkCCpKQyRQGUSbSyyXh/03HXPw8smAPbbYUdyLiQArjsmCyEXAPvjNo5K7rl5zZvWDspkWm5VrfMv/pvDi6BX52UUqeJ/k/aiy6q/2Sv92/qmAPjyr95WCQGte625aNBWbpEtt2H2vxGcC4DvvOuhQT8+uJVQ1a5n5w+eXqkXI7qG1W1sCoDl+Tvr/G9VymQEsJzbtkxGUst5Gin/qeO6b91VriHPK95wdKVPe8voheCfIxsOW3zISwAMAAAAAAAAAAAAADDfjATAn7zm/vTzn/9O2vaYm9OzjrppMAr4GQdtTDvtv2e6/5M/mu7/1I+FIfBjV+9bdLaYfOOGu9Kq/16fdnz/aelLZ1+f9jv6yrTnQZeUtfVEAfCkHCdUWS4BsPx2rs6LcvtcZZoCYLl9sazT+8Z3nFBpLyNDo3aikntu7AhSOU7Xmt8vft6ffaZoI7e01rI7vvdQUbbfIZcOyuQW2RIUW7oGwJ857PLKiOK1J36jaCvr+4Xfr46Wfd9u64s6Sy4AVu6+9+Hi1sm2jQSqFr9dYoQPgOW3lO22t9Gfh20CYBmdq/OyL48+tmnkOEu7E07dUGyjeuZ57W9fLyN9bX/iMTX/IUXORXn9qfLb0zkIgAEAAAAAAAAAAAAAYBxGAuC3feXu9MtfuCX9/LH9UcA/d6SMAr4hveDA9en2fbdK9+37oy4E/snChz7//F43w9+vHJtHv5E23/batPnWV6bNd++e0qZby4oh/7rH2Wmfwy5PF3/ttrTz7uvT6qOuKGvqiQJgf5vi7V53xFht6kKV7939UCVgEmXk6HIJgP0trT998KVlb9MVAAsy0lXWqz7ySP/Wy7a9BmSnnHXdoN26c28oypTouZHfc5bwVsvWHHpZ8dzq/NN+fe9iWbk1tJbpb+/KbY+17A9fdXBRZvHBpNymWrZTtLfnFl/1xmOK88dui3jiaRvS3/zTcZWy3++da488uqlcyxAfLsoxssgxsfVb/cqe6aGHHytr+4wbAPvwtg1+e9sEwO/56JmD+V/7k/5zHgXActtuGSmtZXJ82/KBPc+p9CfPVXS8lffuelal/bYrP5Ue3/REWVvF7zMBMAAAAAAAAAAAAAAAtGEkAH7l+u+lXzr+1mIUsNwKWkcBn7D65em+fX4k3feJJ5ch8I9VQuDHr9ur6GihbL5l+/TEdU8yPjltvvNdKT1xT9kipetvviftf+xX056HXJqOOOmaYhRwG6IA2IchcmvbSbSxnHb29SPtb/rOvUsTAH/tyMYAeJ/PfmUwL9rfM562ANiGrzIS94knNmcD4D969SGDMrlds4TFSvTc2NG+oo4Ufcpz9xiUSUgqt4LW+fUX3Fi0sdv19l1OLcosPph87h/tN/jPAr/0gk9X6l79prXFMj6Atb9PrPMyKjqiKQB+14fOqNTLOeNZ7gHwX/3j8HbPesyiAFjwy1tz57z8h4Cff/6nKm2b9u3qDXdU2ovyHxEiCIABAAAAAAAAAAAAAGAcRgLglafckX75i7cNRgE/65hvp78++Jh0394/3A+A93nySAj84DG/ntIT/VvdLpQnbv4DFwCX3vQrKT12TdkqpTvufqj4HeBTzvtWuvDKW9J9Dzxa1uSJAuAP7HF2EYiou62+YKw2Up7DB5ASGglLEQA/cu5HKwHwplsvHwmA3/m+0wbzooRUyjQFwPe647n96/uhZS4Afscup1bK5Xd6lei5OemM6nMgIb4gv7GrZdffdHf6u1VfHMzLrZl9Xwcfc1WxnMUHk023gFb+8V3DkcXefTvcXtgHwL/30gMr9f/9qQvKmiHjBsAywlb2r4syItr20SYA/o0/XTOYf/eHzija+eOsAfANN92TfuKXhuVyfOS8Es++sB/ie2TEte1LlN8ZbsL+xwNRzpcIAmAAAAAAAAAAAAAAABiHkQD4N06+Iz33xNvTc46/Nf3i528pRgGftHr7dN9eP5wNgR85+8+KTibB5u++OQ6AxW89I6XHhqPlDv/yNWnDjXenS6++Pd16xwNlaZ4oAJ6UdaHKa960ttJWbtMrtA2Av3rNd1sHwHIrYwmARLnd7AOfe0ElAH5k/fvS+esvLfoTJTSVQM72bW/1O00BsIy2teWy/0IuAP7c0VdWyuV3dZXoubEjpWV0rYwuFv74NYcOyuUW1Dt/4PTB/KcOuqQYKazz4td6z6dn3ABYfkvYB6ziy/7vUYPti/Dhog2Ab++9lmydeMGlN5e1Q8YNgCdhUwB8x/cerNwie/9DLyva5QJgwd4+e+tf22vw+805/nLHYyt9/dlfH17W1POZwy+vLCe317bbofjniAAYAAAAAAAAAAAAAADaMBIA/+rJd6Zf+dJ3B6OAX3jUhemePZ6U7tuzZyYEfvyaNxadTILNd+8Rh7/qt3+r16gfllxy9e3pvgcfTd+65b50Y88mJNCR0GoxlJGfOZ71u9XfcN1jvwuLch8yym8LS/AnQZItl9+ZbRsAWzbddG4l/FUf/Pxfly36PO/PPjPo9xd+f3VZ2meaAuA997+oUn7sl75RlOcCYAlibflb/u2kolyIAuC3/sfJg/mVLz+obJnSa988DAJlVOjun75wMP/+3c+uzMvvBG/aNBrMjhsAC//6/uoIbjG6zbSlLgA++oSrK3VP/429w9+p9dslRvgA+K/f8vni3Ojitiu7jQCWIN7O62881wXA8rvKtk5G+uf49i33VkYMi3WvDcvd9z5chL522QOPGr2NvX+ODuq1iY7NJw+sPg8veOXwN6YJgAEAAAAAAAAAAAAA5o/REcCn3Jl+7ct3pOeUo4A/dOD70727/1C6b4+eQQj8wAE/kzbduHPRySTYfM++cfBr3HzXx4q2Dzz0WPrOd+8vpqOAKof8xq0EQdajjv96WZvnhFM3jCwnt/it47pv3TUSwJx1fv+3Y33IGCmhoyChjS1vDICfeDzd/+nnhAHwPR/4H2nTd/thlYSR9jds5fdrLdMUAL9hp+Gtl0U59kIuAJZzRkZ6arnc9liJAuCXvO6IwfwObz2+bJnSTu89ZVB+wJFXFEGdzv/ze75cGVkqfURI/9pGbBsAn/uVb6ef/OXhSFfrMSdcXbYapS4AtkG3KAF3xLgBsA9v2+C3tykAPuK4r1Xmv/Xt/m+I++NsA2Dh9822/uIfrE6PPraprKniz6mf+c190oO961Fb/v7tJ1SWj0YP+31uo4TScg4qBMAAAAAAAAAAAAAAAPPHSAD8h+vuTr9RjgJ+7gm3pzM/+Yfp3t1/MBsCP3jY09Omb+5QdDIJNt/xr2HoW/GGp6b0RHw71CZkpO7P/tY+lUBEgh65ZWwT9z/waHrenw5Hy4pyK2C5tXQOP5pSApr77u//XrGEr7Jszu/eOdymrgHwI+fvWgl9791j68r8g0e9omgnv2Nr+5XflLVMUwD83D8a/hbvM39n36JMyAXAgh1tLUGqPMdCFADbUagysleR/1AgAaQot3uWkcU6f8jaq4rzS5f7z4+fWS5VZZwAWLbxV16YDwmf+ut7pSu+dlvR1lMXAPu6T2R+S3g5B8Af2POcwbSMttXbYTcFwIce+9VKffQfQ6Qv+7vPoozC7sJRX6xeF0T9TWlFfpP63Ituau35l3w73Xp7/z/EKATAAAAAAAAAAAAAAADzx0gA/JcX3FuMAv7VL9+RfuXEW9Mduz053bvbD2RD4AeP/JH0+BW/WnQyCZ64aWV6YmMQ+jo33/e5con2yGi+F77mkEoYIqHf2RfeWLZoRgI1f/vW337JAemBB+PRf+/60BmVtr+7/QFlTTPy+7waBktwaPvZduWnylajPHHPjenej/7QMPD90P+TNt3+1XTfJ7ethMCbbrl45La3H/1EPwi85bb700WXfacIuG29hJ2e2777QDES2rYTZfnFIAqA5fbetuyVf39M2bo+AH63e37Ou7j/gvABsF/nYZ//arrrnoeLoLZO+Q1gu9w733faoE5Hl15/493pRa89rNLu+FOuLepkO3xo+R8f64fI//DOEyvlv/SCT6e/fdvxlTIJiKP/3JALgG+46Z5KuSjnn+XOux4qAsc37/ylSrvcObmQAFjWLbdvlhG2to89y9uoKz4AtsfB3q77HbucWmknt16WQFT2SXjkkccr4e7v9F6vek4op66/vtKH+FvbfbbYz7bKf1DwfZx85vD3zSeBPEeyf349Fwa/5wwAAAAAAAAAAAAAALPDSAD8rqseSL992l3FKOCXfOEr6d5d/1e6979/IBsCP3TUj6THLnhy2vxg8y2UG3l0Q9q04UnpiW/2bAiBN9/6mnKh9vgQVfzw3ueWte2JRj7a34+1/MlfHlppJ7cEbosf9WuV8C+HjO61Qe/Dp7+7KH/00v0r5Q8c9mcjIx4lmBR8oCbKCFgJPT3Rdspo3IcffrxsMVmiANiHcjICVKkLgP1IzH3L0a4+AJZAUfZTldHZEk7aNl3V0af+WMsIdQnVBQnxbJ14xjk3hCNIJSiV2xA//xUHVcpfusOR6bHHq7dIzwXABx9zVaX82b/3ycHoWSV3XuZ+d1gCT9uuSwD8sr89srKsKLcs/+o13y1b9PHH8LSzrx88Vzbw9CPyVTnOyudPuqZSJ9tg2fmDpxfHTwL3n3rOHsVIa5lfiK964zHFb31PErsPqrwuH3q4/a2qAQAAAAAAAAAAAABg+hgJgPe//uH0u2fcnX7z1O+lNx91VLr349+fCYGfVITAMgJYAuBNG99SdLQQnrj1zWnTtU9qFwJ/65nlUu2Q0bQf3/f8IuhS91pzUXEb5q5s7i0iIbDtS7S3bFZkpKJt02X03YbrvjdYTkYuvnfXs9Kunzy/uC1tLlzd/ND30sNn7TLwkfXvS5sfK7dr0yPFvK2/4IJvVLZPbpEtnH7ODcX8X/zD2uLx0wdfmm6+9b6izvPtW+4djGoV5beSdUTlYnDsl6rbLPMymlYCVfWRR4e/3Srhnm0vz50ivwNsl9PjKv3ZfbogeN7ajACuU0cAX3rVrYMyCSjltr3K7Xc8MKg78gtfT1de3R+Ne+JpGwbloh096p8P0fYp+PNXA1C57bBdTs4DT9S/3Po691qS36S164r6zCFt7Xrkd41lxLTHHkNRj22E7KO8hmx7Oc6Wb3zzzuK5kLou27ucsPsnfvGUDRMPmQEAAAAAAAAAAAAAYPkxEgB/5XuPpt9dd3cxCvjtRx6U7v3Y97sQWALgYQj8wME/nB47/8npsQt+NG2+74Kis3HY/PCVadM3npw2XfOk1iFw2tz8u70AAAAAAAAAAAAAAAthxYoV5VSeXJuu5Tl8+4Vs03JhIfswiX2zfSz3YwWjyHNm1TLFTtfRth3MF/686HqedGnftW2kZyQAfuSxR9ILT7u5GAX8niM+le796P9bhsD/KwyBH9j/h9Oj5z25CIEfv/Tn0+ZHx/jd1013pE3ffE7a9I0n9S1D4CIArgmB0+PD27YCAAAAAAAAAAAAAEwC/2V607zStp1QVxcRtW/qQ+vl0bsl8Ottmle6tGvSYuf9tHUs1q0aLL9yzcaysM+6VWXfq8zP5XVtHxC127hm5aDf2j5y66/ZruWEbF/0qOg++HJhtGxjWrNy2H7VunVpVTk9dGVa0OHYuCatXLEq+Wej1XOdWXZA43Mm+5NZfiHL9hieb+74DPqtLjvYX99nsY9l3co1vWdk6ZF1W/rbOVSpK4/w7euM2kdE5SMBsLDLyV8uRgG/8+jPpXs++n21IfB9e/1QevScJw9D4MuemzY/9I2inzZsfuQbadOGX0ubvv6kvhoCyyjghhA4bbq17AUAAAAAAAAAAAAA5pnbfuNHCieB/zK9zXyTnlxZbhmd922sFjtfVzcOCznWue2KtrGtip2O8G0jtU6x0+1Zl1ZpgFcGWYM8T4KwckbCsv5k1/YBYbuNad06E531+l6VC/W048r6a7arhkm+FnPUPUdRXfSYU5Fwcri/EnwOQ81+0FkTwtYifcm63PKtnuvMsgOan7P8ti9k2R5m+4vpQXAr21wuI/2aNsPJauC8cc2aeB1LhD0PhKZ5xZa3aSOM065NH2EAfNHXLygC4Dcd96V0z0e+L90jAbAPgQe/B/yD6eEv/Uh69NxhCPzYRT+Vnrh515Q23V/0F/L4HemJWz+QHr/qx9PjX31S2iR2CoF/WNLjsjMAAAAAAAAAAAAAmGckcNp01x0TCZ6avlxfyLxMR2qdYsusip2OqGvbtGwTkzrWC90OT5djItj5NtPjMgy3ZGSpGRkpYVgwurFr+9btTOBWhw/jlFy5Z5KvxTr0ufHPUVSeaytEZYLs7/B4SYhpR7X2g9g2xzPGhKIFbZ9rwS+bZ+Q56/W7ak3PFst3XbZ6vIb7I6HxsB+3nyXVwLt/bBc8ynoB5M4hNUeuvZpD69q0EXy7aLkwAE5pc3r9SRelV3z5ynTPh/9nNQSW3wN2IfADB/9/6dGzn1wNgS/o+ZWt06ZvviE9cete6YnvHZ2euPPQ3vSuadPGV6XHr/jJ9PjlP5wev/JJfduGwBoA3/iL5ba246QzvplWf+6SdOXVt5clKX32iCuKsu/d/dBg2vrIo5vSNRvvLKYvvuKWcqk+UiflR59wdVlS5Vvfvid94oCL03/telY66Kgr0/0PPFqUP/DgY8VyBx9zVTEvfOawy4syqROOOv7rxfxDD/fnBZk+ZO1VRfleay4q2txy2zBgP/TYrxZ1dvqO7z1UzAsXXnpzUXbZV28tjoFMW8/9Sv9EOPG0DcW8rEO2+6vXfLco9xz5hf427rHfhelzR1+Zbrz53rImpVPXX1/U7bl/v48rvnZbWdNn8+Z+mw/scXb68N7npvMu7q9b+dLp/edK+pbnZcN13ytrUjr+lGuLOut3brsv3XvfI8Xx+dRB5fH54tXp1tv7x0eeO7+M+OV1G9MpZ11XTF961XA0uR7n7945+hvTl3/1tvSBPc8p1hHVWx5++PF03JevSR/a65y02+oLivVZ5LjJeuRYeOQ52rO3/3J85FjL8x+dc9ffdHdRps+fcPOt9xVlopyHFr+8LKdtrevOvSF94eT+sb56wx1FW3ne1hx6WVGm57Nw3/2PFmXy3Ah6vI/90vBOALoePScfe/yJol6OjZwn+vrSc9O+TuW4SZmsR47DYZ/vn9+ynBybm74zPPeUA3vnnbQ5/ZwbypI+2tc5Fw5vH6/nlOWe3vl0+Oe/1t++3vNw0WX9W9tH14kcsk+yjdKHPNey/cIjjzxevH53+e/1xTku15g2yOta1q9Er2NR9keOk32NyvG46hvDYwoAAAAAAAAAMIto6DSpYLJJS1Tv9dgynY7KlLZ1gsz79t6FMO6xjrbDa2lTb/Hznqi9VcmVC1FZE8MAzAd3cZDXtX3bdutWRcuOUg3shuTKPZN8LTahz4U+L3beYus8ufK6AFiOhQ0o6/qPaXrO4uewT11dFf+crVsjoXK75dssWxyHMqiuHq/hfK58yLq0xp5XGzcW/fUaVo7xUmGfS532z21UJmhZ1N4StctNC13nhUwAnNLJl55ZjAK+8eM/FYfAxa2gyxB4zx9Mj6x7cv9W0D4EvrDnRRIG/0h67OKel/xIevzSnpf9cD8A1hD4qm4h8Obb31RuaTskiPvxX9wtvfLvjynmJRCV+e1ed0Qx/4zf/kQxb9UQSKY/tu95RTtF6qT8D/78c2XJkM+fdE3a6lf2rPT1Ky/cvwjjnnhic/rZ39on/e/n7F4EQbff8cCgjYRkUv/039g7/fzzP1X21kcCVm33E7/Uf9z61/ZK51/SfwJ/9Y/3L8qEHXf+UjEtgZHy8jccVZRJewmFZNr67x/pv9q0H12HuM9nv1LUWbROlf2V0FCQY+Lrd//0hUWdBH9//ZbPj9S/fZdTi3pBt0H9yV/evQizhJf97ZGVOvHci24qwi1f/rRf37sIvOW583Xi6/75C0UALNN/+leHFf1rP3/4F4cUz4XlkitvST/1nD3SC155cHr2730y/eaLP1vWjCLBuTzndn2y7YqEtFou+2uRfbXHX6YlOI3OOQnLpUyfP0ECP132g3ueU5b28cvLctrW+k///uXBuS/HSTjzvG8V8696Y/81pOi5qfunx1u2W4NcXY8c302bNqftX199Hl//L/116Lkpj4qsX8pkPdHrQM49G+jK60zbPO/PPlOW9tG+5PmT4ynoOaWcdvb1I9eDd5TnZ3Sd8EhQv8Nbjx9pJ/8h4bbvPpB+Z/sDKuVyLZD/KNGEnCeyfiV6HYuyP/Y4WeW1Z/9jCQAAAAAAAADALCFB0+O33zxwksFT9OW6ZZwv522ZTkdlgkzbNl6LzvtyISobh8U61rl9Ufy+RfVNWux8m2lB5n1ZE8PgtV3I17V9u3a9smrqliUXFLcNkBfztWhpeh6i51GfvzqV0QC42s4eTr9sM03PWfQcKnV1VSrP2WAEeLvluy5rw+DeXJLfUZZlagPgIuQdPZ4DpD6sWFz0uYyeU1+m22/VcsVOC75N1NaXqX7easkGwJs3P5HecNIF6bR9X5Tu+dD/7IfAg98DtiGw/B7wD6QHD39SfxTwOCHwFZkQ+OqeQQi86Rs/nJ649dPllrZDRi9KcCchyPU33p3+8V39kFRCPUGClZ/5zX0GIZMoAWDXAFgCXQkexQsuvTk9+timQfj1mjetLdrIo8xf+fXbihGJMi1++uBLi9GuMv0P7zyxaKtooKMh2ycP7Ic/EtQJNgCWkZsy/X93Or6Yl5GHT3nuHukX/2B1sU8aHH1kn3MH+3rXPQ8XbW0/MnJXpn1AKUj5c/9ovyLMk8Bb5nXbNAAWvvHNO4uAa9uV/UB77898paj7i39YW4zalXX/xp+uKcpklLag2yB9S2AtQZ8GeRrWybHVbZcgXYNbDStl5KXMS3Anz4nUy+hgKZOAXOZ1dKz8JwApl7J3vu+0Ynr9BTcWdZaPfqIfbMooYH1OddS2RUb+6j7IMf72LfcWwZ8dyfyZwy8v6vWctCOtf7cMCGXU6Z13PVQE3ELbAPjP/vrw4pjKfzR4/isOKkv7+OVlFLnst4xUlzp5lHnZ5sc3PVFsiwTwElj/7duOL56Lr7lR4fIcyLL6/NsA+BVvOLooswGwPHcy/eK/ObzYPxnFrKOM2wbAui4ZESvzb3zHCcW8IK8jKZMQXx7tCFvpS4Pj9/b2VdBzSpDjIa9deb0ccOQVRWgrI4xlvYJcJ375Dz892BYtt7zno2cW/b10hyOL15C8tuQ/IgjympS6//z4mcV/hpDR7/IfOWR9cszrkHPKBsDynwLkePrzWq5vepzk3JZAWp4zOd5S9m8fXvo3SwAAAAAAAACApUBCpoevviQ9cs3l6ZFvfi09esO1ixZMevyX8JEeW6bTUZkg06ol117QeV0uclwW61j7bfLbq/X+UfHznqi9VclNj8XGNWnN4Cu5FiFf1/YFLdoNArwGKus35MoDFvO1qOjzos9dpNZHj5aoTBgNgCc5GrXpOQuewwF1dYbKc7YxrRnMtFh+rGX7oa8cz779drUBcImUxUFvb33ZW2EvHrnzJTpXojLBluemBZn3ark++rIIX5cNgIWvXve19KHDdk/3fOh/lKOAbQgst4I2IfDuP5AeOeVHKiHwYwsJgb/WMxMCP3rmz9b/vnAGGdknAciq/zo1bf2re1ZCIwlWfvp5excBiqihUdcAWG7nLOU7vfeUsiSlBx96rBjVK8GTLCejYaWN9C0BoQSp2678ZPqX95xc3J5X6uwtogUNdDT4klGiMi9BkmCDWwklZf9knyRE/eIpG4q6d33ojKJeQzYN+8QoAJZ1Svj3h686uJi3SBtpK9xwU3/E5R+/5tBi3gbAEnxKuPXbLzmgmP8/LzuwqLO3hdYQTwIswe+LhteChnVy22TddtlHeZRyDYDllrsyL7drVqKwVJAQTsolTJf/BPBX//j5sqaKBusv+79HFSFhrp0E2dLuL3c8tiwZReqe+ut7pbUnfqNo+9+fuqCsSelFrz2sKJPz1IaCbQJgCVTlOZNz6W/+6biizt4G2i+vRMGroOeOBOMy+vmt/3FyWTPEn5saAOtI75PPvK4YiSzT8jxJ2CvTMgpXRqnLf5JQugbAOrJ/5w+cXswLMspfwm+5zbLUyX8GUKQvqZPlZeSwHN9Xl/8hQ5Bbe8u0P0cUeU3Juajn3jevH4b6goTmOsLf3oJdkP+IIc+NnGN2FO4/v+fLxTr3O+TSsiTGB8BKdF774yTo61SuNQAAAAAAAAAAs4gETA9dcV566KoL08NXX5oe2XDVWKFT9AV72zKlrk6xbXS6rszWCVFbS9uycVjIsZZtqNOSm/ePip/31LX309bx8eGV+/3Tjf53Xtu2lxBOt09CtqZ+pWiVCS/98koubMuVx0zqtdiG3PPjy3XePwq56aUNgJufwyF+2Qj3nJmRtkNzfSxk2ZLeMnr76OqtpN1+KrK/uQA4LF9cZB/9o04LuWmLXTZCynN1nqa+BF9XGwALh535hXTXh76vVQh836d+MD165pMXLwS+5knp0fN/PD12+Y7l1nVHbz0roaINxiRYkXJVw82uAbAEslIuo/IsGnzKiFi51bNM/8fHzixCOgnKZLskQH3/7mcXdTKKz6KBjgTJv/fSA4swWYJZGd0q2NBUkHBS5uV3SGUUrEzr7aI1ZLPKfgraz+/39ksCSgmLdDmLtJFt+df3nzYYwau3edYAWPqQNhL06ShW6VPqbOinAayGVboNEjqufPlBxbTeglfayLxVngsNgCV8k1GrcnwkSJXfd1ZyAbCgIaAEd7nfZJXfntV1vvA1hxQjj+U/EUioZ38TV0NEGTEcIf8hQAL617752HT3vQ8X65T+lK9c/p3imEkfcp7K9krI3SYAPuK4/vl6zAlXD4J1GRGr+OWVXAAsI+d1JK08d/Z3p5VcACyj2yVklVHOu37y/KJMnidBfv9W5kX5DxA64rptAKyvAzl2cp7p7z3L8yDHTF5XGobLiGhF+5LfBpZHOa+0THjbf55STMuo9gh/nfDHUo6PlP/WdqO3B9fgW85pi/xWuJTriOQcCw2ABX39AQAAAAAAAADMIhIwSdikjhs4RV+w15XJY1stdl6nozLFtqlrp0TL+2XHZVLH2lO3zaqW20fFz3tsvUxHap1ipwXbrp5qSLdxzZr+tLml7WjA2KW9o7bdxrRmVVOAm1l/tjzPYp0fEfp8RFp8WZvpLgGw77+Z6nEtaPtcR8tWaHrO6pZfyLJ9qreCFswyZh8tsky0v7nyxUafS/+cRs+zna+rq6OpndbLY6TWWRoD4E1PbErfPfzP0z0fXGFCYPk94DgEvv+zP5QePatrCPzDrUJgWe7h47dN6Ylh2NYVDUv+/u3D0b+CBCsSjkgQKh5/yrVFedcAWG8T7MM/uQWylEtgK6P/ZDSlhI4S6sgoYBntKSMDJbiSW8x6NNCRujf964lFsCW/QasjCX0AfMjaq4p5ueWy3D5Zb/8saMgm/ej+auCs/chv8j7rd/ctRrra2xMr0kbCt196waeLIFpuSS0hpaABsIRrEiBLCCihpiDzUqeBnaDPiey7oNsgfUtYJsdebmMraAAsoZluu4TJGgBLGC2hrATA8lurupxQFwBLQC118tutEdq//FatjtCVYFXOGwnvLfsfellRL+F4hI4QluBT9kduASzzNlyV80ueu5/7P/3jJaNZ5ZbBMm1/e1hvv/2+3dYX82/Y6YvFvATKentp+f1nRea7BMDCUV/sj0qXcDQiFwDLMZNjLdM6GlgDYEF+H1jOQSnfpncc5dbZemts2XdFRvRKmQ2A5XUgI8bldSTni96KW0csy+8vy/bIuSfnwnfvfLCot2HvS153RBEW6y3ZBRlJLNPRcRDk+ZZwXs89Cbkt8h8OZHlp539DWrf9OX+4X1nS5wN79P/Thx2pHCH7uZAAWAJxKZPtBwAAAAAAAACYRSRkKkYd9lxI4OS/RBfalil1dYKv13lbnmtjkbKoXIj68o/jMqlj7fHblZvP7Yef9zTVK7ZdtI7GfmQ0Y9luoEmxJNyrlHVtnyHbrtf/qlxyKeTW37BdORbr/Mgh22Xx80Jdm9FpGaU63OdV6yTA1Pk4BNa27bD9VcPU6Dksygbz8bKDNq2es2qIu5BlbdhbTIfL9JDgt+jTrbdcz3CEsOnHlS8lsm7/qNNK1MaSKxdybZVoXs3h6xoDYGHzI/em+/f7lXTPB/9H+xC480jg+hD4sfN+ND145NPT5nuvKLdqPDTo09/OVSRYicIVCXmkfdsAWEYySrmEdDJCVNBbT+ttkAUJEXWUp9zOWH5vVKZlG95c3grZ4gMd2X6ZP/ZL3yjmfQB8x/ceLEJiDQH19s9CXdhn+9F9lzDYI+XSNkIDYEFvmyy/uSxoQLnHfv3RwoKGcro9fl8ssv9SJ8fDogGt9CXIbyjL/ImnbSjmhboAWJf354WiwaTcmltu7SvPr8yL8vxaJDCXchmNHI0mltuDS70Es7K9MlpU5g886sqi3v6usP6erYSEgoTiEnpqoCmjRqX+oN6yEoTLfyIQpV9RAnxpL+erIG27BsB1x03w56YGwDJyXI6VbI+EsFImx1mCURkFregob+nnlLOuK6bl94YFCfAlBJegVl5Pfl06ul1GPgv6upDfHpb91+dJbjUtSJnMC/IbyzKt2yZooC7/kUCPsUVen7nzXtH92eezwxBb0XNbRzzLf+D49Rf1R9DL9sg6Tzh1QxH2yzGSgFnbyrLjBsAykluuAVL2j+8+qSgDAAAAAAAAAJg1JGh68KJ1Cw6c7BftTeaoqxN8vc5rv6qlbt7XCVqWaxct05Zxj7Wss0nLOPNNWux8m2lox6Rei13Q5yn3fPlymc8JUHce+PMkOm8Wa96XW3xdqwBY2Pzgd9P9n35O6xD4vtU/NMZvAgchcM9HTv7x9OAhT0tPfHcYYo5LXQAsI1olMFElrNIQ9Oef/6kiOBPf89EzBwGwjN7UclGCFvl9V6mTWxHLCEe5Xa2EsXa0oN4qWpSReZdcectgXsMqiw90NKjSUZlRaCojHLVPue20omHf8/70M4N9/dBe/d/Ktf1IiKztPFKeC8LkOGgf9/aOk+y7BJeC3AZXRlpL6CYjfvWW3BKCaigY7Ysi2yp1EqDrtstobR8A6++/7vzB4W/DLiQAvuDSm4t6OQ8kjJXbdcu8PP+yrEdDXgkuZQTrX/zD2uKW33J+/MLvry5uAS0jXgXdLv3N4D/9q8OK4F6Oj4TIUnfOhf1baOstwuU5kdHIEu4+83f2Lc4h/c8H+lvKggSpUia3hBZk2p+zwmIEwHrb791WX1DMi3KsJCCXUFhC2pfu0H8+JaiVYFhCXjlXpEyOh55L+tvDfl26bfIfDGR5CYvl/NKR3/ofEHR0uQ2ABRnxLfNaJr/hq+eYbKNsg/zms/4+r1wn5LnTc0/0t2uX20vL8yJ9yPbLuuVRRsjLf9iQcrkmyLVBrhEyr4G3Pl8SaGsYrqOh5XUhryV93kQZSV8XAMudB+TY6Hpk1Pl3bruvbAUAAAAAAAAAMFtI2LQlAqeItnUy7ecV34fO+2WUXHtLVDYOi3Ws6/ZBpuvmBT/v8ct7fJ9+HtqxFK9FfW7aqO3b0LYdzDb2PNDzSPX4sqiNYMu1rzrbkmvfOgAWNj98V3rg4D9qCIH/1yAEvnePH0wPHv6k9IiMBh4jBJbw+IHDfrLXxzbpibv7oyMXyuVfva0ITuS2yxYJS22wIkpbCW19uQTA8lujvlwUZFTfB/Y8pxjxK4GhBIBnnf+tok5Zd+4NRXu5/awgYaCEflJ203eqo1sFCXqkTgPfu+55uGgvvyMraFhmkdtAS9l2vX3T2zMLR59wdVFulX0SfD8SSMn8bd/t/9awImUaWHrk9tq2DwkkZV5/c1kCQAnFJAiV21NLSCsBphLtiyL7L3VW2Z9vXv+9Ylr3Q8JrmZeQVJEQVcqikZm6vD8vLHI85fdmJVST4HLfAy4ePAd2RKsgYaT8Bq8E1dJe9lN+91bCQlmPBpqCjPiV22hLWwkg3/2hM9LzX3FQcZtjee70duSCjPKVfiQAlnNLjpUG0DJaWPqW2yArEoBK2Yf37u+XTHsFPSfk0VN33AR/bspodpmX148grwfZDymT4yy/gy3HTEa+ijLi3Z7zUi/7Jfsnx01GOWtY7td13/2PFr9RLK+xa6/rP4d2xLr8BwR5jiRUl9eAnB/SRtHn3ZbJuuQ3i6VMtkFuJS7PpRBdJ6QPj9zyXM49CVwl0JbzRX7vWZBbgMvxkL5ltLAE5Pqb2PLb4RL0Xvn124pzUf4Dgb729HVhleMRPT9yq3m5DbgE66KMNpff6NaR4AAAAAAAAAAAAAAAMLt0CoALnngsPXzqO9M9H/yfLgT+f+MQeLcfTPfu9YPpwUOelB4+6UcaQ+BHe3UPf+lH04MH/0S6f7//nR466UVp86P94BAAYF6QYFtucQ0AAAAAAAAAAAAAANCF7gFwyeM3rEv3feoXmkPg3X4g3bv7Dxbet8cPpfv2flJ64DM/nB489EfSg0eJT04PHvnk9MAhP5oe2P/H0v2f6rn6J9L9Bzw9PX7tweXaAADmiyuvvr0YPQ0AAAAAAAAAAAAAANCFsQPggk2Ppkcu2jPdu9dTR0Pgwe8BByHwnk9K9+31w+m+vXvu8yM9n5zu+0TPfX803b/fVumR89+TNj86ehtkAAAAAAAAAAAAAAAAAADIs7AAWNn0SHrsa4enBw7743TPx8oAOBsC/1AYAj945AvSo1esTpsf4XbPAAAAAAAAAAAAAAAAAADjMJkA2LD5oe+lx75xdHr49HcWgfD9q5+d7t3jyeXvAf9Auu8TT0n37//z6cGj/qTX5q3psa8fmjbf198IAAAAAAAAAAAAAAAAAAAYn4kHwAAAAAAAAAAAAAAAAAAAsGUgAAYAAAAAAAAAAAAAAAAAmBEIgAEAAAAAAAAAAAAAAAAAZgQCYAAAAAAAAAAAAAAAAACAGYEAGAAAAAAAAAAAAAAAAABgRiAABgAAAAAAAAAAAAAAAACYEQiAAQAAAAAAAAAAAAAAAABmBAJgAAAAAAAAAAAAAAAAAIAZgQAYAAAAAAAAAAAAAAAAAGBGIAAGAAAAAAAAAAAAAAAAAJgRCIABAAAAAAAAAAAAAAAAAGYEAmAAAAAAAAAAAAAAAAAAgBmBABgAAAAAAAAAAAAAAAAAYEYgAAYAAAAAAAAAAAAAAAAAmBEIgAEAAAAAAAAAAAAAAAAAZgQCYAAAAAAAAAAAAAAAAACAGYEAGAAAAAAAAAAAAAAAAABgRiAABgAAAAAAAAAAAAAAAACYEQiAAQAAAAAAAAAAAAAAAABmBAJgAAAAAAAAAAAAAAAAAIAZgQAYAAAAAAAAAAAAAAAAAGBGIAAGAAAAAAAAAAAAAAAAAJgRCIABAAAAAAAAAAAAAAAAAGYEAmAAAAAAAAAAAAAAAAAAgBlhNAB+9QpERERERERERERERERERJxCCYAREREREREREREREREREWdEAmBERERERERERERERETElq5atQo7Gh1H8bLLLkNndJy6SgCMiIiIiIiIiIiIiIiI2FIJNO+55x5saRQAS9B5wQUXpdNOPzudfe6FzouCsrYuZNlJ221b1p99QXE8JhEEEwAjIiIiIiIiIiIiIiIitlQD4DvuuAMbjAJgCTdPPvWsdOed30uPPvpoOx97LC53PhaUPfpYUNaoX5+Z9/116L9x+3rTl11x1YJDYAJgRERERERERERERERExJZqAPzd734XG4wC4PMvuKgIhx9++GHMeOZZ5xEAIyIiIiIiIiIiIiIiIi6FGgDffvvt2KAPgCXUPPX0s9ODDz6INUp4TgCMQ4Wo3Ovb+Xmvr/fz1lxdrhyXh7nnp225n7e2IVpuHOuI2ot1dZPWE9W3KVts7To9tp21rs4atYvKIuuI2i+Gdl0e285aV+eN2kZl3jqi9oiIiIiIiIiIiDiWGgDfdttti+za9PZt3p7WhnXnp7233z7tff5o3fl7b5+23/v8wfQ222wT2m8j/Zjy7fdO55u+1r59m/T2tdX+uxgFwOedf1G67777sl5/0VfSyR/513Tzf26Xbn7vS9KpH3tXuuErl4Rt61yxYkVlOtK297ap933ZZey0ztdp2957770EwNPuu56TN2o/0BKVCbn2TYzT3q+rbh4X1zbklqubt0Z1UZkv12l99NOLYVP/Wh8Rtc3Rpq1v4821yZUvlnZ9uWmv1kX4dpa6ZSw6b/uJphdbu67ctFfrInJt25Qpvk1uGhEREREREREREResBsC33nrr4nr+Xmn7tx/Tnz7m7WVIu33aay+dHvr2Y4bLnb/X9mn7vc4fmbYOy89Pe23f6/P8Xrmso7e+Y95e7bvq29Mxrq86fQB86aWXpvPOuyjdfffdoV85+fj09R3+IG36l53S5s/slzZ/dr/0+I5vSV99wwvSxaecMGx7T3W5iqZOglX7aPVl1fl7BvP3hPVVtc4/RttZ9OfKo74JgKfYKPT1RssVCtGjr4/0dTqvj15f7udteRPRcjhZm46zre9CtHwb2xAtt1CVqE619XY6ms/Zpt04bXLYNoulXU9u2mrL7XRdnU7ro5+OytpML7Z2Xblpqy2309G8llly7Xx5m2lERERERERERERcsBoAf+c731lUz91zOHp31dFSdnRatf2e6dyi/ty05/bbpz3P7bcr6s/dM21fCWtXpT17ddvveW6lX/HoVdrnsJ+jV/UfizZFX6vS0UV7aaPtuxkFwOeed2G68847C++4o/94Z+/xopNOTHf8+S+m9Pd/m+77619Px/7Db6b9/2Zluu+1v5/S3/5tuv1Vv5AuPvnkXvs7iuXukOV707Ks7UvK+vb7lXIJWCP7ffXtz/f7vXMw3+9f+5B2Ml/U9R4H0+UysuxguXK62BZZrvco8zmLPsr1yTQB8BQbBb7eaLlCQR8FO23Jta9Dl8lp8eVd5nFxbDrOTfVN6vJN+OXUbN0rUrqrV3f9R4O6Xplwca/NSF1Piy3z0/roy5vqco7bxpfZeTsdzec8rvdmkG5J6eNB3cW98tTizcKjZbZep6223E5HdW3pury2GXEB55XVo2W2XqetttxOR/O+TKcVLff1Op3DLoOIiIiIiIiIiIgLcmkC4KPTqkEA27cf2kq5DXmHakArgbCGvnZalh+2t+Hu9mnPo/dM22+/ZzrahM45o0A5Zy4A9r8V/I3LL0kn/uPz0uMv/7l01qufkb689nPplm9uSFeu3y/d/aKfSI++7Jnp8Zc+Mx3/5t9K11xx2cjyTUrA2lQ27nzb8jqjtgTAU2wU+Hqj5QqVqE619Tqtj15fXodtZ21DtBxO1jY0tff1vq2tr7MLukwRZJbcdXy1vyLILIkCvTq03retW1brIpvqxRx17Xx5NJ21DDuV42xdGXYWZIJiVbCPvk5omrfYOp2u07brOp1zIeeVVbCPvk5omrdondZH8/7R17edRkRERERERERExAWrAfDNN9+8eJ6zR1r1kpeUoetL0h5H7ZFesuoo0+actEevfo9zbk7n7PGStOqo4bIy/5I9zhmZji372WNV2kb7P2pVuIxfTxtzAfAtEhDfMgyKD/rQ+9I1O/xAuuYfvj+d9LkDivqbT1mXbvvLn0r3/v33pz1f8bPp+L/6ofTV1/2vdOjHPlIsc0tvefE7t9xStL+l96jlEqiqt3znlsq8tb8NveV7y0b13mK7xXKdUibTto30qY+ybm3XVl2GAHiKHYS8Aa0CYPuo056orqmtXSaajuajsqZ5XBybjrOvz837R18f1eXKrE311o8f328fjdDUQM+GnEJuWvB1+miNyiLbtlOVqE619Xa6rqzO62WB6E2iDIp9EKoKUblX2+ljVBdZR66dztu6aLqNXc8rqxCVe7WdPkZ1TeU6r4++TMm18dOIiIiIiIiIiIi4YDUAvummmxbZ9Wn3l+yUjuxNr99dw+De/JE7ldNDdzpyuJxtu/tgOnCnI8t1vCTtvv6mdOROZT9B/6pdTxtzAfCNN/bqb7yx8Mabbkzvf8OL0oEvXpH+7fd+LF33zWvTpV84IV35909Ot+y0Ir33tc9Jxx7xufTa5/xEOmS7FekDf79d2X9/2WJa+ivXeaP0KX33piVQlXXIo6yz/9ivl2W1Xpct+pF5s4yuo+izXE7WPVhWl5Hysn7QdzFd9l1O9/sst02WGfTdb6fbTgA8xWrIW2e0XKFgHyOjOi1relTtvE7ro7cN0XI4WZuOs6+PsO300baPppvKcvi2qoSXYUBZhpe5EcD6qNhyr5bX0VTvsf3bZaPypvkI2yanBpxRiFl3q2hV0MeIru2FqL03Krdlddhl6hznvLIK+hjRtb3g29nHLtM5tA0iIiIiIiIiIiIu2M4BcE2gmnOnvXdPL7Flg7C2Hwjb4FYCXx/cvmT39cW6pe4lux85aKvb1C+XNsN+iuVlPb1HXd46WI8rrzMKgM9Yd3a66qqrKu7813+S3v28Fekvtv3x9Ol93pd2femPpW/stCJ9+FXPTqeffFK66Lzz0kuf+YNp1a+uSO/4qxePLJ9TQlb7mCuLrKu3feS07fx0m3kC4Ck2Cny90XKFgn+MsO2VXHvbX2RdXWTX9jgZ2+DbR/P+0de3nc+VjZSXAZwyzu2LhaZpa1QelUU2tWtL1Nb2ET1GTuoWx6Ki077OzncpU+uI2vqyuvIRJ3BeWRWd9nV2vkuZqnX66KetXcsRERERERERERFxwWoA/K1vfWuRPSvttt3b0uG96cPftl3a7azD09u22y0dvtt2w2C4dLvdzhosd1avXucH04e/LW3ztsPLNr1+tun321+H9N2b1jby6PpX33Z4fx1tjQLgdevOTpddfnm6/LLLikcJOj/x/l3SoS/7f9Ka7f9nMRL4ijetSEfs8MvprNNO6bW5LH1853elfbf/vrT7C78/rf7wh4tlpLx47Hn5Zb3+inl5LKd7SqgqZZXHsnywzGBepsvt6lmUSX2vXdHvoJ/e+op19Oe1j6Jd8ViutzctffXrh8vLvDyquv7hvvQfRXvedZEAeAsbBb7eaLlCJSr3ZbbcP9aVtWWc9rh4Nh1jXx9h2+mjbZ+bt9PWruXjqH1F2HqrL7PY8sg2baxR+6jMqvX6uNhafLl99Ppyiy239VF5pG1bh11mMbT4cvvo9eUWW271dX4+Kq/DLoOIiIiIiIiIiIgLUgPgG264YZE9sx8Ay/SZu6Xtttsubfe2w03ddmm3M237vmcWoe+ZblraS1B8Zjr8bf3Hfvt++TDgzfc1jrkA+OKLL04XX3JJ+XhxOuPkU9Kql/9euu0tK9K3el75509Oxxz+kXTKyZ9P73/bP6dL3vj96bZ/WZH+5aXPT+tOPaW/XM9LesvqdDFfPPb7vaT3KMGqTGvY2m93SdFO5wfTRV/9Orts0Z/U9RyW9ZX5nLod/X77feoyst39Nq7PQduLCYCn3Sj0VaP2AwU/nXvM1Vl8e6uW+8cm27bDydp03H19bt4/+vpo3k5bbXlueqH6vprmfZlO+8ecTfWibZObtip23j4uldH6ojLV1um0f7Q2EbW1ZVruy5bCaL1RmWrrdNo/WrVMH/20VYnKfRkiIiIiIiIiIiJOxCUPgM/cLe12+A1FcPu2w6uBrWpD2jgAljoZ+dtrPwiRdR3DIFna+769XQLhOABeny688MJ04UU95bHwonTiscemvV/z9PTwDivSw6/5/nTnXz453fvSH02Pv/IH08NvWJE+8rKfSSd94Xi3nDEol3BV+u4/2rpq2Wh9WXbRRekiXybTZl1SdpGfL6fF4XR+nXZaJQCeVwU/rY+5sqjcPira1tbXTeds0wYnbxt8+4XMN5WLti43vRCjftqU6bw+1k176+pEX183r9TV+7LF1K9H5/XRq+X6WDcdzVttnWLrbV1Uvtj69eq8Pnq1XB/bTkfzViVXF5UjIiIiIiIiIiLigtUA+LrrrltkD01vldB1u13TGYe+tfe4XdpOAthdz+jVnZF27c3vesbocmfs2mtXtDHTZ+xaLntob7myz6J9vp/K8kFdG3MB8Pnnn5/O62kfzz//vPTFY49NO7/2Bem6N/1YeuyPnpIe/f2t0sbe9Dte+4fphOOOG7TrPwaeN5yWUHXwKOWmzitt2jq63W5dg/JyO3vr1WV1frRttY30TQA8rwr20ZYrvt5PW3wbRcttnZ0XbJm1rg4Xz6bj7uvtvJKb1zJbl6NNG4tdx0JVojpr1CYqs1qietHXKbZMy31Zrlzx5ZNW8dNRvS2z87kytYlJLTNpFT8d1dsyO9+lTMs9bdpYfHtEREREREREREQcWw2AN27cuLievmvabrtd0+nyuM1b06Fl+aFvrY7I7btd2vX0MjDu+dZD+21P31VH9A6XL5RAuVjm9H4AfLqpM8ry2+16eljXxlwAfPbZZ2c96cQvpr0+9IG08xv+ouer094f/mBRFrXNKUGqn89p2zWp7X0fdfo+7PJRnUoAjIiIiIiIiIiIiIiIiLgELlkAPANGAfAZZ5yVzjzzzHTmujPTut7junXrevNDpexMKevV9+2XrSvqyvpSLSvaybztqyzrK2W9x2Kdrn3pOqlTi7bDZfrbJfN9B9PFsv2+isdCLZc2ZV9F2359f5v76+kvK+3MMr2y9evXEwAjIiIiIiIiIiIiIiIiLoUaAG/YsAEb9AHwBRdckE4+9cx0+umnY41nn30OATAiIiIiIiIiIiIiIiLiUqgB8LXXXosN+gBYLG4Dfeb6dPIpJ/c9+ZR0Su/xlN7jySeX80VZaa+sX9efP1nLiuVtvSxbTkt/Zb0sV1isqyzT+sFy/TbDZeRR2vTXOVjHoL5fpsv11yvzfQfbULbTtv3+y/Ky32L5cp0yLwHwqaedmc4999zKceviaAAMMGU8+uijC1YuQCoAAAAAAAAAAAAAAADAtEIADFNPFOh2lQAYAAAAAAAAAAAAAAAAZgECYJh6okC3q7kA+Pu+7/tmWiWqmzWVqA7bCwAAAAAAAAAAACWvWTEfsq+zKfs6m5YQAMPUEwW6XY0CYAm77rjjjplWQ73nPe95M6/ua3QcsL1yDAEAAAAAAAAAAKBHFL7MouzrbMq+zqYlBMAw9USBblcJgOPQdJbUfY2OA7ZXjiEAAAAAAAAAAAD0iMKXWZR9nU3Z19m0hAAYpp4o0O0qAXAcms6Suq/RccD2yjEEAAAAAAAAAACAlDa/esVcyL7OpuzrbKoQAMPUEwW6XSUAjkPTWVL3NToO2F45hgAAAAAAAAAAAEB4Nouyr7PpvO2rQAAMU08U6Ha1awC8YsWKTuXWcdq0WUZs207VUDQKTHMqUZ2o5OatSm6+TiWqi9R9jY6D2uX45do29aH1XZ+rJn1/bfvvuh1yDAEAAAAAAAAAAKBHdPvVxfC4y1K6/qOj5df3tuE4V7YYLuW+bmmX875O+jxYzvs6aedtX3sQAMPUEwW6XW0bAEtY1la/rFpXp0Ztcsvp+uqMlhM1FPVhqUfa+rpce9vW1tmyujrFlvm6JqJldV/t/nv1WPnjp+VeXx61s33U2XUZ216XaVOm5U1Gy4lyDAEAAAAAAAAAAKCHhC0SvjVx1/GjIc1rPtqruCWlXX15RlmPDf9k/uJXjLYZcJmpk3X18CGhBIrah0zXYZdTd+3tV0Rlf2Xddlt62vVe3DsG4fHpWdmm8ljJOu1xkOXr9suWReGpV9Bp6bvNMoW9dtF+5MLZpuPtj5na5jyI9MuJgp23ynG2+zOyvcH2yfG6WI5D2cSj/VXO0x539fqqXcYcW/vcFutrse+iEJWLts/cOZ09D3rLybY3BfCLeS55SwiAYeqJAt2utg2A1VxA5sttoNak78PXe337nHX1Gor6sFSQ+mj6wAMPLB4Fu4xva8sEW2bL2+CXsf1YlahO91X33Vt3TKP5Jm17q9bZNr79uPPyWKdvn7OuXo4hAAAAAAAAAAAA9JCw5fpbUto1CqgkGHJ1A3tlddhQS4KjJkaCJbfOIiSUst6jD5ByoZIN1wRfL/qQsNCuOxOOFces9xiFoHZfpL6Yl35608WyvTa2P9nOXP92etBXWZ5TkMdcEOgZ9Gn321j0U257a3t9+WU6nQeyfEvsOqxRADw4L83zMVDK5Fjro63rGZ4rPf3zWVmPao7toD6zj7nnWIjKRbtO2U7fR1RmleWjfVOLc6AFkzqXSqYuAN72xTtkzVFXN2matqltGbQnCnS7Ok4AnDNqb21q06YPq113zmg5UUNRH5YKUm+nFdtG0PmobY7c8k22JVpW91X33WuPkz9mk5hv0rdfyHyT0r7JaDlRjiEAAAAAAAAAAAD0kLBFA0YNiYowSQIcDcFcmKNBXhS6Sh8++PEBpw1mRVnfSHCkjxLG9dZVCe7sfFl2vVunaNcj+HoxF2yF6zbLSP1ImNXbZh9u6b5pQKfLRGGoHrfKMdTjYPrSvnMKxXK9dQz6CdRtGpSZdUXbp9jtrKXX/6Dvss/W54Hamxcq55o8L71l5dwUKu1LJZS1yPKV9UsfbvsGx930H9bLvGxXr409P3LHrFinObZ63Iv975W1CURFISqv7Guvr9zzosfWH5s6imVk22Vfdd8DF3oueUsmEwDLjwqrW4CmAFXr5dHridqonjZtPLk2bZaFmCjQ7eo4AXCXcrUpYPN1tr3VL2PnvXX1Gor6sFSQeuGaa64pHoWoXR22Ta59Uz+6Lt9XpBLV6b76YyD646rz1qh9nb69n/ZtrNpHnb5t07Jar23svLeuXo4hAAAAAAAAAAAA9JCwpU0gZMMcnbajVEUJgaJApy4AUjSckvBKpovHntHoW+0zFx6pRcBWhlKCrxcroZ5ahldyXHR5G3AV/UqbfrdZZLuLUFPW0XvUQLlNMKrHQ5bPUQncjELx3PT6aKLoQ7dLkWXLvnLHoFFZd7CfTYwTUtp1WO1zW4Sibnt0HdpmcL7442GonCuyj+ZYDZbX+rIsCoCv7ynzMtpYn2Pd95xCVC7a50ZfQ7Y+KmvrljiXSiYfAC9hCNwmdLX1vm3b0LVNu3HayHwkdCMKdLs6TgCcM2ovap1/9Nb1ESntm4yWEzUU9WGpIPWCBMBaFuGX87eIVuqm29qWaFndV38M9PhExyl37Hx5m/k21i3fZb5Jad9ktJwoxxAAAAAAAAAAAAB6ROFL66CvDIUk4JJwJxcwDUIwM2/7LwKxclkNqmxgpQGZxYdN2p9dzq5HkEevtI+wQZ/dPt3nwfp7dYNyne6p+6zLFtsi29ZTlpH12uBxcHzK/ov1Sf+9Og3QKttRo1BM99pWAkun9OefB9u+8jy5vroEtOF+lvN+/Xb/7HMZqdsQ1YmDY2yfp5y99QiD51WPu5SXy1b66zcfIsdS98ccK7/PdUrbuv0VonKxeC5lvb3H3Dk90ne5H/45CbfB7FPkQs6lyJLFCYAXIQSOAtJo2pYJufaCn48Yt03duurqoDtRoNvVcQLgLuWi1vlHry2X6chc+8i6eg1FfVgqSL1OC76NN8KWt5mOkHpVsWVWJarTffXHQNXjpMc40rZtUttabblv07auaV6mI3PtI+vq5RgCAAAAAAAAAABASptfHYVZEZcVuclmrwQ7wnFBnapt6rj+o/22EhxZLn7FaH/eMnwqpj9+/LAvt97KMoHFSMePu/IyEKvMSzhYrK/h2MkxkW0rlu+HXv1l+seyCDCljfSpx69YX7mM3Rdx0Fc5n1HoT/fW2YQ5vvWhbn+btW2ofR4i3fMRYvdP9r8FlXVYB8v3tsufV4qur/K82n7kGOb2XZ/LMtCUPorl9bnutbHPbeP+5NbTV4jKh+dhb13+/M052Ba3zOA4+b6W9lxSJvcbwNKpdxGQsDSn1iu2XNB5ax1N9YLvT/Xk6ux8tBw0EwW6XW0bANtArUm/XNN0XVmd0r7JaDlRQ1EflgpSr9NC3bSdt7eMzhEt38a2RMvqvvpjoEbHqe7YWZva6fPQZJf2vn8736TvKzJaTpRjCAAAAAAAAAAAAJlAqSnI69k4AtQub0Mwnbf1uWCzWE5DtmFwWgnYRLu9NjQ16xEG7QdqcFaD265iFK/t1x4Hu08fL6cH+6ZBotkPrTPHR/qv7IM1d5ycwnBe1tvrvykYLPruaY9roWyvWd4+dzJtwzzpwz8vdnvNfg7m7THz7XPHoVSP/WideV4H22PPn1J33PvPq5xb5bI5fJ+63YP9Meen3efa/dHzI6rrK4yWl8/Pxb1lZd2DYDeDbJdsr65L2g/2x5wrRT9+exbxXHIqkwuABenYO2FygalMR3W2TInKItq2U6R90zK2PmrbdZ2w9COAfTi2mPMyHWnbe5vqrRqK+rBUkHqdVnQ+us2zlvnfDFbaTEdIfU4lqvPqvvpjoPrjljvetrxJu4zvY7HmZTrStvc21VvlGAIAAAAAAAAAAECPprDLcpcEWDrdD2/C27dKAJSrE8vgJ6wTi3X02siI3ON682WIVpTrvF1e1yehk71tsG0naPuKZfBmywa3+s2UFf32lpNjJ9szuOWulPf6UqSuCNtKiu3qbY+EhrZv3T+d132wy0b4bVSFYlr2rQE9PnLs/K15Zbtkn+xv3OqxHSjr6C0rz430IRTPRe8xt32qfX4iB8e1gWhZ0T+PRTBZbr+dVke2R/ajPAbyfNu2Wm+fS13e9i1l+tzq86rti/Ncl++V+/PQK0TloqwzOpZ2/TmljWyXbE/2+ZDta0CXHftcMpZMNgAWligAlkdV5yOi9t6meq+nrtwSzUdCN6JAt6ttA2ANymyw5vXturSvm86VjdOHqqGoD0s9Wqbhrg+A7XL6m8G2TLBlvlzJ1duytr8x7NV9jY6DGB0z/5iza/1izvu6qEznc8tFfahyDAEAAAAAAAAAAKBHFL60UQKcXFg0CKN6dgqYL+q318BKA18N1IpHCfUkYCrb6PoEWacN2ew2CnaZgZlgy4ZXRRBp1qn9FgFej6Jtua/F9vUedR9023XZLgGwbSOO9JVR0GNS9Ntbxi8n2z7SV2++2JfeozB4fv28sTg2ZZ2sU0bSCnZ/Op8Hsg12+VI5TvZ50HXbNlap930VffSI1mHPF1HC311l33vrLPbN77/sl9meQVl/FdVj0LPyvJbH1AfA0TarQlQu2u2z69H9Vfw2FZbbklvvUp1L1pKZGgEcEZW3DVmb2kl9G6O2iq23j9CeKNBVb7/99nT++ecXj1G92jYAjqwLyyKb2vsgLjJq78ub6kQNRX1YqvgyDXcVW+/b2DLBlvnyOvwydeFzrk7UfY2Ogxgdq9y0t67OKu20rU5Hy/qyLvMyHRm19+VNdaIcQwAAAAAAAAAAAOihgZWEOxL02OBIQ5poZKAPljx1AY8P2nJqAGzLoiDObp8Pv7Rc0PZeaSfrKdr3lrdBmKzPB2OV7e89FoGf9GHWraGYPaaD9r2ywXxPXb/OV4JC40hfGQXZD1smy1r8cS3s9</t>
-  </si>
-  <si>
-    <t>06201900104202000000000011</t>
-  </si>
-  <si>
-    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_JCX_0123_6_异常截屏_20200722091539001.png</t>
-  </si>
-  <si>
-    <t>未知异常Timed out after 10 seconds. Unable to locate the element</t>
-  </si>
-  <si>
-    <t>06201900101202000000000118</t>
-  </si>
-  <si>
-    <t>06201900107202000000000043</t>
-  </si>
-  <si>
-    <t>06201900102202000000000164</t>
-  </si>
-  <si>
-    <t>06205030701202000000000021</t>
-  </si>
-  <si>
-    <t>06201900702202000000000039</t>
-  </si>
-  <si>
-    <t>06205030710202000000000024</t>
-  </si>
-  <si>
-    <t>06201900101202000000000119</t>
-  </si>
-  <si>
-    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_JCX_0104_3_异常截屏_20200722101405742.png</t>
-  </si>
-  <si>
-    <t>06201900123202000000000013</t>
-  </si>
-  <si>
-    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_JCX_0101_3_异常截屏_20200722101859463.png</t>
-  </si>
-  <si>
-    <t>未知异常No frame element found by name or id leftFrame
-Build info: version: '3.9.0', revision: '698b3178f0', time: '2018-02-05T14:26:55.441Z'
-System info: host: 'DESKTOP-I9S3ABE', ip: '100.100.94.73', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
-Driver info: driver.version: unknown</t>
-  </si>
-  <si>
-    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_JCX_0107_2_异常截屏_20200722101915691.png</t>
-  </si>
-  <si>
-    <t>06201900122202000000000013</t>
-  </si>
-  <si>
-    <t>未知异常Unable to find element with css selector == #username
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '3.9.0', revision: '698b3178f0', time: '2018-02-05T14:26:55.441Z'
-System info: host: 'DESKTOP-I9S3ABE', ip: '100.100.94.73', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
-Driver info: org.openqa.selenium.ie.InternetExplorerDriver
-Capabilities {acceptInsecureCerts: false, browserName: internet explorer, browserVersion: 11, javascriptEnabled: true, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:ieOptions: {browserAttachTimeout: 0, elementScrollBehavior: 0, enablePersistentHover: true, ie.browserCommandLineSwitches: , ie.ensureCleanSession: false, ie.fileUploadDialogTimeout: 3000, ie.forceCreateProcessApi: false, ignoreProtectedModeSettings: true, ignoreZoomSetting: false, initialBrowserUrl: http://localhost:17551/, nativeEvents: true, requireWindowFocus: false}, setWindowRect: true, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: accept}
-Session ID: 86c3eb3e-5dd3-46b3-8981-026c24d6421f
-*** Element info: {Using=id, value=username}</t>
-  </si>
-  <si>
-    <t>06205030701202000000000022</t>
-  </si>
-  <si>
-    <t>06201900702202000000000040</t>
-  </si>
-  <si>
-    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_GCX_0710_1_异常截屏_20200722110942775.png</t>
-  </si>
-  <si>
-    <t>06201900101202000000000120</t>
-  </si>
-  <si>
-    <t>06201900104202000000000012</t>
-  </si>
-  <si>
-    <t>06201900123202000000000014</t>
-  </si>
-  <si>
-    <t>06201900101202000000000121</t>
-  </si>
-  <si>
-    <t>06201900107202000000000044</t>
-  </si>
-  <si>
-    <t>06201900122202000000000014</t>
-  </si>
-  <si>
-    <t>06201900102202000000000165</t>
+    <t>xsfy_bl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2287,74 +2165,74 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FB4AF2-2C99-459C-9147-AD7590C3225D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:FI15"/>
+  <dimension ref="A1:FJ15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AT6" sqref="A6:XFD6"/>
+      <selection activeCell="FH2" sqref="FH2:FL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="1" width="19.125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="18.75" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="48.125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="9.5" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="12.25" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="16.375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="8.25" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="11.625" collapsed="true"/>
-    <col min="11" max="13" customWidth="true" style="1" width="14.75" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="18.25" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="25.75" collapsed="true"/>
-    <col min="16" max="17" style="1" width="8.75" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="1" width="20.5" collapsed="true"/>
-    <col min="19" max="22" customWidth="true" style="1" width="19.5" collapsed="true"/>
-    <col min="23" max="23" style="1" width="8.75" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="12.625" collapsed="true"/>
-    <col min="25" max="27" style="1" width="8.75" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="16.625" collapsed="true"/>
-    <col min="29" max="45" style="1" width="8.75" collapsed="true"/>
-    <col min="46" max="46" customWidth="true" style="1" width="20.375" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" style="1" width="23.375" collapsed="true"/>
-    <col min="48" max="51" style="1" width="8.75" collapsed="true"/>
-    <col min="52" max="52" customWidth="true" style="1" width="15.5" collapsed="true"/>
-    <col min="53" max="56" style="1" width="8.75" collapsed="true"/>
-    <col min="57" max="58" style="16" width="8.75" collapsed="true"/>
-    <col min="59" max="70" style="1" width="8.75" collapsed="true"/>
-    <col min="71" max="71" style="16" width="8.75" collapsed="true"/>
-    <col min="72" max="72" customWidth="true" style="1" width="13.125" collapsed="true"/>
-    <col min="73" max="73" customWidth="true" style="1" width="20.875" collapsed="true"/>
-    <col min="74" max="97" style="1" width="8.75" collapsed="true"/>
-    <col min="98" max="113" customWidth="true" style="1" width="23.375" collapsed="true"/>
-    <col min="114" max="118" style="1" width="8.75" collapsed="true"/>
-    <col min="119" max="119" customWidth="true" style="1" width="17.125" collapsed="true"/>
-    <col min="120" max="120" customWidth="true" style="1" width="16.5" collapsed="true"/>
-    <col min="121" max="121" customWidth="true" style="1" width="25.0" collapsed="true"/>
-    <col min="122" max="122" style="1" width="8.75" collapsed="true"/>
-    <col min="123" max="123" customWidth="true" style="1" width="29.25" collapsed="true"/>
-    <col min="124" max="124" customWidth="true" style="1" width="12.625" collapsed="true"/>
-    <col min="125" max="125" customWidth="true" style="1" width="15.125" collapsed="true"/>
-    <col min="126" max="128" customWidth="true" style="1" width="18.625" collapsed="true"/>
-    <col min="129" max="129" customWidth="true" style="1" width="17.75" collapsed="true"/>
-    <col min="130" max="133" style="1" width="8.75" collapsed="true"/>
-    <col min="134" max="134" customWidth="true" style="1" width="24.0" collapsed="true"/>
-    <col min="135" max="137" style="1" width="8.75" collapsed="true"/>
-    <col min="138" max="138" customWidth="true" style="1" width="20.75" collapsed="true"/>
-    <col min="139" max="139" customWidth="true" style="1" width="16.5" collapsed="true"/>
-    <col min="140" max="140" customWidth="true" style="1" width="17.25" collapsed="true"/>
-    <col min="141" max="141" style="1" width="8.75" collapsed="true"/>
-    <col min="142" max="142" customWidth="true" style="1" width="14.125" collapsed="true"/>
-    <col min="143" max="146" style="1" width="8.75" collapsed="true"/>
-    <col min="147" max="147" customWidth="true" style="1" width="21.875" collapsed="true"/>
-    <col min="148" max="148" style="1" width="8.75" collapsed="true"/>
-    <col min="149" max="149" customWidth="true" style="1" width="15.375" collapsed="true"/>
-    <col min="150" max="162" customWidth="true" style="1" width="20.125" collapsed="true"/>
-    <col min="163" max="163" customWidth="true" style="1" width="38.125" collapsed="true"/>
-    <col min="164" max="16384" style="1" width="8.75" collapsed="true"/>
+    <col min="1" max="2" width="19.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="48.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.25" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8.25" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="13" width="14.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.25" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="8.75" style="1" collapsed="1"/>
+    <col min="18" max="18" width="20.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="22" width="19.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="8.75" style="1" collapsed="1"/>
+    <col min="24" max="24" width="12.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="27" width="8.75" style="1" collapsed="1"/>
+    <col min="28" max="28" width="16.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="45" width="8.75" style="1" collapsed="1"/>
+    <col min="46" max="46" width="20.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="23.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="51" width="8.75" style="1" collapsed="1"/>
+    <col min="52" max="52" width="15.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="56" width="8.75" style="1" collapsed="1"/>
+    <col min="57" max="58" width="8.75" style="16" collapsed="1"/>
+    <col min="59" max="70" width="8.75" style="1" collapsed="1"/>
+    <col min="71" max="71" width="8.75" style="16" collapsed="1"/>
+    <col min="72" max="72" width="13.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="20.875" style="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="97" width="8.75" style="1" collapsed="1"/>
+    <col min="98" max="113" width="23.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="114" max="119" width="8.75" style="1" collapsed="1"/>
+    <col min="120" max="120" width="17.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="121" max="121" width="16.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="122" max="122" width="25" style="1" customWidth="1" collapsed="1"/>
+    <col min="123" max="123" width="8.75" style="1" collapsed="1"/>
+    <col min="124" max="124" width="29.25" style="1" customWidth="1" collapsed="1"/>
+    <col min="125" max="125" width="12.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="126" max="126" width="15.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="127" max="129" width="18.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="130" max="130" width="17.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="131" max="134" width="8.75" style="1" collapsed="1"/>
+    <col min="135" max="135" width="24" style="1" customWidth="1" collapsed="1"/>
+    <col min="136" max="138" width="8.75" style="1" collapsed="1"/>
+    <col min="139" max="139" width="20.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="140" max="140" width="16.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="141" max="141" width="17.25" style="1" customWidth="1" collapsed="1"/>
+    <col min="142" max="142" width="8.75" style="1" collapsed="1"/>
+    <col min="143" max="143" width="14.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="144" max="147" width="8.75" style="1" collapsed="1"/>
+    <col min="148" max="148" width="21.875" style="1" customWidth="1" collapsed="1"/>
+    <col min="149" max="149" width="8.75" style="1" collapsed="1"/>
+    <col min="150" max="150" width="15.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="151" max="163" width="20.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="164" max="164" width="38.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="165" max="16384" width="8.75" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:165">
+    <row r="1" spans="1:166">
       <c r="A1" s="21" t="s">
         <v>50</v>
       </c>
@@ -2431,7 +2309,7 @@
       <c r="BJ1" s="21"/>
       <c r="BK1" s="21"/>
       <c r="BL1" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="BM1" s="21"/>
       <c r="BN1" s="21"/>
@@ -2456,7 +2334,7 @@
       <c r="CG1" s="21"/>
       <c r="CH1" s="21"/>
       <c r="CI1" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="CJ1" s="19"/>
       <c r="CK1" s="19"/>
@@ -2467,7 +2345,7 @@
       <c r="CP1" s="19"/>
       <c r="CQ1" s="20"/>
       <c r="CR1" s="18" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="CS1" s="19"/>
       <c r="CT1" s="19"/>
@@ -2481,7 +2359,7 @@
       <c r="DB1" s="19"/>
       <c r="DC1" s="20"/>
       <c r="DD1" s="18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="DE1" s="19"/>
       <c r="DF1" s="19"/>
@@ -2489,15 +2367,15 @@
       <c r="DH1" s="19"/>
       <c r="DI1" s="20"/>
       <c r="DJ1" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="DK1" s="19"/>
       <c r="DL1" s="19"/>
-      <c r="DM1" s="20"/>
-      <c r="DN1" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="DO1" s="19"/>
+      <c r="DM1" s="19"/>
+      <c r="DN1" s="20"/>
+      <c r="DO1" s="18" t="s">
+        <v>145</v>
+      </c>
       <c r="DP1" s="19"/>
       <c r="DQ1" s="19"/>
       <c r="DR1" s="19"/>
@@ -2528,34 +2406,35 @@
       <c r="EQ1" s="19"/>
       <c r="ER1" s="19"/>
       <c r="ES1" s="19"/>
-      <c r="ET1" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="EU1" s="19"/>
+      <c r="ET1" s="19"/>
+      <c r="EU1" s="18" t="s">
+        <v>205</v>
+      </c>
       <c r="EV1" s="19"/>
       <c r="EW1" s="19"/>
       <c r="EX1" s="19"/>
       <c r="EY1" s="19"/>
-      <c r="EZ1" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="FA1" s="19"/>
+      <c r="EZ1" s="19"/>
+      <c r="FA1" s="19" t="s">
+        <v>206</v>
+      </c>
       <c r="FB1" s="19"/>
       <c r="FC1" s="19"/>
       <c r="FD1" s="19"/>
       <c r="FE1" s="19"/>
-      <c r="FF1" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="FG1" s="18" t="s">
+      <c r="FF1" s="19"/>
+      <c r="FG1" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="FH1" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="FH1" s="19"/>
       <c r="FI1" s="19"/>
+      <c r="FJ1" s="19"/>
     </row>
-    <row r="2" spans="1:165" ht="15" customHeight="1">
+    <row r="2" spans="1:166" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
@@ -2615,10 +2494,10 @@
         <v>5</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>6</v>
@@ -2681,7 +2560,7 @@
         <v>41</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AR2" s="6" t="s">
         <v>42</v>
@@ -2693,7 +2572,7 @@
         <v>44</v>
       </c>
       <c r="AU2" s="6" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AV2" s="6" t="s">
         <v>45</v>
@@ -2765,52 +2644,52 @@
         <v>70</v>
       </c>
       <c r="BS2" s="14" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="BT2" s="6" t="s">
         <v>71</v>
       </c>
       <c r="BU2" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="BV2" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="BV2" s="6" t="s">
+      <c r="BW2" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="BW2" s="6" t="s">
-        <v>241</v>
-      </c>
       <c r="BX2" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="BY2" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="BZ2" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="CA2" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="CB2" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="BZ2" s="6" t="s">
+      <c r="CC2" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="CA2" s="6" t="s">
+      <c r="CD2" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="CB2" s="6" t="s">
+      <c r="CE2" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="CF2" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="CC2" s="6" t="s">
+      <c r="CG2" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="CD2" s="6" t="s">
+      <c r="CH2" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="CE2" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="CF2" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="CG2" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="CH2" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="CI2" s="6" t="s">
         <v>81</v>
@@ -2840,642 +2719,558 @@
         <v>89</v>
       </c>
       <c r="CR2" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="CS2" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="CT2" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="CU2" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="CS2" s="6" t="s">
+      <c r="CV2" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="CT2" s="6" t="s">
+      <c r="CW2" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="CU2" s="6" t="s">
+      <c r="CX2" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="CV2" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="CW2" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="CX2" s="6" t="s">
+      <c r="CY2" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="CY2" s="6" t="s">
-        <v>222</v>
-      </c>
       <c r="CZ2" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="DA2" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="DB2" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="DC2" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="DB2" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="DC2" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="DD2" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="DE2" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DF2" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="DG2" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="DH2" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="DI2" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="DJ2" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="DK2" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="DL2" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="DM2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="DN2" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="DM2" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="DN2" s="6" t="s">
+      <c r="DO2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="DP2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="DQ2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="DR2" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="DO2" s="6" t="s">
+      <c r="DS2" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="DP2" s="6" t="s">
+      <c r="DT2" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="DQ2" s="6" t="s">
+      <c r="DU2" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="DR2" s="6" t="s">
+      <c r="DV2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="DS2" s="6" t="s">
+      <c r="DW2" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="DT2" s="6" t="s">
+      <c r="DX2" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="DU2" s="6" t="s">
+      <c r="DY2" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="DV2" s="6" t="s">
+      <c r="DZ2" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="DW2" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="DX2" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="DY2" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="DZ2" s="6" t="s">
+      <c r="EA2" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="EB2" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="EC2" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="ED2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="EA2" s="6" t="s">
+      <c r="EE2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="EB2" s="6" t="s">
+      <c r="EF2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="EC2" s="6" t="s">
+      <c r="EG2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="ED2" s="6" t="s">
+      <c r="EH2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="EE2" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="EF2" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="EG2" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="EH2" s="6" t="s">
+      <c r="EI2" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="EJ2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="EI2" s="6" t="s">
+      <c r="EK2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="EL2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="EM2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="EN2" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="EO2" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="EP2" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="EQ2" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="ER2" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="ES2" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="ET2" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="EU2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="EJ2" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="EK2" s="6" t="s">
+      <c r="EV2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="EL2" s="6" t="s">
+      <c r="EW2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="EM2" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="EN2" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="EO2" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="EP2" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="EQ2" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="ER2" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="ES2" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="ET2" s="6" t="s">
+      <c r="EX2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="EU2" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="EV2" s="6" t="s">
+      <c r="EY2" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="EZ2" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="FA2" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="FB2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="FC2" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="FD2" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="FE2" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="FF2" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="FG2" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="FH2" s="6"/>
+      <c r="FI2" s="6"/>
+      <c r="FJ2" s="6"/>
+    </row>
+    <row r="3" spans="1:166">
+      <c r="A3" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="EW2" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="EX2" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="EY2" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="EZ2" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="FA2" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="FB2" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="FC2" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="FD2" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="FE2" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="FF2" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="FG2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="FH2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="FI2" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:165">
-      <c r="A3" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>137</v>
+        <v>287</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>352</v>
+        <v>286</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>349</v>
+        <v>136</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>350</v>
+        <v>137</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>351</v>
+        <v>267</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
+        <v>289</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="AD3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AE3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
+      <c r="AF3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="AN3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
+        <v>303</v>
+      </c>
       <c r="BE3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="BF3" s="15"/>
-      <c r="BG3" s="4" t="s">
+      <c r="BG3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BH3" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="BI3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="BJ3" s="4"/>
-      <c r="BK3" s="4"/>
-      <c r="BL3" s="4"/>
-      <c r="BM3" s="4"/>
-      <c r="BN3" s="4"/>
-      <c r="BO3" s="4"/>
-      <c r="BP3" s="4"/>
-      <c r="BQ3" s="4"/>
-      <c r="BR3" s="4"/>
-      <c r="BS3" s="15"/>
-      <c r="BT3" s="4"/>
-      <c r="BU3" s="4"/>
-      <c r="BV3" s="4"/>
-      <c r="BW3" s="4"/>
-      <c r="BX3" s="4"/>
-      <c r="BY3" s="4"/>
-      <c r="BZ3" s="4"/>
-      <c r="CA3" s="4"/>
-      <c r="CB3" s="4"/>
-      <c r="CC3" s="4"/>
-      <c r="CD3" s="4"/>
-      <c r="CE3" s="4"/>
-      <c r="CF3" s="4"/>
-      <c r="CG3" s="4"/>
-      <c r="CH3" s="4"/>
-      <c r="CI3" s="4"/>
-      <c r="CJ3" s="4"/>
-      <c r="CK3" s="4"/>
-      <c r="CL3" s="4"/>
-      <c r="CM3" s="4"/>
-      <c r="CN3" s="4"/>
-      <c r="CO3" s="4"/>
+        <v>294</v>
+      </c>
+      <c r="BI3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="BK3" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="CL3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="CN3" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="CO3" s="4" t="s">
+        <v>316</v>
+      </c>
       <c r="CP3" s="4"/>
-      <c r="CQ3" s="4"/>
-      <c r="CR3" s="4"/>
-      <c r="CS3" s="4"/>
-      <c r="CT3" s="4"/>
-      <c r="CU3" s="4"/>
-      <c r="CV3" s="4"/>
-      <c r="CW3" s="4"/>
-      <c r="CX3" s="4"/>
-      <c r="CY3" s="4"/>
-      <c r="CZ3" s="4"/>
-      <c r="DA3" s="4"/>
-      <c r="DB3" s="4"/>
-      <c r="DC3" s="4"/>
-      <c r="DD3" s="10"/>
-      <c r="DE3" s="4"/>
-      <c r="DF3" s="4"/>
-      <c r="DG3" s="4"/>
-      <c r="DH3" s="4"/>
-      <c r="DI3" s="4"/>
-      <c r="DJ3" s="11" t="s">
-        <v>115</v>
+      <c r="CZ3" s="2"/>
+      <c r="DA3" s="2"/>
+      <c r="DB3" s="2"/>
+      <c r="DC3" s="2"/>
+      <c r="DD3" s="12"/>
+      <c r="DE3" s="2"/>
+      <c r="DF3" s="2"/>
+      <c r="DG3" s="2"/>
+      <c r="DH3" s="2"/>
+      <c r="DI3" s="2"/>
+      <c r="DJ3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="DK3" s="4" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="DL3" s="4"/>
       <c r="DM3" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="DN3" s="4"/>
+      <c r="DO3" s="2"/>
+      <c r="DP3" s="2"/>
+      <c r="DQ3" s="2"/>
+      <c r="DR3" s="2"/>
+      <c r="DS3" s="2"/>
+      <c r="DT3" s="2"/>
+      <c r="DU3" s="2"/>
+      <c r="DV3" s="2"/>
+      <c r="DW3" s="2"/>
+      <c r="DX3" s="2"/>
+      <c r="DY3" s="2"/>
+      <c r="DZ3" s="2"/>
+      <c r="EA3" s="2"/>
+      <c r="EB3" s="2"/>
+      <c r="EC3" s="2"/>
+      <c r="ED3" s="2"/>
+      <c r="EE3" s="2"/>
+      <c r="EF3" s="2"/>
+      <c r="EG3" s="2"/>
+      <c r="EH3" s="2"/>
+      <c r="EI3" s="2"/>
+      <c r="EJ3" s="2"/>
+      <c r="EK3" s="2"/>
+      <c r="EL3" s="2"/>
+      <c r="EM3" s="2"/>
+      <c r="EN3" s="2"/>
+      <c r="EO3" s="2"/>
+      <c r="EP3" s="2"/>
+      <c r="EQ3" s="2"/>
+      <c r="ER3" s="2"/>
+      <c r="ES3" s="2"/>
+      <c r="ET3" s="2"/>
+      <c r="EU3" s="2"/>
+      <c r="EV3" s="2"/>
+      <c r="EW3" s="2"/>
+      <c r="EX3" s="2"/>
+      <c r="EY3" s="2"/>
+      <c r="EZ3" s="2"/>
+      <c r="FA3" s="2"/>
+      <c r="FB3" s="2"/>
+      <c r="FC3" s="2"/>
+      <c r="FD3" s="2"/>
+      <c r="FE3" s="2"/>
+      <c r="FF3" s="2"/>
+      <c r="FG3" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="FH3" s="2"/>
+      <c r="FI3" s="2"/>
+      <c r="FJ3" s="2"/>
+    </row>
+    <row r="4" spans="1:166">
+      <c r="A4" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="DN3" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="DO3" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="DP3" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="DQ3" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="DR3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="DS3" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="DT3" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="DU3" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="DV3" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="DW3" s="4"/>
-      <c r="DX3" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="DY3" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DZ3" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="EA3" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="EB3" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="EC3" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="ED3" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="EE3" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="EF3" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="EG3" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="EH3" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="EI3" s="4"/>
-      <c r="EJ3" s="4"/>
-      <c r="EK3" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="EL3" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="EM3" s="4"/>
-      <c r="EN3" s="4"/>
-      <c r="EO3" s="4"/>
-      <c r="EP3" s="4"/>
-      <c r="EQ3" s="4"/>
-      <c r="ER3" s="4"/>
-      <c r="ES3" s="4"/>
-      <c r="ET3" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="EU3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="EV3" s="13">
-        <v>20000000</v>
-      </c>
-      <c r="EW3" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="EX3" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="EY3" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="EZ3" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="FA3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="FB3" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="FC3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="FD3" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="FE3" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="FF3" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="FG3" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="FH3" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="FI3" s="4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="4" spans="1:165">
-      <c r="A4" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>370</v>
+        <v>239</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>342</v>
+        <v>228</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
       <c r="O4" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>117</v>
+      <c r="Q4" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>141</v>
+        <v>267</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AE4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL4" s="3"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL4" s="2"/>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3" t="s">
-        <v>144</v>
+        <v>265</v>
       </c>
       <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="3" t="s">
+        <v>266</v>
+      </c>
       <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="4"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
       <c r="BA4" s="4" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="BB4" s="4"/>
       <c r="BC4" s="4"/>
       <c r="BD4" s="4"/>
       <c r="BE4" s="15" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="BF4" s="15"/>
       <c r="BG4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BH4" s="4" t="s">
-        <v>145</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="BH4" s="4"/>
       <c r="BI4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BL4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BN4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BO4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="BR4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BS4" s="15"/>
+      <c r="BT4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BU4" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="BV4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BW4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="BJ4" s="4"/>
-      <c r="BK4" s="4"/>
-      <c r="BL4" s="4"/>
-      <c r="BM4" s="4"/>
-      <c r="BN4" s="4"/>
-      <c r="BO4" s="4"/>
-      <c r="BP4" s="4"/>
-      <c r="BQ4" s="4"/>
-      <c r="BR4" s="4"/>
-      <c r="BS4" s="15"/>
-      <c r="BT4" s="4"/>
-      <c r="BU4" s="4"/>
-      <c r="BV4" s="4"/>
-      <c r="BW4" s="4"/>
-      <c r="BX4" s="4"/>
+      <c r="BX4" s="4" t="s">
+        <v>237</v>
+      </c>
       <c r="BY4" s="4"/>
       <c r="BZ4" s="4"/>
       <c r="CA4" s="4"/>
@@ -3486,15 +3281,31 @@
       <c r="CF4" s="4"/>
       <c r="CG4" s="4"/>
       <c r="CH4" s="4"/>
-      <c r="CI4" s="4"/>
+      <c r="CI4" s="4" t="s">
+        <v>229</v>
+      </c>
       <c r="CJ4" s="4"/>
-      <c r="CK4" s="4"/>
-      <c r="CL4" s="4"/>
-      <c r="CM4" s="4"/>
-      <c r="CN4" s="4"/>
-      <c r="CO4" s="4"/>
-      <c r="CP4" s="4"/>
-      <c r="CQ4" s="4"/>
+      <c r="CK4" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="CL4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="CM4" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="CN4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="CO4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="CP4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="CQ4" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="CR4" s="4"/>
       <c r="CS4" s="4"/>
       <c r="CT4" s="4"/>
@@ -3502,7 +3313,7 @@
       <c r="CV4" s="4"/>
       <c r="CW4" s="4"/>
       <c r="CX4" s="4"/>
-      <c r="CY4" s="4"/>
+      <c r="CY4" s="10"/>
       <c r="CZ4" s="4"/>
       <c r="DA4" s="4"/>
       <c r="DB4" s="4"/>
@@ -3514,84 +3325,42 @@
       <c r="DH4" s="4"/>
       <c r="DI4" s="4"/>
       <c r="DJ4" s="11" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="DK4" s="4" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="DL4" s="4"/>
       <c r="DM4" s="4" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="DN4" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="DO4" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="DP4" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="DQ4" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="DR4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="DS4" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT4" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="DU4" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="DV4" s="4" t="s">
-        <v>168</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="DO4" s="11"/>
+      <c r="DP4" s="4"/>
+      <c r="DQ4" s="4"/>
+      <c r="DR4" s="4"/>
+      <c r="DS4" s="4"/>
+      <c r="DT4" s="4"/>
+      <c r="DU4" s="4"/>
+      <c r="DV4" s="4"/>
       <c r="DW4" s="4"/>
-      <c r="DX4" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="DY4" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DZ4" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="EA4" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="EB4" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="EC4" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="ED4" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="EE4" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="EF4" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="EG4" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="EH4" s="4" t="s">
-        <v>186</v>
-      </c>
+      <c r="DX4" s="4"/>
+      <c r="DY4" s="4"/>
+      <c r="DZ4" s="4"/>
+      <c r="EA4" s="4"/>
+      <c r="EB4" s="4"/>
+      <c r="EC4" s="4"/>
+      <c r="ED4" s="4"/>
+      <c r="EE4" s="4"/>
+      <c r="EF4" s="4"/>
+      <c r="EG4" s="4"/>
+      <c r="EH4" s="4"/>
       <c r="EI4" s="4"/>
       <c r="EJ4" s="4"/>
-      <c r="EK4" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="EL4" s="4" t="s">
-        <v>207</v>
-      </c>
+      <c r="EK4" s="4"/>
+      <c r="EL4" s="4"/>
       <c r="EM4" s="4"/>
       <c r="EN4" s="4"/>
       <c r="EO4" s="4"/>
@@ -3599,73 +3368,44 @@
       <c r="EQ4" s="4"/>
       <c r="ER4" s="4"/>
       <c r="ES4" s="4"/>
-      <c r="ET4" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="EU4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="EV4" s="13">
-        <v>20000000</v>
-      </c>
-      <c r="EW4" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="EX4" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="EY4" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="EZ4" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="FA4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="FB4" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="FC4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="FD4" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="FE4" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="FF4" s="4" t="s">
-        <v>397</v>
-      </c>
+      <c r="ET4" s="4"/>
+      <c r="EU4" s="4"/>
+      <c r="EV4" s="4"/>
+      <c r="EW4" s="4"/>
+      <c r="EX4" s="4"/>
+      <c r="EY4" s="4"/>
+      <c r="EZ4" s="4"/>
+      <c r="FA4" s="4"/>
+      <c r="FB4" s="4"/>
+      <c r="FC4" s="4"/>
+      <c r="FD4" s="4"/>
+      <c r="FE4" s="4"/>
+      <c r="FF4" s="4"/>
       <c r="FG4" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="FH4" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="FI4" s="4" t="s">
-        <v>399</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="FH4" s="4"/>
+      <c r="FI4" s="4"/>
+      <c r="FJ4" s="4"/>
     </row>
-    <row r="5" spans="1:165">
+    <row r="5" spans="1:166">
       <c r="A5" s="3" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>22</v>
@@ -3678,27 +3418,27 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>349</v>
+        <v>136</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>350</v>
+        <v>137</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>351</v>
+        <v>138</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>20</v>
@@ -3727,7 +3467,7 @@
       <c r="AL5" s="3"/>
       <c r="AM5" s="3"/>
       <c r="AN5" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AO5" s="3"/>
       <c r="AP5" s="3"/>
@@ -3745,12 +3485,8 @@
         <v>7</v>
       </c>
       <c r="BB5" s="4"/>
-      <c r="BC5" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="BD5" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
       <c r="BE5" s="15" t="s">
         <v>22</v>
       </c>
@@ -3759,7 +3495,7 @@
         <v>7</v>
       </c>
       <c r="BH5" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="BI5" s="4" t="s">
         <v>22</v>
@@ -3817,162 +3553,155 @@
       <c r="DH5" s="4"/>
       <c r="DI5" s="4"/>
       <c r="DJ5" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="DK5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="DL5" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="DL5" s="4"/>
       <c r="DM5" s="4" t="s">
         <v>95</v>
       </c>
       <c r="DN5" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="DO5" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="DP5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="DQ5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="DR5" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DO5" s="4" t="s">
+      <c r="DS5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="DT5" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="DP5" s="4" t="s">
+      <c r="DU5" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DQ5" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="DR5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="DS5" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="DT5" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DU5" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="DV5" s="4" t="s">
-        <v>377</v>
+        <v>164</v>
       </c>
       <c r="DW5" s="4" t="s">
-        <v>378</v>
+        <v>165</v>
       </c>
       <c r="DX5" s="4"/>
       <c r="DY5" s="4" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
       <c r="DZ5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="EA5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="EB5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="EC5" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="ED5" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="EA5" s="4" t="s">
+      <c r="EE5" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="EB5" s="4" t="s">
+      <c r="EF5" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="EC5" s="4" t="s">
+      <c r="EG5" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="EH5" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="ED5" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="EE5" s="4" t="s">
+      <c r="EI5" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="EF5" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="EG5" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="EH5" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="EI5" s="4"/>
       <c r="EJ5" s="4"/>
-      <c r="EK5" s="4" t="s">
-        <v>206</v>
-      </c>
+      <c r="EK5" s="4"/>
       <c r="EL5" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="EM5" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="EN5" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="EO5" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="EP5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="EN5" s="4"/>
+      <c r="EO5" s="4"/>
+      <c r="EP5" s="4"/>
+      <c r="EQ5" s="4"/>
+      <c r="ER5" s="4"/>
+      <c r="ES5" s="4"/>
+      <c r="ET5" s="4"/>
+      <c r="EU5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="EV5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="EW5" s="13">
+        <v>20000000</v>
+      </c>
+      <c r="EX5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="EY5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="EZ5" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="FA5" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="FB5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="FC5" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="FD5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="FE5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="FF5" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="FG5" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="EQ5" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="ER5" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="ES5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="ET5" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="EU5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="EV5" s="13">
-        <v>20000000</v>
-      </c>
-      <c r="EW5" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="EX5" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="EY5" s="4" t="s">
+      <c r="FH5" s="4"/>
+      <c r="FI5" s="4"/>
+      <c r="FJ5" s="4"/>
+    </row>
+    <row r="6" spans="1:166">
+      <c r="A6" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="EZ5" s="4"/>
-      <c r="FA5" s="4"/>
-      <c r="FB5" s="4"/>
-      <c r="FC5" s="4"/>
-      <c r="FD5" s="4"/>
-      <c r="FE5" s="4"/>
-      <c r="FF5" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="FG5" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="FH5" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="FI5" s="4" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:165">
-      <c r="A6" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>363</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>321</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>22</v>
@@ -3985,7 +3714,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>20</v>
@@ -3994,18 +3723,18 @@
         <v>22</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
@@ -4032,7 +3761,7 @@
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AO6" s="3"/>
       <c r="AP6" s="3"/>
@@ -4057,9 +3786,7 @@
       <c r="BE6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="BF6" s="15" t="s">
-        <v>7</v>
-      </c>
+      <c r="BF6" s="15"/>
       <c r="BG6" s="4" t="s">
         <v>7</v>
       </c>
@@ -4094,12 +3821,14 @@
       <c r="BR6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="BS6" s="15"/>
+      <c r="BS6" s="15" t="s">
+        <v>320</v>
+      </c>
       <c r="BT6" s="4" t="s">
-        <v>339</v>
+        <v>77</v>
       </c>
       <c r="BU6" s="4" t="s">
-        <v>340</v>
+        <v>234</v>
       </c>
       <c r="BV6" s="4"/>
       <c r="BW6" s="4"/>
@@ -4114,12 +3843,10 @@
       <c r="CF6" s="4"/>
       <c r="CG6" s="4"/>
       <c r="CH6" s="4"/>
-      <c r="CI6" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="CI6" s="4"/>
       <c r="CJ6" s="4"/>
       <c r="CK6" s="4" t="s">
-        <v>92</v>
+        <v>322</v>
       </c>
       <c r="CL6" s="4" t="s">
         <v>7</v>
@@ -4128,51 +3855,27 @@
         <v>93</v>
       </c>
       <c r="CN6" s="4" t="s">
-        <v>94</v>
+        <v>323</v>
       </c>
       <c r="CO6" s="4" t="s">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="CP6" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="CQ6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="CR6" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="CS6" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="CT6" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="CU6" s="4" t="s">
-        <v>220</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="CQ6" s="4"/>
+      <c r="CR6" s="4"/>
+      <c r="CS6" s="4"/>
+      <c r="CT6" s="4"/>
+      <c r="CU6" s="4"/>
       <c r="CV6" s="4"/>
-      <c r="CW6" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="CX6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="CY6" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="CZ6" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="DA6" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="DB6" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="DC6" s="2" t="s">
-        <v>230</v>
-      </c>
+      <c r="CW6" s="4"/>
+      <c r="CX6" s="4"/>
+      <c r="CY6" s="10"/>
+      <c r="CZ6" s="4"/>
+      <c r="DA6" s="4"/>
+      <c r="DB6" s="4"/>
+      <c r="DC6" s="2"/>
       <c r="DD6" s="12"/>
       <c r="DE6" s="2"/>
       <c r="DF6" s="2"/>
@@ -4180,17 +3883,17 @@
       <c r="DH6" s="2"/>
       <c r="DI6" s="2"/>
       <c r="DJ6" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="DK6" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="DL6" s="4"/>
       <c r="DM6" s="4" t="s">
         <v>95</v>
       </c>
       <c r="DN6" s="4"/>
-      <c r="DO6" s="4"/>
+      <c r="DO6" s="11"/>
       <c r="DP6" s="4"/>
       <c r="DQ6" s="4"/>
       <c r="DR6" s="4"/>
@@ -4233,40 +3936,35 @@
       <c r="FC6" s="4"/>
       <c r="FD6" s="4"/>
       <c r="FE6" s="4"/>
-      <c r="FF6" s="4" t="s">
-        <v>397</v>
-      </c>
+      <c r="FF6" s="4"/>
       <c r="FG6" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="FH6" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="FI6" s="4" t="s">
-        <v>399</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="FH6" s="4"/>
+      <c r="FI6" s="4"/>
+      <c r="FJ6" s="4"/>
     </row>
-    <row r="7" spans="1:165">
+    <row r="7" spans="1:166">
       <c r="A7" s="3" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>288</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>292</v>
+        <v>22</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -4276,54 +3974,56 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3" t="s">
-        <v>139</v>
+        <v>343</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>140</v>
+        <v>344</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>270</v>
+        <v>345</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+      <c r="W7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>292</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3" t="s">
-        <v>282</v>
+        <v>7</v>
       </c>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3" t="s">
-        <v>307</v>
+        <v>141</v>
       </c>
       <c r="AO7" s="3"/>
       <c r="AP7" s="3"/>
@@ -4337,58 +4037,36 @@
       <c r="AX7" s="3"/>
       <c r="AY7" s="3"/>
       <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
+      <c r="BA7" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="BB7" s="4"/>
-      <c r="BC7" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="BD7" s="4" t="s">
-        <v>309</v>
-      </c>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
       <c r="BE7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="BF7" s="15" t="s">
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BH7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="BG7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="BH7" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="BI7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="BJ7" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="BK7" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="BL7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="BN7" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="BO7" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="BP7" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="BQ7" s="4" t="s">
-        <v>302</v>
-      </c>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
+      <c r="BL7" s="4"/>
+      <c r="BM7" s="4"/>
+      <c r="BN7" s="4"/>
+      <c r="BO7" s="4"/>
+      <c r="BP7" s="4"/>
+      <c r="BQ7" s="4"/>
       <c r="BR7" s="4"/>
       <c r="BS7" s="15"/>
-      <c r="BT7" s="4" t="s">
-        <v>303</v>
-      </c>
+      <c r="BT7" s="4"/>
       <c r="BU7" s="4"/>
       <c r="BV7" s="4"/>
       <c r="BW7" s="4"/>
@@ -4403,28 +4081,14 @@
       <c r="CF7" s="4"/>
       <c r="CG7" s="4"/>
       <c r="CH7" s="4"/>
-      <c r="CI7" s="4" t="s">
-        <v>310</v>
-      </c>
+      <c r="CI7" s="4"/>
       <c r="CJ7" s="4"/>
-      <c r="CK7" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="CL7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="CM7" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="CN7" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="CO7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="CP7" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="CK7" s="4"/>
+      <c r="CL7" s="4"/>
+      <c r="CM7" s="4"/>
+      <c r="CN7" s="4"/>
+      <c r="CO7" s="4"/>
+      <c r="CP7" s="4"/>
       <c r="CQ7" s="4"/>
       <c r="CR7" s="4"/>
       <c r="CS7" s="4"/>
@@ -4433,53 +4097,97 @@
       <c r="CV7" s="4"/>
       <c r="CW7" s="4"/>
       <c r="CX7" s="4"/>
-      <c r="CY7" s="10"/>
+      <c r="CY7" s="4"/>
       <c r="CZ7" s="4"/>
       <c r="DA7" s="4"/>
       <c r="DB7" s="4"/>
-      <c r="DC7" s="2"/>
-      <c r="DD7" s="12"/>
-      <c r="DE7" s="2"/>
-      <c r="DF7" s="2"/>
-      <c r="DG7" s="2"/>
-      <c r="DH7" s="2"/>
-      <c r="DI7" s="2"/>
+      <c r="DC7" s="4"/>
+      <c r="DD7" s="10"/>
+      <c r="DE7" s="4"/>
+      <c r="DF7" s="4"/>
+      <c r="DG7" s="4"/>
+      <c r="DH7" s="4"/>
+      <c r="DI7" s="4"/>
       <c r="DJ7" s="11" t="s">
-        <v>295</v>
+        <v>112</v>
       </c>
       <c r="DK7" s="4" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="DL7" s="4"/>
       <c r="DM7" s="4" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="DN7" s="4"/>
-      <c r="DO7" s="4"/>
-      <c r="DP7" s="4"/>
-      <c r="DQ7" s="4"/>
-      <c r="DR7" s="4"/>
-      <c r="DS7" s="4"/>
-      <c r="DT7" s="4"/>
-      <c r="DU7" s="4"/>
-      <c r="DV7" s="4"/>
-      <c r="DW7" s="4"/>
+      <c r="DO7" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="DP7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="DQ7" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="DR7" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="DS7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="DT7" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="DU7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="DV7" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="DW7" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="DX7" s="4"/>
-      <c r="DY7" s="4"/>
-      <c r="DZ7" s="4"/>
-      <c r="EA7" s="4"/>
-      <c r="EB7" s="4"/>
-      <c r="EC7" s="4"/>
-      <c r="ED7" s="4"/>
-      <c r="EE7" s="4"/>
-      <c r="EF7" s="4"/>
-      <c r="EG7" s="4"/>
-      <c r="EH7" s="4"/>
-      <c r="EI7" s="4"/>
+      <c r="DY7" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="DZ7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="EA7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="EB7" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="EC7" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="ED7" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="EE7" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="EF7" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="EG7" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="EH7" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="EI7" s="4" t="s">
+        <v>349</v>
+      </c>
       <c r="EJ7" s="4"/>
       <c r="EK7" s="4"/>
-      <c r="EL7" s="4"/>
-      <c r="EM7" s="4"/>
+      <c r="EL7" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="EM7" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="EN7" s="4"/>
       <c r="EO7" s="4"/>
       <c r="EP7" s="4"/>
@@ -4487,48 +4195,67 @@
       <c r="ER7" s="4"/>
       <c r="ES7" s="4"/>
       <c r="ET7" s="4"/>
-      <c r="EU7" s="4"/>
-      <c r="EV7" s="4"/>
-      <c r="EW7" s="4"/>
-      <c r="EX7" s="4"/>
-      <c r="EY7" s="4"/>
-      <c r="EZ7" s="4"/>
-      <c r="FA7" s="4"/>
-      <c r="FB7" s="4"/>
-      <c r="FC7" s="4"/>
-      <c r="FD7" s="4"/>
-      <c r="FE7" s="4"/>
+      <c r="EU7" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="EV7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="EW7" s="13">
+        <v>20000000</v>
+      </c>
+      <c r="EX7" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="EY7" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="EZ7" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="FA7" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="FB7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="FC7" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="FD7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="FE7" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="FF7" s="4" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="FG7" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="FH7" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="FI7" s="4" t="s">
-        <v>413</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="FH7" s="4"/>
+      <c r="FI7" s="4"/>
+      <c r="FJ7" s="4"/>
     </row>
-    <row r="8" spans="1:165">
+    <row r="8" spans="1:166">
       <c r="A8" s="3" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>22</v>
@@ -4541,30 +4268,34 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3" t="s">
-        <v>139</v>
+        <v>343</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>140</v>
+        <v>344</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>270</v>
+        <v>345</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
@@ -4575,29 +4306,25 @@
       <c r="AE8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AF8" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3" t="s">
-        <v>268</v>
+        <v>141</v>
       </c>
       <c r="AO8" s="3"/>
       <c r="AP8" s="3"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
       <c r="AS8" s="3"/>
-      <c r="AT8" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="AT8" s="3"/>
       <c r="AU8" s="3"/>
       <c r="AV8" s="3"/>
       <c r="AW8" s="3"/>
@@ -4608,8 +4335,12 @@
         <v>7</v>
       </c>
       <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
+      <c r="BC8" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="BD8" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="BE8" s="15" t="s">
         <v>22</v>
       </c>
@@ -4617,46 +4348,24 @@
       <c r="BG8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="BH8" s="4"/>
-      <c r="BI8" s="8" t="s">
+      <c r="BH8" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="BJ8" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="BK8" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BL8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="BN8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="BP8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="BR8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="BS8" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="BT8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="BU8" s="4" t="s">
-        <v>237</v>
-      </c>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
+      <c r="BL8" s="4"/>
+      <c r="BM8" s="4"/>
+      <c r="BN8" s="4"/>
+      <c r="BO8" s="4"/>
+      <c r="BP8" s="4"/>
+      <c r="BQ8" s="4"/>
+      <c r="BR8" s="4"/>
+      <c r="BS8" s="15"/>
+      <c r="BT8" s="4"/>
+      <c r="BU8" s="4"/>
       <c r="BV8" s="4"/>
       <c r="BW8" s="4"/>
       <c r="BX8" s="4"/>
@@ -4672,24 +4381,12 @@
       <c r="CH8" s="4"/>
       <c r="CI8" s="4"/>
       <c r="CJ8" s="4"/>
-      <c r="CK8" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="CL8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="CM8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="CN8" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="CO8" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="CP8" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="CK8" s="4"/>
+      <c r="CL8" s="4"/>
+      <c r="CM8" s="4"/>
+      <c r="CN8" s="4"/>
+      <c r="CO8" s="4"/>
+      <c r="CP8" s="4"/>
       <c r="CQ8" s="4"/>
       <c r="CR8" s="4"/>
       <c r="CS8" s="4"/>
@@ -4698,96 +4395,163 @@
       <c r="CV8" s="4"/>
       <c r="CW8" s="4"/>
       <c r="CX8" s="4"/>
-      <c r="CY8" s="10"/>
+      <c r="CY8" s="4"/>
       <c r="CZ8" s="4"/>
       <c r="DA8" s="4"/>
       <c r="DB8" s="4"/>
-      <c r="DC8" s="2"/>
-      <c r="DD8" s="12"/>
-      <c r="DE8" s="2"/>
-      <c r="DF8" s="2"/>
-      <c r="DG8" s="2"/>
-      <c r="DH8" s="2"/>
-      <c r="DI8" s="2"/>
+      <c r="DC8" s="4"/>
+      <c r="DD8" s="10"/>
+      <c r="DE8" s="4"/>
+      <c r="DF8" s="4"/>
+      <c r="DG8" s="4"/>
+      <c r="DH8" s="4"/>
+      <c r="DI8" s="4"/>
       <c r="DJ8" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="DK8" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="DL8" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="DL8" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="DM8" s="4" t="s">
         <v>95</v>
       </c>
       <c r="DN8" s="4"/>
-      <c r="DO8" s="4"/>
-      <c r="DP8" s="4"/>
-      <c r="DQ8" s="4"/>
-      <c r="DR8" s="4"/>
-      <c r="DS8" s="4"/>
-      <c r="DT8" s="4"/>
-      <c r="DU8" s="4"/>
-      <c r="DV8" s="4"/>
-      <c r="DW8" s="4"/>
-      <c r="DX8" s="4"/>
+      <c r="DO8" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="DP8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="DQ8" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="DR8" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="DS8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="DT8" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="DU8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="DV8" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="DW8" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="DX8" s="4" t="s">
+        <v>372</v>
+      </c>
       <c r="DY8" s="4"/>
-      <c r="DZ8" s="4"/>
-      <c r="EA8" s="4"/>
-      <c r="EB8" s="4"/>
-      <c r="EC8" s="4"/>
-      <c r="ED8" s="4"/>
-      <c r="EE8" s="4"/>
-      <c r="EF8" s="4"/>
-      <c r="EG8" s="4"/>
-      <c r="EH8" s="4"/>
-      <c r="EI8" s="4"/>
+      <c r="DZ8" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="EA8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="EB8" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="EC8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="ED8" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="EE8" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="EF8" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="EG8" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="EH8" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="EI8" s="4" t="s">
+        <v>374</v>
+      </c>
       <c r="EJ8" s="4"/>
       <c r="EK8" s="4"/>
-      <c r="EL8" s="4"/>
-      <c r="EM8" s="4"/>
-      <c r="EN8" s="4"/>
-      <c r="EO8" s="4"/>
-      <c r="EP8" s="4"/>
-      <c r="EQ8" s="4"/>
-      <c r="ER8" s="4"/>
-      <c r="ES8" s="4"/>
-      <c r="ET8" s="4"/>
-      <c r="EU8" s="4"/>
-      <c r="EV8" s="4"/>
-      <c r="EW8" s="4"/>
-      <c r="EX8" s="4"/>
-      <c r="EY8" s="4"/>
-      <c r="EZ8" s="4"/>
+      <c r="EL8" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="EM8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="EN8" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="EO8" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="EP8" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="EQ8" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="ER8" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="ES8" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="ET8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="EU8" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="EV8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="EW8" s="13">
+        <v>20000000</v>
+      </c>
+      <c r="EX8" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="EY8" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="EZ8" s="4" t="s">
+        <v>352</v>
+      </c>
       <c r="FA8" s="4"/>
       <c r="FB8" s="4"/>
       <c r="FC8" s="4"/>
       <c r="FD8" s="4"/>
       <c r="FE8" s="4"/>
-      <c r="FF8" s="4" t="s">
-        <v>397</v>
-      </c>
+      <c r="FF8" s="4"/>
       <c r="FG8" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="FH8" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="FI8" s="4" t="s">
-        <v>404</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="FH8" s="4"/>
+      <c r="FI8" s="4"/>
+      <c r="FJ8" s="4"/>
     </row>
-    <row r="9" spans="1:165">
+    <row r="9" spans="1:166">
       <c r="A9" s="3" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>55</v>
+        <v>332</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>20</v>
@@ -4806,7 +4570,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>20</v>
@@ -4815,18 +4579,18 @@
         <v>22</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
@@ -4853,7 +4617,7 @@
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AO9" s="3"/>
       <c r="AP9" s="3"/>
@@ -4879,7 +4643,7 @@
         <v>22</v>
       </c>
       <c r="BF9" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="BG9" s="4" t="s">
         <v>7</v>
@@ -4915,14 +4679,12 @@
       <c r="BR9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="BS9" s="15" t="s">
-        <v>326</v>
-      </c>
+      <c r="BS9" s="15"/>
       <c r="BT9" s="4" t="s">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="BU9" s="4" t="s">
-        <v>237</v>
+        <v>334</v>
       </c>
       <c r="BV9" s="4"/>
       <c r="BW9" s="4"/>
@@ -4940,9 +4702,7 @@
       <c r="CI9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="CJ9" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="CJ9" s="4"/>
       <c r="CK9" s="4" t="s">
         <v>92</v>
       </c>
@@ -4964,18 +4724,40 @@
       <c r="CQ9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="CR9" s="4"/>
-      <c r="CS9" s="4"/>
-      <c r="CT9" s="4"/>
-      <c r="CU9" s="4"/>
+      <c r="CR9" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="CS9" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="CT9" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="CU9" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="CV9" s="4"/>
-      <c r="CW9" s="4"/>
-      <c r="CX9" s="4"/>
-      <c r="CY9" s="10"/>
-      <c r="CZ9" s="4"/>
-      <c r="DA9" s="4"/>
-      <c r="DB9" s="4"/>
-      <c r="DC9" s="2"/>
+      <c r="CW9" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="CX9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CY9" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="CZ9" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="DA9" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DB9" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DC9" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="DD9" s="12"/>
       <c r="DE9" s="2"/>
       <c r="DF9" s="2"/>
@@ -4983,17 +4765,17 @@
       <c r="DH9" s="2"/>
       <c r="DI9" s="2"/>
       <c r="DJ9" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="DK9" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="DL9" s="4"/>
       <c r="DM9" s="4" t="s">
         <v>95</v>
       </c>
       <c r="DN9" s="4"/>
-      <c r="DO9" s="4"/>
+      <c r="DO9" s="11"/>
       <c r="DP9" s="4"/>
       <c r="DQ9" s="4"/>
       <c r="DR9" s="4"/>
@@ -5036,172 +4818,161 @@
       <c r="FC9" s="4"/>
       <c r="FD9" s="4"/>
       <c r="FE9" s="4"/>
-      <c r="FF9" s="4" t="s">
-        <v>397</v>
-      </c>
+      <c r="FF9" s="4"/>
       <c r="FG9" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="FH9" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="FI9" s="4" t="s">
-        <v>415</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="FH9" s="4"/>
+      <c r="FI9" s="4"/>
+      <c r="FJ9" s="4"/>
     </row>
-    <row r="10" spans="1:165">
+    <row r="10" spans="1:166">
       <c r="A10" s="3" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>95</v>
+        <v>363</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
       <c r="O10" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>122</v>
+      <c r="Q10" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
       <c r="W10" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL10" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="AO10" s="3"/>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2"/>
-      <c r="AT10" s="3" t="s">
-        <v>269</v>
-      </c>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
       <c r="AU10" s="3"/>
-      <c r="AV10" s="2"/>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="2"/>
-      <c r="AY10" s="2"/>
-      <c r="AZ10" s="2"/>
-      <c r="BA10" s="4" t="s">
-        <v>120</v>
-      </c>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
       <c r="BB10" s="4"/>
-      <c r="BC10" s="4"/>
-      <c r="BD10" s="4"/>
+      <c r="BC10" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="BD10" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="BE10" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="BF10" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="BF10" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="BG10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH10" s="4"/>
-      <c r="BI10" s="4" t="s">
-        <v>124</v>
+        <v>95</v>
+      </c>
+      <c r="BH10" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="BI10" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="BJ10" s="4" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="BK10" s="4" t="s">
-        <v>126</v>
+        <v>295</v>
       </c>
       <c r="BL10" s="4" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="BM10" s="4" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="BN10" s="4" t="s">
-        <v>129</v>
+        <v>296</v>
       </c>
       <c r="BO10" s="4" t="s">
-        <v>130</v>
+        <v>296</v>
       </c>
       <c r="BP10" s="4" t="s">
-        <v>131</v>
+        <v>297</v>
       </c>
       <c r="BQ10" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BR10" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="BR10" s="4"/>
       <c r="BS10" s="15"/>
       <c r="BT10" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="BU10" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="BV10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="BW10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="BX10" s="4" t="s">
-        <v>240</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="BU10" s="4"/>
+      <c r="BV10" s="4"/>
+      <c r="BW10" s="4"/>
+      <c r="BX10" s="4"/>
       <c r="BY10" s="4"/>
       <c r="BZ10" s="4"/>
       <c r="CA10" s="4"/>
@@ -5213,30 +4984,28 @@
       <c r="CG10" s="4"/>
       <c r="CH10" s="4"/>
       <c r="CI10" s="4" t="s">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="CJ10" s="4"/>
       <c r="CK10" s="4" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
       <c r="CL10" s="4" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="CM10" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="CN10" s="4" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="CO10" s="4" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="CP10" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="CQ10" s="4" t="s">
-        <v>199</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="CQ10" s="4"/>
       <c r="CR10" s="4"/>
       <c r="CS10" s="4"/>
       <c r="CT10" s="4"/>
@@ -5248,25 +5017,25 @@
       <c r="CZ10" s="4"/>
       <c r="DA10" s="4"/>
       <c r="DB10" s="4"/>
-      <c r="DC10" s="4"/>
-      <c r="DD10" s="10"/>
-      <c r="DE10" s="4"/>
-      <c r="DF10" s="4"/>
-      <c r="DG10" s="4"/>
-      <c r="DH10" s="4"/>
-      <c r="DI10" s="4"/>
+      <c r="DC10" s="2"/>
+      <c r="DD10" s="12"/>
+      <c r="DE10" s="2"/>
+      <c r="DF10" s="2"/>
+      <c r="DG10" s="2"/>
+      <c r="DH10" s="2"/>
+      <c r="DI10" s="2"/>
       <c r="DJ10" s="11" t="s">
-        <v>135</v>
+        <v>291</v>
       </c>
       <c r="DK10" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="DL10" s="4"/>
       <c r="DM10" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="DN10" s="4"/>
-      <c r="DO10" s="4"/>
+      <c r="DO10" s="11"/>
       <c r="DP10" s="4"/>
       <c r="DQ10" s="4"/>
       <c r="DR10" s="4"/>
@@ -5309,214 +5078,201 @@
       <c r="FC10" s="4"/>
       <c r="FD10" s="4"/>
       <c r="FE10" s="4"/>
-      <c r="FF10" s="4" t="s">
-        <v>397</v>
-      </c>
+      <c r="FF10" s="4"/>
       <c r="FG10" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="FH10" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="FI10" s="4" t="s">
-        <v>417</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="FH10" s="4"/>
+      <c r="FI10" s="4"/>
+      <c r="FJ10" s="4"/>
     </row>
-    <row r="11" spans="1:165">
+    <row r="11" spans="1:166">
       <c r="A11" s="3" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>95</v>
+        <v>357</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>243</v>
+        <v>55</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
       <c r="O11" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>122</v>
+      <c r="Q11" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>122</v>
+        <v>289</v>
+      </c>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="AF11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL11" s="2"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AO11" s="3"/>
-      <c r="AP11" s="2"/>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
-      <c r="AS11" s="2"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
       <c r="AT11" s="3" t="s">
-        <v>269</v>
+        <v>98</v>
       </c>
       <c r="AU11" s="3"/>
-      <c r="AV11" s="2"/>
-      <c r="AW11" s="2"/>
-      <c r="AX11" s="2"/>
-      <c r="AY11" s="2"/>
-      <c r="AZ11" s="2"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="4"/>
       <c r="BA11" s="4" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="BB11" s="4"/>
       <c r="BC11" s="4"/>
       <c r="BD11" s="4"/>
       <c r="BE11" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="BF11" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="BF11" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="BG11" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH11" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="BI11" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ11" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BK11" s="4" t="s">
-        <v>126</v>
+        <v>7</v>
+      </c>
+      <c r="BH11" s="4"/>
+      <c r="BI11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK11" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="BL11" s="4" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="BM11" s="4" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="BN11" s="4" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="BO11" s="4" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="BP11" s="4" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="BQ11" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="BR11" s="4"/>
-      <c r="BS11" s="15"/>
-      <c r="BT11" s="4"/>
-      <c r="BU11" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="BR11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BS11" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BT11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU11" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="BV11" s="4"/>
       <c r="BW11" s="4"/>
       <c r="BX11" s="4"/>
-      <c r="BY11" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="BZ11" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="CA11" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="CB11" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="CC11" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="CD11" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="CE11" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="CF11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="CG11" s="4" t="s">
-        <v>263</v>
-      </c>
+      <c r="BY11" s="4"/>
+      <c r="BZ11" s="4"/>
+      <c r="CA11" s="4"/>
+      <c r="CB11" s="4"/>
+      <c r="CC11" s="4"/>
+      <c r="CD11" s="4"/>
+      <c r="CE11" s="4"/>
+      <c r="CF11" s="4"/>
+      <c r="CG11" s="4"/>
       <c r="CH11" s="4"/>
       <c r="CI11" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="CJ11" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="CJ11" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="CK11" s="4" t="s">
-        <v>265</v>
+        <v>92</v>
       </c>
       <c r="CL11" s="4" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="CM11" s="4" t="s">
-        <v>266</v>
+        <v>93</v>
       </c>
       <c r="CN11" s="4" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="CO11" s="4" t="s">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="CP11" s="4" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="CQ11" s="4" t="s">
-        <v>267</v>
+        <v>96</v>
       </c>
       <c r="CR11" s="4"/>
       <c r="CS11" s="4"/>
@@ -5529,25 +5285,25 @@
       <c r="CZ11" s="4"/>
       <c r="DA11" s="4"/>
       <c r="DB11" s="4"/>
-      <c r="DC11" s="4"/>
-      <c r="DD11" s="10"/>
-      <c r="DE11" s="4"/>
-      <c r="DF11" s="4"/>
-      <c r="DG11" s="4"/>
-      <c r="DH11" s="4"/>
-      <c r="DI11" s="4"/>
+      <c r="DC11" s="2"/>
+      <c r="DD11" s="12"/>
+      <c r="DE11" s="2"/>
+      <c r="DF11" s="2"/>
+      <c r="DG11" s="2"/>
+      <c r="DH11" s="2"/>
+      <c r="DI11" s="2"/>
       <c r="DJ11" s="11" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="DK11" s="4" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="DL11" s="4"/>
       <c r="DM11" s="4" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="DN11" s="4"/>
-      <c r="DO11" s="4"/>
+      <c r="DO11" s="11"/>
       <c r="DP11" s="4"/>
       <c r="DQ11" s="4"/>
       <c r="DR11" s="4"/>
@@ -5590,184 +5346,311 @@
       <c r="FC11" s="4"/>
       <c r="FD11" s="4"/>
       <c r="FE11" s="4"/>
-      <c r="FF11" s="4" t="s">
-        <v>397</v>
-      </c>
+      <c r="FF11" s="4"/>
       <c r="FG11" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="FH11" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="FI11" s="4" t="s">
-        <v>399</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="FH11" s="4"/>
+      <c r="FI11" s="4"/>
+      <c r="FJ11" s="4"/>
     </row>
-    <row r="12" spans="1:165">
+    <row r="12" spans="1:166">
       <c r="A12" s="3" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>291</v>
+        <v>360</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
       <c r="O12" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>7</v>
+      <c r="Q12" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>293</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
       <c r="W12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>22</v>
+        <v>120</v>
+      </c>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="AF12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AK12" s="1" t="s">
-        <v>282</v>
-      </c>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="3"/>
       <c r="AN12" s="3" t="s">
-        <v>307</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
       <c r="BE12" s="15" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="BF12" s="15"/>
-      <c r="BG12" s="1" t="s">
-        <v>295</v>
+      <c r="BG12" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="BH12" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="BI12" s="8" t="s">
-        <v>7</v>
+        <v>242</v>
+      </c>
+      <c r="BI12" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="BJ12" s="4" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="BK12" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="BL12" s="1" t="s">
-        <v>315</v>
+        <v>123</v>
+      </c>
+      <c r="BL12" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="BM12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="BN12" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="BO12" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="BP12" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="BQ12" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="BR12" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="BT12" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="CI12" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="CK12" s="1" t="s">
-        <v>320</v>
+        <v>125</v>
+      </c>
+      <c r="BN12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BO12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP12" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="BR12" s="4"/>
+      <c r="BS12" s="15"/>
+      <c r="BT12" s="4"/>
+      <c r="BU12" s="4"/>
+      <c r="BV12" s="4"/>
+      <c r="BW12" s="4"/>
+      <c r="BX12" s="4"/>
+      <c r="BY12" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="BZ12" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="CA12" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="CB12" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="CC12" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="CD12" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="CE12" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="CF12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="CG12" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="CH12" s="4"/>
+      <c r="CI12" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="CJ12" s="4"/>
+      <c r="CK12" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="CL12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="CM12" s="1" t="s">
-        <v>321</v>
+        <v>117</v>
+      </c>
+      <c r="CM12" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="CN12" s="4" t="s">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="CO12" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="CP12" s="4"/>
-      <c r="CZ12" s="2"/>
-      <c r="DA12" s="2"/>
-      <c r="DB12" s="2"/>
-      <c r="DC12" s="2"/>
-      <c r="DD12" s="12"/>
-      <c r="DE12" s="2"/>
-      <c r="DF12" s="2"/>
-      <c r="DG12" s="2"/>
-      <c r="DH12" s="2"/>
-      <c r="DI12" s="2"/>
-      <c r="DJ12" s="1" t="s">
-        <v>295</v>
+        <v>224</v>
+      </c>
+      <c r="CP12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="CQ12" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="CR12" s="4"/>
+      <c r="CS12" s="4"/>
+      <c r="CT12" s="4"/>
+      <c r="CU12" s="4"/>
+      <c r="CV12" s="4"/>
+      <c r="CW12" s="4"/>
+      <c r="CX12" s="4"/>
+      <c r="CY12" s="10"/>
+      <c r="CZ12" s="4"/>
+      <c r="DA12" s="4"/>
+      <c r="DB12" s="4"/>
+      <c r="DC12" s="4"/>
+      <c r="DD12" s="10"/>
+      <c r="DE12" s="4"/>
+      <c r="DF12" s="4"/>
+      <c r="DG12" s="4"/>
+      <c r="DH12" s="4"/>
+      <c r="DI12" s="4"/>
+      <c r="DJ12" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="DK12" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="DL12" s="4"/>
       <c r="DM12" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="FF12" s="4" t="s">
-        <v>397</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="DN12" s="4"/>
+      <c r="DO12" s="11"/>
+      <c r="DP12" s="4"/>
+      <c r="DQ12" s="4"/>
+      <c r="DR12" s="4"/>
+      <c r="DS12" s="4"/>
+      <c r="DT12" s="4"/>
+      <c r="DU12" s="4"/>
+      <c r="DV12" s="4"/>
+      <c r="DW12" s="4"/>
+      <c r="DX12" s="4"/>
+      <c r="DY12" s="4"/>
+      <c r="DZ12" s="4"/>
+      <c r="EA12" s="4"/>
+      <c r="EB12" s="4"/>
+      <c r="EC12" s="4"/>
+      <c r="ED12" s="4"/>
+      <c r="EE12" s="4"/>
+      <c r="EF12" s="4"/>
+      <c r="EG12" s="4"/>
+      <c r="EH12" s="4"/>
+      <c r="EI12" s="4"/>
+      <c r="EJ12" s="4"/>
+      <c r="EK12" s="4"/>
+      <c r="EL12" s="4"/>
+      <c r="EM12" s="4"/>
+      <c r="EN12" s="4"/>
+      <c r="EO12" s="4"/>
+      <c r="EP12" s="4"/>
+      <c r="EQ12" s="4"/>
+      <c r="ER12" s="4"/>
+      <c r="ES12" s="4"/>
+      <c r="ET12" s="4"/>
+      <c r="EU12" s="4"/>
+      <c r="EV12" s="4"/>
+      <c r="EW12" s="4"/>
+      <c r="EX12" s="4"/>
+      <c r="EY12" s="4"/>
+      <c r="EZ12" s="4"/>
+      <c r="FA12" s="4"/>
+      <c r="FB12" s="4"/>
+      <c r="FC12" s="4"/>
+      <c r="FD12" s="4"/>
+      <c r="FE12" s="4"/>
+      <c r="FF12" s="4"/>
+      <c r="FG12" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="FH12" s="4"/>
+      <c r="FI12" s="4"/>
+      <c r="FJ12" s="4"/>
     </row>
-    <row r="13" spans="1:165">
+    <row r="13" spans="1:166">
       <c r="A13" s="3" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -5777,7 +5660,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>20</v>
@@ -5786,18 +5669,18 @@
         <v>7</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
@@ -5819,12 +5702,12 @@
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AO13" s="3"/>
       <c r="AP13" s="3"/>
@@ -5833,7 +5716,7 @@
       <c r="AS13" s="3"/>
       <c r="AT13" s="3"/>
       <c r="AU13" s="9" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AV13" s="3"/>
       <c r="AW13" s="3"/>
@@ -5843,10 +5726,10 @@
       <c r="BA13" s="4"/>
       <c r="BB13" s="4"/>
       <c r="BC13" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="BD13" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="BE13" s="15" t="s">
         <v>22</v>
@@ -5856,16 +5739,16 @@
         <v>95</v>
       </c>
       <c r="BH13" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="BI13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="BJ13" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="BK13" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BL13" s="4" t="s">
         <v>73</v>
@@ -5874,21 +5757,21 @@
         <v>74</v>
       </c>
       <c r="BN13" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="BO13" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="BP13" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="BQ13" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BR13" s="4"/>
       <c r="BS13" s="15"/>
       <c r="BT13" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="BU13" s="4"/>
       <c r="BV13" s="4"/>
@@ -5905,20 +5788,20 @@
       <c r="CG13" s="4"/>
       <c r="CH13" s="4"/>
       <c r="CI13" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="CJ13" s="4"/>
       <c r="CK13" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="CL13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="CM13" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="CN13" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="CO13" s="4" t="s">
         <v>7</v>
@@ -5944,17 +5827,17 @@
       <c r="DH13" s="2"/>
       <c r="DI13" s="2"/>
       <c r="DJ13" s="11" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="DK13" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="DL13" s="4"/>
       <c r="DM13" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="DN13" s="4"/>
-      <c r="DO13" s="4"/>
+      <c r="DO13" s="11"/>
       <c r="DP13" s="4"/>
       <c r="DQ13" s="4"/>
       <c r="DR13" s="4"/>
@@ -5997,31 +5880,26 @@
       <c r="FC13" s="4"/>
       <c r="FD13" s="4"/>
       <c r="FE13" s="4"/>
-      <c r="FF13" s="4" t="s">
-        <v>397</v>
-      </c>
+      <c r="FF13" s="4"/>
       <c r="FG13" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="FH13" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="FI13" s="4" t="s">
-        <v>399</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="FH13" s="4"/>
+      <c r="FI13" s="4"/>
+      <c r="FJ13" s="4"/>
     </row>
-    <row r="14" spans="1:165">
+    <row r="14" spans="1:166">
       <c r="A14" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>20</v>
@@ -6040,7 +5918,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>20</v>
@@ -6049,18 +5927,18 @@
         <v>22</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
@@ -6087,7 +5965,7 @@
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
       <c r="AN14" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AO14" s="3"/>
       <c r="AP14" s="3"/>
@@ -6152,7 +6030,7 @@
         <v>77</v>
       </c>
       <c r="BU14" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="BV14" s="4"/>
       <c r="BW14" s="4"/>
@@ -6195,69 +6073,69 @@
         <v>96</v>
       </c>
       <c r="CR14" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="CS14" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="CT14" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="CU14" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="CV14" s="4"/>
       <c r="CW14" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="CX14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="CY14" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="CZ14" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="DA14" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="DB14" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="DC14" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="DB14" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="DC14" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="DD14" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="DE14" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="DF14" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="DG14" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="DH14" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="DH14" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="DI14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="DJ14" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="DK14" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="DL14" s="4"/>
       <c r="DM14" s="4" t="s">
         <v>95</v>
       </c>
       <c r="DN14" s="4"/>
-      <c r="DO14" s="4"/>
+      <c r="DO14" s="11"/>
       <c r="DP14" s="4"/>
       <c r="DQ14" s="4"/>
       <c r="DR14" s="4"/>
@@ -6300,25 +6178,26 @@
       <c r="FC14" s="4"/>
       <c r="FD14" s="4"/>
       <c r="FE14" s="4"/>
-      <c r="FF14" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="FG14" s="4"/>
+      <c r="FF14" s="4"/>
+      <c r="FG14" s="4" t="s">
+        <v>391</v>
+      </c>
       <c r="FH14" s="4"/>
       <c r="FI14" s="4"/>
+      <c r="FJ14" s="4"/>
     </row>
-    <row r="15" spans="1:165">
+    <row r="15" spans="1:166">
       <c r="A15" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>20</v>
@@ -6337,7 +6216,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>20</v>
@@ -6346,18 +6225,18 @@
         <v>22</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
@@ -6384,7 +6263,7 @@
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AO15" s="3"/>
       <c r="AP15" s="3"/>
@@ -6446,10 +6325,10 @@
       </c>
       <c r="BS15" s="15"/>
       <c r="BT15" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="BU15" s="4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="BV15" s="4"/>
       <c r="BW15" s="4"/>
@@ -6465,7 +6344,7 @@
       <c r="CG15" s="4"/>
       <c r="CH15" s="4"/>
       <c r="CI15" s="4" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="CJ15" s="4"/>
       <c r="CK15" s="4" t="s">
@@ -6502,35 +6381,35 @@
       <c r="DB15" s="4"/>
       <c r="DC15" s="2"/>
       <c r="DD15" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="DE15" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="DF15" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="DG15" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="DH15" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="DH15" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="DI15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="DJ15" s="11" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="DK15" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="DL15" s="4"/>
       <c r="DM15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="DN15" s="4"/>
-      <c r="DO15" s="4"/>
+      <c r="DO15" s="11"/>
       <c r="DP15" s="4"/>
       <c r="DQ15" s="4"/>
       <c r="DR15" s="4"/>
@@ -6573,16 +6452,17 @@
       <c r="FC15" s="4"/>
       <c r="FD15" s="4"/>
       <c r="FE15" s="4"/>
-      <c r="FF15" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="FG15" s="4"/>
+      <c r="FF15" s="4"/>
+      <c r="FG15" s="4" t="s">
+        <v>391</v>
+      </c>
       <c r="FH15" s="4"/>
       <c r="FI15" s="4"/>
+      <c r="FJ15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="FG1:FI1"/>
+    <mergeCell ref="FH1:FJ1"/>
     <mergeCell ref="CI1:CQ1"/>
     <mergeCell ref="BL1:CH1"/>
     <mergeCell ref="BA1:BK1"/>
@@ -6591,10 +6471,10 @@
     <mergeCell ref="N1:W1"/>
     <mergeCell ref="Y1:AJ1"/>
     <mergeCell ref="AL1:AZ1"/>
-    <mergeCell ref="DJ1:DM1"/>
-    <mergeCell ref="ET1:EY1"/>
-    <mergeCell ref="EZ1:FE1"/>
-    <mergeCell ref="DN1:ES1"/>
+    <mergeCell ref="DJ1:DN1"/>
+    <mergeCell ref="EU1:EZ1"/>
+    <mergeCell ref="FA1:FF1"/>
+    <mergeCell ref="DO1:ET1"/>
     <mergeCell ref="CR1:DC1"/>
     <mergeCell ref="DD1:DI1"/>
   </mergeCells>

--- a/TestData/FCCB_TBCL_data.xlsx
+++ b/TestData/FCCB_TBCL_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu-b\git\PageObjectModel\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482B20DF-73BB-485D-8572-388DB1321D3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32C46FA-3137-41D5-A795-AAB237F9F787}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -31,6 +31,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>liu-b</author>
+    <author>刘本朝</author>
   </authors>
   <commentList>
     <comment ref="BE2" authorId="0" shapeId="0" xr:uid="{7A17C8A9-A813-4173-9423-A8C07442EA79}">
@@ -68,6 +69,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>liu-b:</t>
@@ -77,6 +79,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -84,7 +87,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="BS2" authorId="0" shapeId="0" xr:uid="{91E6A09E-D44F-4B37-86EF-07EB4904F997}">
+    <comment ref="BG2" authorId="1" shapeId="0" xr:uid="{8E55420F-2455-4BC0-912F-C3EAF6BD0D34}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>刘本朝:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+是否合并录单</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BT2" authorId="0" shapeId="0" xr:uid="{91E6A09E-D44F-4B37-86EF-07EB4904F997}">
       <text>
         <r>
           <rPr>
@@ -110,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CM10" authorId="0" shapeId="0" xr:uid="{895CE292-9A8F-4BAD-B314-7B80E80E209C}">
+    <comment ref="CN10" authorId="0" shapeId="0" xr:uid="{895CE292-9A8F-4BAD-B314-7B80E80E209C}">
       <text>
         <r>
           <rPr>
@@ -141,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="412">
   <si>
     <t>fbbs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1438,10 +1467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0702</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1675,7 +1700,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>proposalNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06201900108202000000000030</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>06201900107202000000000061</t>
+  </si>
+  <si>
+    <t>06201900702202000000000055</t>
+  </si>
+  <si>
+    <t>06201900123202000000000023</t>
+  </si>
+  <si>
+    <t>06205030701202000000000033</t>
+  </si>
+  <si>
+    <t>06205030710202000000000028</t>
+  </si>
+  <si>
+    <t>06201900101202000000000129</t>
+  </si>
+  <si>
+    <t>06201900104202000000000017</t>
+  </si>
+  <si>
+    <t>未知异常Currently focused window has been closed.
+Build info: version: '3.9.0', revision: '698b3178f0', time: '2018-02-05T14:26:55.441Z'
+System info: host: 'DESKTOP-I9S3ABE', ip: '100.100.94.223', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
+Driver info: org.openqa.selenium.ie.InternetExplorerDriver
+Capabilities {acceptInsecureCerts: false, browserName: internet explorer, browserVersion: 11, javascriptEnabled: true, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:ieOptions: {browserAttachTimeout: 0, elementScrollBehavior: 0, enablePersistentHover: true, ie.browserCommandLineSwitches: , ie.ensureCleanSession: false, ie.fileUploadDialogTimeout: 3000, ie.forceCreateProcessApi: false, ignoreProtectedModeSettings: true, ignoreZoomSetting: false, initialBrowserUrl: http://localhost:31490/, nativeEvents: true, requireWindowFocus: false}, setWindowRect: true, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: accept}
+Session ID: b920bd82-6e38-4c12-9d40-bac20358d3b3
+*** Element info: {Using=name, value=riskClassTemp}</t>
+  </si>
+  <si>
+    <t>06201900122202000000000019</t>
+  </si>
+  <si>
+    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\FCCB_TB_JCX_0102_2_异常截屏_20200727113601617.png</t>
+  </si>
+  <si>
+    <t>未知异常Timed out after 10 seconds. Unable to locate the element</t>
+  </si>
+  <si>
     <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfhbld</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1686,7 +1772,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1739,19 +1825,6 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2165,10 +2238,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FB4AF2-2C99-459C-9147-AD7590C3225D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:FJ15"/>
+  <dimension ref="A1:FK15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="FH2" sqref="FH2:FL14"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BG3" sqref="BG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -2199,40 +2272,41 @@
     <col min="52" max="52" width="15.5" style="1" customWidth="1" collapsed="1"/>
     <col min="53" max="56" width="8.75" style="1" collapsed="1"/>
     <col min="57" max="58" width="8.75" style="16" collapsed="1"/>
-    <col min="59" max="70" width="8.75" style="1" collapsed="1"/>
-    <col min="71" max="71" width="8.75" style="16" collapsed="1"/>
-    <col min="72" max="72" width="13.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="20.875" style="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="97" width="8.75" style="1" collapsed="1"/>
-    <col min="98" max="113" width="23.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="114" max="119" width="8.75" style="1" collapsed="1"/>
-    <col min="120" max="120" width="17.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="121" max="121" width="16.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="122" max="122" width="25" style="1" customWidth="1" collapsed="1"/>
-    <col min="123" max="123" width="8.75" style="1" collapsed="1"/>
-    <col min="124" max="124" width="29.25" style="1" customWidth="1" collapsed="1"/>
-    <col min="125" max="125" width="12.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="126" max="126" width="15.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="127" max="129" width="18.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="130" max="130" width="17.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="131" max="134" width="8.75" style="1" collapsed="1"/>
-    <col min="135" max="135" width="24" style="1" customWidth="1" collapsed="1"/>
-    <col min="136" max="138" width="8.75" style="1" collapsed="1"/>
-    <col min="139" max="139" width="20.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="140" max="140" width="16.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="141" max="141" width="17.25" style="1" customWidth="1" collapsed="1"/>
-    <col min="142" max="142" width="8.75" style="1" collapsed="1"/>
-    <col min="143" max="143" width="14.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="144" max="147" width="8.75" style="1" collapsed="1"/>
-    <col min="148" max="148" width="21.875" style="1" customWidth="1" collapsed="1"/>
-    <col min="149" max="149" width="8.75" style="1" collapsed="1"/>
-    <col min="150" max="150" width="15.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="151" max="163" width="20.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="164" max="164" width="38.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="165" max="16384" width="8.75" style="1" collapsed="1"/>
+    <col min="59" max="59" width="8.75" style="16"/>
+    <col min="60" max="71" width="8.75" style="1" collapsed="1"/>
+    <col min="72" max="72" width="8.75" style="16" collapsed="1"/>
+    <col min="73" max="73" width="13.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="20.875" style="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="98" width="8.75" style="1" collapsed="1"/>
+    <col min="99" max="114" width="23.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="115" max="120" width="8.75" style="1" collapsed="1"/>
+    <col min="121" max="121" width="17.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="122" max="122" width="16.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="123" max="123" width="25" style="1" customWidth="1" collapsed="1"/>
+    <col min="124" max="124" width="8.75" style="1" collapsed="1"/>
+    <col min="125" max="125" width="29.25" style="1" customWidth="1" collapsed="1"/>
+    <col min="126" max="126" width="12.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="127" max="127" width="15.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="128" max="130" width="18.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="131" max="131" width="17.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="132" max="135" width="8.75" style="1" collapsed="1"/>
+    <col min="136" max="136" width="24" style="1" customWidth="1" collapsed="1"/>
+    <col min="137" max="139" width="8.75" style="1" collapsed="1"/>
+    <col min="140" max="140" width="20.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="141" max="141" width="16.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="142" max="142" width="17.25" style="1" customWidth="1" collapsed="1"/>
+    <col min="143" max="143" width="8.75" style="1" collapsed="1"/>
+    <col min="144" max="144" width="14.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="145" max="148" width="8.75" style="1" collapsed="1"/>
+    <col min="149" max="149" width="21.875" style="1" customWidth="1" collapsed="1"/>
+    <col min="150" max="150" width="8.75" style="1" collapsed="1"/>
+    <col min="151" max="151" width="15.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="152" max="164" width="20.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="165" max="165" width="38.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="166" max="16384" width="8.75" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166">
+    <row r="1" spans="1:167">
       <c r="A1" s="21" t="s">
         <v>50</v>
       </c>
@@ -2308,10 +2382,10 @@
       <c r="BI1" s="21"/>
       <c r="BJ1" s="21"/>
       <c r="BK1" s="21"/>
-      <c r="BL1" s="21" t="s">
+      <c r="BL1" s="21"/>
+      <c r="BM1" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="BM1" s="21"/>
       <c r="BN1" s="21"/>
       <c r="BO1" s="21"/>
       <c r="BP1" s="21"/>
@@ -2333,21 +2407,21 @@
       <c r="CF1" s="21"/>
       <c r="CG1" s="21"/>
       <c r="CH1" s="21"/>
-      <c r="CI1" s="18" t="s">
+      <c r="CI1" s="21"/>
+      <c r="CJ1" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="CJ1" s="19"/>
       <c r="CK1" s="19"/>
       <c r="CL1" s="19"/>
       <c r="CM1" s="19"/>
       <c r="CN1" s="19"/>
       <c r="CO1" s="19"/>
       <c r="CP1" s="19"/>
-      <c r="CQ1" s="20"/>
-      <c r="CR1" s="18" t="s">
+      <c r="CQ1" s="19"/>
+      <c r="CR1" s="20"/>
+      <c r="CS1" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="CS1" s="19"/>
       <c r="CT1" s="19"/>
       <c r="CU1" s="19"/>
       <c r="CV1" s="19"/>
@@ -2357,26 +2431,26 @@
       <c r="CZ1" s="19"/>
       <c r="DA1" s="19"/>
       <c r="DB1" s="19"/>
-      <c r="DC1" s="20"/>
-      <c r="DD1" s="18" t="s">
+      <c r="DC1" s="19"/>
+      <c r="DD1" s="20"/>
+      <c r="DE1" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="DE1" s="19"/>
       <c r="DF1" s="19"/>
       <c r="DG1" s="19"/>
       <c r="DH1" s="19"/>
-      <c r="DI1" s="20"/>
-      <c r="DJ1" s="18" t="s">
+      <c r="DI1" s="19"/>
+      <c r="DJ1" s="20"/>
+      <c r="DK1" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="DK1" s="19"/>
       <c r="DL1" s="19"/>
       <c r="DM1" s="19"/>
-      <c r="DN1" s="20"/>
-      <c r="DO1" s="18" t="s">
+      <c r="DN1" s="19"/>
+      <c r="DO1" s="20"/>
+      <c r="DP1" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="DP1" s="19"/>
       <c r="DQ1" s="19"/>
       <c r="DR1" s="19"/>
       <c r="DS1" s="19"/>
@@ -2407,32 +2481,33 @@
       <c r="ER1" s="19"/>
       <c r="ES1" s="19"/>
       <c r="ET1" s="19"/>
-      <c r="EU1" s="18" t="s">
+      <c r="EU1" s="19"/>
+      <c r="EV1" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="EV1" s="19"/>
       <c r="EW1" s="19"/>
       <c r="EX1" s="19"/>
       <c r="EY1" s="19"/>
       <c r="EZ1" s="19"/>
-      <c r="FA1" s="19" t="s">
+      <c r="FA1" s="19"/>
+      <c r="FB1" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="FB1" s="19"/>
       <c r="FC1" s="19"/>
       <c r="FD1" s="19"/>
       <c r="FE1" s="19"/>
       <c r="FF1" s="19"/>
-      <c r="FG1" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="FH1" s="18" t="s">
+      <c r="FG1" s="19"/>
+      <c r="FH1" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="FI1" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="FI1" s="19"/>
       <c r="FJ1" s="19"/>
+      <c r="FK1" s="19"/>
     </row>
-    <row r="2" spans="1:166" ht="15" customHeight="1">
+    <row r="2" spans="1:167" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>107</v>
       </c>
@@ -2607,331 +2682,340 @@
       <c r="BF2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="BG2" s="6" t="s">
+      <c r="BG2" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="BH2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BH2" s="6" t="s">
+      <c r="BI2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="BI2" s="6" t="s">
+      <c r="BJ2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="BJ2" s="6" t="s">
+      <c r="BK2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="BK2" s="6" t="s">
+      <c r="BL2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="BL2" s="6" t="s">
+      <c r="BM2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="BM2" s="6" t="s">
+      <c r="BN2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="BN2" s="6" t="s">
+      <c r="BO2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="BO2" s="6" t="s">
+      <c r="BP2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="BP2" s="6" t="s">
+      <c r="BQ2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="BQ2" s="6" t="s">
+      <c r="BR2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="BR2" s="6" t="s">
+      <c r="BS2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="BS2" s="14" t="s">
+      <c r="BT2" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="BT2" s="6" t="s">
+      <c r="BU2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="BU2" s="6" t="s">
+      <c r="BV2" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="BV2" s="6" t="s">
+      <c r="BW2" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="BW2" s="6" t="s">
+      <c r="BX2" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="BX2" s="6" t="s">
+      <c r="BY2" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="BY2" s="6" t="s">
+      <c r="BZ2" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="BZ2" s="6" t="s">
+      <c r="CA2" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="CA2" s="6" t="s">
+      <c r="CB2" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="CB2" s="6" t="s">
+      <c r="CC2" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="CC2" s="6" t="s">
+      <c r="CD2" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="CD2" s="6" t="s">
+      <c r="CE2" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="CE2" s="6" t="s">
+      <c r="CF2" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="CF2" s="6" t="s">
+      <c r="CG2" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="CG2" s="6" t="s">
+      <c r="CH2" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="CH2" s="6" t="s">
+      <c r="CI2" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="CI2" s="6" t="s">
+      <c r="CJ2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="CJ2" s="6" t="s">
+      <c r="CK2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="CK2" s="6" t="s">
+      <c r="CL2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="CL2" s="6" t="s">
+      <c r="CM2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="CM2" s="6" t="s">
+      <c r="CN2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="CN2" s="6" t="s">
+      <c r="CO2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="CO2" s="6" t="s">
+      <c r="CP2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="CP2" s="6" t="s">
+      <c r="CQ2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="CQ2" s="6" t="s">
+      <c r="CR2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="CR2" s="6" t="s">
+      <c r="CS2" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="CS2" s="6" t="s">
+      <c r="CT2" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="CT2" s="6" t="s">
+      <c r="CU2" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="CU2" s="6" t="s">
+      <c r="CV2" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="CV2" s="6" t="s">
+      <c r="CW2" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="CW2" s="6" t="s">
+      <c r="CX2" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="CX2" s="6" t="s">
+      <c r="CY2" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="CY2" s="6" t="s">
+      <c r="CZ2" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="CZ2" s="6" t="s">
+      <c r="DA2" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="DA2" s="6" t="s">
+      <c r="DB2" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="DB2" s="6" t="s">
+      <c r="DC2" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="DC2" s="6" t="s">
+      <c r="DD2" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="DD2" s="6" t="s">
+      <c r="DE2" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="DE2" s="6" t="s">
+      <c r="DF2" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="DF2" s="6" t="s">
+      <c r="DG2" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="DG2" s="6" t="s">
+      <c r="DH2" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="DH2" s="6" t="s">
+      <c r="DI2" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="DI2" s="6" t="s">
+      <c r="DJ2" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="DJ2" s="6" t="s">
+      <c r="DK2" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="DK2" s="6" t="s">
+      <c r="DL2" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="DL2" s="6" t="s">
-        <v>387</v>
-      </c>
       <c r="DM2" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="DN2" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="DN2" s="6" t="s">
-        <v>393</v>
-      </c>
       <c r="DO2" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="DP2" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="DP2" s="6" t="s">
+      <c r="DQ2" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="DQ2" s="6" t="s">
+      <c r="DR2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="DR2" s="6" t="s">
+      <c r="DS2" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="DS2" s="6" t="s">
+      <c r="DT2" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="DT2" s="6" t="s">
+      <c r="DU2" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="DU2" s="6" t="s">
+      <c r="DV2" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="DV2" s="6" t="s">
+      <c r="DW2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="DW2" s="6" t="s">
+      <c r="DX2" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="DX2" s="6" t="s">
+      <c r="DY2" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="DY2" s="6" t="s">
+      <c r="DZ2" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="DZ2" s="6" t="s">
+      <c r="EA2" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="EA2" s="6" t="s">
+      <c r="EB2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="EB2" s="6" t="s">
+      <c r="EC2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="EC2" s="6" t="s">
+      <c r="ED2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="ED2" s="6" t="s">
+      <c r="EE2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="EE2" s="6" t="s">
+      <c r="EF2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="EF2" s="6" t="s">
+      <c r="EG2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="EG2" s="6" t="s">
+      <c r="EH2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="EH2" s="6" t="s">
+      <c r="EI2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="EI2" s="6" t="s">
+      <c r="EJ2" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="EJ2" s="6" t="s">
+      <c r="EK2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="EK2" s="6" t="s">
+      <c r="EL2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="EL2" s="6" t="s">
+      <c r="EM2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="EM2" s="6" t="s">
+      <c r="EN2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="EN2" s="6" t="s">
+      <c r="EO2" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="EP2" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="EO2" s="6" t="s">
+      <c r="EQ2" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="EP2" s="6" t="s">
+      <c r="ER2" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="EQ2" s="6" t="s">
+      <c r="ES2" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="ER2" s="6" t="s">
+      <c r="ET2" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="ES2" s="6" t="s">
+      <c r="EU2" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="ET2" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="EU2" s="6" t="s">
+      <c r="EV2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="EV2" s="6" t="s">
+      <c r="EW2" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="EW2" s="6" t="s">
+      <c r="EX2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="EX2" s="6" t="s">
+      <c r="EY2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="EY2" s="6" t="s">
+      <c r="EZ2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="EZ2" s="6" t="s">
+      <c r="FA2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="FA2" s="6" t="s">
+      <c r="FB2" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="FB2" s="6" t="s">
+      <c r="FC2" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="FC2" s="6" t="s">
+      <c r="FD2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="FD2" s="6" t="s">
-        <v>338</v>
-      </c>
       <c r="FE2" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="FF2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="FF2" s="6" t="s">
+      <c r="FG2" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="FG2" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="FH2" s="6"/>
-      <c r="FI2" s="6"/>
-      <c r="FJ2" s="6"/>
+      <c r="FH2" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="FI2" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="FJ2" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="FK2" s="6" t="s">
+        <v>396</v>
+      </c>
     </row>
-    <row r="3" spans="1:166">
+    <row r="3" spans="1:167">
       <c r="A3" s="3" t="s">
-        <v>335</v>
+        <v>410</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>193</v>
@@ -2988,86 +3072,86 @@
         <v>22</v>
       </c>
       <c r="BF3" s="15"/>
-      <c r="BG3" s="1" t="s">
+      <c r="BG3" s="15"/>
+      <c r="BH3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="BI3" s="8" t="s">
+      <c r="BJ3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BM3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BN3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="BQ3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BS3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BT3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="CL3" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="CL3" s="4" t="s">
+      <c r="CM3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CN3" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="CN3" s="4" t="s">
+      <c r="CO3" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="CO3" s="4" t="s">
+      <c r="CP3" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="CP3" s="4"/>
-      <c r="CZ3" s="2"/>
+      <c r="CQ3" s="4"/>
       <c r="DA3" s="2"/>
       <c r="DB3" s="2"/>
       <c r="DC3" s="2"/>
-      <c r="DD3" s="12"/>
-      <c r="DE3" s="2"/>
+      <c r="DD3" s="2"/>
+      <c r="DE3" s="12"/>
       <c r="DF3" s="2"/>
       <c r="DG3" s="2"/>
       <c r="DH3" s="2"/>
       <c r="DI3" s="2"/>
-      <c r="DJ3" s="1" t="s">
+      <c r="DJ3" s="2"/>
+      <c r="DK3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="DK3" s="4" t="s">
+      <c r="DL3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="DL3" s="4"/>
-      <c r="DM3" s="4" t="s">
+      <c r="DM3" s="4"/>
+      <c r="DN3" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="DN3" s="4"/>
-      <c r="DO3" s="2"/>
+      <c r="DO3" s="4"/>
       <c r="DP3" s="2"/>
       <c r="DQ3" s="2"/>
       <c r="DR3" s="2"/>
@@ -3111,19 +3195,26 @@
       <c r="FD3" s="2"/>
       <c r="FE3" s="2"/>
       <c r="FF3" s="2"/>
-      <c r="FG3" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="FH3" s="2"/>
-      <c r="FI3" s="2"/>
-      <c r="FJ3" s="2"/>
+      <c r="FG3" s="2"/>
+      <c r="FH3" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="FI3" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="FJ3" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="FK3" s="2" t="s">
+        <v>398</v>
+      </c>
     </row>
-    <row r="4" spans="1:166">
+    <row r="4" spans="1:167">
       <c r="A4" s="3" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>95</v>
@@ -3221,57 +3312,57 @@
         <v>119</v>
       </c>
       <c r="BF4" s="15"/>
-      <c r="BG4" s="4" t="s">
+      <c r="BG4" s="15"/>
+      <c r="BH4" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BH4" s="4"/>
-      <c r="BI4" s="4" t="s">
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="BJ4" s="4" t="s">
+      <c r="BK4" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="BK4" s="4" t="s">
+      <c r="BL4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="BL4" s="4" t="s">
+      <c r="BM4" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="BM4" s="4" t="s">
+      <c r="BN4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="BN4" s="4" t="s">
+      <c r="BO4" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="BO4" s="4" t="s">
+      <c r="BP4" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BP4" s="4" t="s">
+      <c r="BQ4" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="BQ4" s="4" t="s">
+      <c r="BR4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BR4" s="4" t="s">
+      <c r="BS4" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="BS4" s="15"/>
-      <c r="BT4" s="4" t="s">
+      <c r="BT4" s="15"/>
+      <c r="BU4" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="BU4" s="4" t="s">
+      <c r="BV4" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="BV4" s="4" t="s">
+      <c r="BW4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="BW4" s="4" t="s">
+      <c r="BX4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="BX4" s="4" t="s">
+      <c r="BY4" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BY4" s="4"/>
       <c r="BZ4" s="4"/>
       <c r="CA4" s="4"/>
       <c r="CB4" s="4"/>
@@ -3281,64 +3372,64 @@
       <c r="CF4" s="4"/>
       <c r="CG4" s="4"/>
       <c r="CH4" s="4"/>
-      <c r="CI4" s="4" t="s">
+      <c r="CI4" s="4"/>
+      <c r="CJ4" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="CJ4" s="4"/>
-      <c r="CK4" s="4" t="s">
+      <c r="CK4" s="4"/>
+      <c r="CL4" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="CL4" s="4" t="s">
+      <c r="CM4" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="CM4" s="4" t="s">
+      <c r="CN4" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="CN4" s="4" t="s">
+      <c r="CO4" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="CO4" s="4" t="s">
+      <c r="CP4" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="CP4" s="4" t="s">
+      <c r="CQ4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="CQ4" s="4" t="s">
+      <c r="CR4" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="CR4" s="4"/>
       <c r="CS4" s="4"/>
       <c r="CT4" s="4"/>
       <c r="CU4" s="4"/>
       <c r="CV4" s="4"/>
       <c r="CW4" s="4"/>
       <c r="CX4" s="4"/>
-      <c r="CY4" s="10"/>
-      <c r="CZ4" s="4"/>
+      <c r="CY4" s="4"/>
+      <c r="CZ4" s="10"/>
       <c r="DA4" s="4"/>
       <c r="DB4" s="4"/>
       <c r="DC4" s="4"/>
-      <c r="DD4" s="10"/>
-      <c r="DE4" s="4"/>
+      <c r="DD4" s="4"/>
+      <c r="DE4" s="10"/>
       <c r="DF4" s="4"/>
       <c r="DG4" s="4"/>
       <c r="DH4" s="4"/>
       <c r="DI4" s="4"/>
-      <c r="DJ4" s="11" t="s">
+      <c r="DJ4" s="4"/>
+      <c r="DK4" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="DK4" s="4" t="s">
+      <c r="DL4" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="DL4" s="4"/>
-      <c r="DM4" s="4" t="s">
+      <c r="DM4" s="4"/>
+      <c r="DN4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="DN4" s="4" t="s">
+      <c r="DO4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="DO4" s="11"/>
-      <c r="DP4" s="4"/>
+      <c r="DP4" s="11"/>
       <c r="DQ4" s="4"/>
       <c r="DR4" s="4"/>
       <c r="DS4" s="4"/>
@@ -3381,31 +3472,38 @@
       <c r="FD4" s="4"/>
       <c r="FE4" s="4"/>
       <c r="FF4" s="4"/>
-      <c r="FG4" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="FH4" s="4"/>
-      <c r="FI4" s="4"/>
-      <c r="FJ4" s="4"/>
+      <c r="FG4" s="4"/>
+      <c r="FH4" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="FI4" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="FJ4" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="FK4" s="4" t="s">
+        <v>398</v>
+      </c>
     </row>
-    <row r="5" spans="1:166">
+    <row r="5" spans="1:167">
       <c r="A5" s="3" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>135</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>22</v>
@@ -3491,16 +3589,16 @@
         <v>22</v>
       </c>
       <c r="BF5" s="15"/>
-      <c r="BG5" s="4" t="s">
+      <c r="BG5" s="15"/>
+      <c r="BH5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="BH5" s="4" t="s">
+      <c r="BI5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="BI5" s="4" t="s">
+      <c r="BJ5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="BJ5" s="4"/>
       <c r="BK5" s="4"/>
       <c r="BL5" s="4"/>
       <c r="BM5" s="4"/>
@@ -3509,8 +3607,8 @@
       <c r="BP5" s="4"/>
       <c r="BQ5" s="4"/>
       <c r="BR5" s="4"/>
-      <c r="BS5" s="15"/>
-      <c r="BT5" s="4"/>
+      <c r="BS5" s="4"/>
+      <c r="BT5" s="15"/>
       <c r="BU5" s="4"/>
       <c r="BV5" s="4"/>
       <c r="BW5" s="4"/>
@@ -3546,150 +3644,157 @@
       <c r="DA5" s="4"/>
       <c r="DB5" s="4"/>
       <c r="DC5" s="4"/>
-      <c r="DD5" s="10"/>
-      <c r="DE5" s="4"/>
+      <c r="DD5" s="4"/>
+      <c r="DE5" s="10"/>
       <c r="DF5" s="4"/>
       <c r="DG5" s="4"/>
       <c r="DH5" s="4"/>
       <c r="DI5" s="4"/>
-      <c r="DJ5" s="11" t="s">
+      <c r="DJ5" s="4"/>
+      <c r="DK5" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="DK5" s="4" t="s">
+      <c r="DL5" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="DL5" s="4"/>
-      <c r="DM5" s="4" t="s">
+      <c r="DM5" s="4"/>
+      <c r="DN5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="DN5" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="DO5" s="11" t="s">
+      <c r="DO5" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="DP5" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="DP5" s="4" t="s">
+      <c r="DQ5" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="DQ5" s="4" t="s">
+      <c r="DR5" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="DR5" s="4" t="s">
+      <c r="DS5" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DS5" s="4" t="s">
+      <c r="DT5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="DT5" s="4" t="s">
+      <c r="DU5" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="DU5" s="4" t="s">
+      <c r="DV5" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DV5" s="4" t="s">
+      <c r="DW5" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="DW5" s="4" t="s">
+      <c r="DX5" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="DX5" s="4"/>
-      <c r="DY5" s="4" t="s">
-        <v>337</v>
-      </c>
+      <c r="DY5" s="4"/>
       <c r="DZ5" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="EA5" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="EA5" s="4" t="s">
+      <c r="EB5" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="EB5" s="4" t="s">
+      <c r="EC5" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="EC5" s="4" t="s">
+      <c r="ED5" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="ED5" s="4" t="s">
+      <c r="EE5" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="EE5" s="4" t="s">
+      <c r="EF5" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="EF5" s="4" t="s">
+      <c r="EG5" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="EG5" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="EH5" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="EI5" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="EI5" s="4" t="s">
+      <c r="EJ5" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="EJ5" s="4"/>
       <c r="EK5" s="4"/>
-      <c r="EL5" s="4" t="s">
+      <c r="EL5" s="4"/>
+      <c r="EM5" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="EM5" s="4" t="s">
+      <c r="EN5" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="EN5" s="4"/>
       <c r="EO5" s="4"/>
       <c r="EP5" s="4"/>
       <c r="EQ5" s="4"/>
       <c r="ER5" s="4"/>
       <c r="ES5" s="4"/>
       <c r="ET5" s="4"/>
-      <c r="EU5" s="4" t="s">
+      <c r="EU5" s="4"/>
+      <c r="EV5" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="EV5" s="4" t="s">
+      <c r="EW5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="EW5" s="13">
+      <c r="EX5" s="13">
         <v>20000000</v>
-      </c>
-      <c r="EX5" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="EY5" s="4" t="s">
         <v>193</v>
       </c>
       <c r="EZ5" s="4" t="s">
-        <v>340</v>
+        <v>193</v>
       </c>
       <c r="FA5" s="4" t="s">
         <v>339</v>
       </c>
       <c r="FB5" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="FC5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="FC5" s="4" t="s">
+      <c r="FD5" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="FD5" s="4" t="s">
+      <c r="FE5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="FE5" s="4" t="s">
+      <c r="FF5" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="FF5" s="4" t="s">
-        <v>341</v>
-      </c>
       <c r="FG5" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="FH5" s="4"/>
-      <c r="FI5" s="4"/>
-      <c r="FJ5" s="4"/>
+        <v>340</v>
+      </c>
+      <c r="FH5" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="FI5" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="FJ5" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="FK5" s="4" t="s">
+        <v>398</v>
+      </c>
     </row>
-    <row r="6" spans="1:166">
+    <row r="6" spans="1:167">
       <c r="A6" s="3" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>114</v>
@@ -3787,50 +3892,50 @@
         <v>22</v>
       </c>
       <c r="BF6" s="15"/>
-      <c r="BG6" s="4" t="s">
+      <c r="BG6" s="15"/>
+      <c r="BH6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="BH6" s="4"/>
-      <c r="BI6" s="8" t="s">
+      <c r="BI6" s="4"/>
+      <c r="BJ6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="BJ6" s="8" t="s">
+      <c r="BK6" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="BK6" s="8" t="s">
+      <c r="BL6" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BL6" s="4" t="s">
+      <c r="BM6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BM6" s="4" t="s">
+      <c r="BN6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BN6" s="4" t="s">
+      <c r="BO6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="BO6" s="4" t="s">
+      <c r="BP6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BP6" s="4" t="s">
+      <c r="BQ6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BQ6" s="4" t="s">
+      <c r="BR6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BR6" s="4" t="s">
+      <c r="BS6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="BS6" s="15" t="s">
+      <c r="BT6" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="BT6" s="4" t="s">
+      <c r="BU6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="BU6" s="4" t="s">
+      <c r="BV6" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="BV6" s="4"/>
       <c r="BW6" s="4"/>
       <c r="BX6" s="4"/>
       <c r="BY6" s="4"/>
@@ -3845,25 +3950,25 @@
       <c r="CH6" s="4"/>
       <c r="CI6" s="4"/>
       <c r="CJ6" s="4"/>
-      <c r="CK6" s="4" t="s">
+      <c r="CK6" s="4"/>
+      <c r="CL6" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="CL6" s="4" t="s">
+      <c r="CM6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="CM6" s="4" t="s">
+      <c r="CN6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="CN6" s="4" t="s">
+      <c r="CO6" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="CO6" s="4" t="s">
+      <c r="CP6" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="CP6" s="4" t="s">
+      <c r="CQ6" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="CQ6" s="4"/>
       <c r="CR6" s="4"/>
       <c r="CS6" s="4"/>
       <c r="CT6" s="4"/>
@@ -3871,30 +3976,30 @@
       <c r="CV6" s="4"/>
       <c r="CW6" s="4"/>
       <c r="CX6" s="4"/>
-      <c r="CY6" s="10"/>
-      <c r="CZ6" s="4"/>
+      <c r="CY6" s="4"/>
+      <c r="CZ6" s="10"/>
       <c r="DA6" s="4"/>
       <c r="DB6" s="4"/>
-      <c r="DC6" s="2"/>
-      <c r="DD6" s="12"/>
-      <c r="DE6" s="2"/>
+      <c r="DC6" s="4"/>
+      <c r="DD6" s="2"/>
+      <c r="DE6" s="12"/>
       <c r="DF6" s="2"/>
       <c r="DG6" s="2"/>
       <c r="DH6" s="2"/>
       <c r="DI6" s="2"/>
-      <c r="DJ6" s="11" t="s">
+      <c r="DJ6" s="2"/>
+      <c r="DK6" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="DK6" s="4" t="s">
+      <c r="DL6" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="DL6" s="4"/>
-      <c r="DM6" s="4" t="s">
+      <c r="DM6" s="4"/>
+      <c r="DN6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="DN6" s="4"/>
-      <c r="DO6" s="11"/>
-      <c r="DP6" s="4"/>
+      <c r="DO6" s="4"/>
+      <c r="DP6" s="11"/>
       <c r="DQ6" s="4"/>
       <c r="DR6" s="4"/>
       <c r="DS6" s="4"/>
@@ -3937,19 +4042,26 @@
       <c r="FD6" s="4"/>
       <c r="FE6" s="4"/>
       <c r="FF6" s="4"/>
-      <c r="FG6" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="FH6" s="4"/>
-      <c r="FI6" s="4"/>
-      <c r="FJ6" s="4"/>
+      <c r="FG6" s="4"/>
+      <c r="FH6" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="FI6" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="FJ6" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="FK6" s="4" t="s">
+        <v>398</v>
+      </c>
     </row>
-    <row r="7" spans="1:166">
+    <row r="7" spans="1:167">
       <c r="A7" s="3" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -3961,7 +4073,7 @@
         <v>135</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>22</v>
@@ -3974,7 +4086,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>20</v>
@@ -3983,10 +4095,10 @@
         <v>114</v>
       </c>
       <c r="R7" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="S7" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>289</v>
@@ -4047,16 +4159,16 @@
         <v>22</v>
       </c>
       <c r="BF7" s="15"/>
-      <c r="BG7" s="4" t="s">
+      <c r="BG7" s="15"/>
+      <c r="BH7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="BH7" s="4" t="s">
+      <c r="BI7" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="BI7" s="4" t="s">
+      <c r="BJ7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="BJ7" s="4"/>
       <c r="BK7" s="4"/>
       <c r="BL7" s="4"/>
       <c r="BM7" s="4"/>
@@ -4065,8 +4177,8 @@
       <c r="BP7" s="4"/>
       <c r="BQ7" s="4"/>
       <c r="BR7" s="4"/>
-      <c r="BS7" s="15"/>
-      <c r="BT7" s="4"/>
+      <c r="BS7" s="4"/>
+      <c r="BT7" s="15"/>
       <c r="BU7" s="4"/>
       <c r="BV7" s="4"/>
       <c r="BW7" s="4"/>
@@ -4102,160 +4214,167 @@
       <c r="DA7" s="4"/>
       <c r="DB7" s="4"/>
       <c r="DC7" s="4"/>
-      <c r="DD7" s="10"/>
-      <c r="DE7" s="4"/>
+      <c r="DD7" s="4"/>
+      <c r="DE7" s="10"/>
       <c r="DF7" s="4"/>
       <c r="DG7" s="4"/>
       <c r="DH7" s="4"/>
       <c r="DI7" s="4"/>
-      <c r="DJ7" s="11" t="s">
+      <c r="DJ7" s="4"/>
+      <c r="DK7" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="DK7" s="4" t="s">
+      <c r="DL7" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="DL7" s="4"/>
-      <c r="DM7" s="4" t="s">
+      <c r="DM7" s="4"/>
+      <c r="DN7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="DN7" s="4"/>
-      <c r="DO7" s="11" t="s">
+      <c r="DO7" s="4"/>
+      <c r="DP7" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="DP7" s="4" t="s">
+      <c r="DQ7" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="DQ7" s="4" t="s">
+      <c r="DR7" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="DR7" s="4" t="s">
+      <c r="DS7" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="DT7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="DU7" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="DS7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="DT7" s="4" t="s">
+      <c r="DV7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="DW7" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="DX7" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="DY7" s="4"/>
+      <c r="DZ7" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="EA7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="EB7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="EC7" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="ED7" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="EE7" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="EF7" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="EG7" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="EH7" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="EI7" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="EJ7" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="DU7" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="DV7" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="DW7" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="DX7" s="4"/>
-      <c r="DY7" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="DZ7" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="EA7" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="EB7" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="EC7" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="ED7" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="EE7" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="EF7" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="EG7" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="EH7" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="EI7" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="EJ7" s="4"/>
       <c r="EK7" s="4"/>
-      <c r="EL7" s="4" t="s">
+      <c r="EL7" s="4"/>
+      <c r="EM7" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="EM7" s="4" t="s">
+      <c r="EN7" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="EN7" s="4"/>
       <c r="EO7" s="4"/>
       <c r="EP7" s="4"/>
       <c r="EQ7" s="4"/>
       <c r="ER7" s="4"/>
       <c r="ES7" s="4"/>
       <c r="ET7" s="4"/>
-      <c r="EU7" s="4" t="s">
+      <c r="EU7" s="4"/>
+      <c r="EV7" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="EW7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="EX7" s="13">
+        <v>20000000</v>
+      </c>
+      <c r="EY7" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="EV7" s="4" t="s">
+      <c r="EZ7" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="FA7" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="FB7" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="FC7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="EW7" s="13">
-        <v>20000000</v>
-      </c>
-      <c r="EX7" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="EY7" s="4" t="s">
+      <c r="FD7" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="FE7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="FF7" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="EZ7" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="FA7" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="FB7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="FC7" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="FD7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="FE7" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="FF7" s="4" t="s">
-        <v>341</v>
-      </c>
       <c r="FG7" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="FH7" s="4"/>
-      <c r="FI7" s="4"/>
-      <c r="FJ7" s="4"/>
+        <v>340</v>
+      </c>
+      <c r="FH7" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="FI7" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="FJ7" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="FK7" s="4" t="s">
+        <v>398</v>
+      </c>
     </row>
-    <row r="8" spans="1:166">
+    <row r="8" spans="1:167">
       <c r="A8" s="3" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>135</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>22</v>
@@ -4268,7 +4387,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>20</v>
@@ -4277,10 +4396,10 @@
         <v>114</v>
       </c>
       <c r="R8" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="S8" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>289</v>
@@ -4336,7 +4455,7 @@
       </c>
       <c r="BB8" s="4"/>
       <c r="BC8" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BD8" s="4" t="s">
         <v>181</v>
@@ -4345,16 +4464,16 @@
         <v>22</v>
       </c>
       <c r="BF8" s="15"/>
-      <c r="BG8" s="4" t="s">
+      <c r="BG8" s="15"/>
+      <c r="BH8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="BH8" s="4" t="s">
+      <c r="BI8" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="BI8" s="4" t="s">
+      <c r="BJ8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="BJ8" s="4"/>
       <c r="BK8" s="4"/>
       <c r="BL8" s="4"/>
       <c r="BM8" s="4"/>
@@ -4363,8 +4482,8 @@
       <c r="BP8" s="4"/>
       <c r="BQ8" s="4"/>
       <c r="BR8" s="4"/>
-      <c r="BS8" s="15"/>
-      <c r="BT8" s="4"/>
+      <c r="BS8" s="4"/>
+      <c r="BT8" s="15"/>
       <c r="BU8" s="4"/>
       <c r="BV8" s="4"/>
       <c r="BW8" s="4"/>
@@ -4400,152 +4519,159 @@
       <c r="DA8" s="4"/>
       <c r="DB8" s="4"/>
       <c r="DC8" s="4"/>
-      <c r="DD8" s="10"/>
-      <c r="DE8" s="4"/>
+      <c r="DD8" s="4"/>
+      <c r="DE8" s="10"/>
       <c r="DF8" s="4"/>
       <c r="DG8" s="4"/>
       <c r="DH8" s="4"/>
       <c r="DI8" s="4"/>
-      <c r="DJ8" s="11" t="s">
+      <c r="DJ8" s="4"/>
+      <c r="DK8" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="DK8" s="4" t="s">
+      <c r="DL8" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="DL8" s="4" t="s">
+      <c r="DM8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="DM8" s="4" t="s">
+      <c r="DN8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="DN8" s="4"/>
-      <c r="DO8" s="11" t="s">
+      <c r="DO8" s="4"/>
+      <c r="DP8" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="DP8" s="4" t="s">
+      <c r="DQ8" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="DQ8" s="4" t="s">
+      <c r="DR8" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="DR8" s="4" t="s">
+      <c r="DS8" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="DT8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="DU8" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="DS8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="DT8" s="4" t="s">
+      <c r="DV8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="DW8" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="DU8" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="DV8" s="4" t="s">
+      <c r="DX8" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="DW8" s="4" t="s">
+      <c r="DY8" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="DX8" s="4" t="s">
+      <c r="DZ8" s="4"/>
+      <c r="EA8" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="DY8" s="4"/>
-      <c r="DZ8" s="4" t="s">
+      <c r="EB8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="EC8" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="ED8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="EE8" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="EF8" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="EG8" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="EH8" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="EI8" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="EJ8" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="EA8" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="EB8" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="EC8" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="ED8" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="EE8" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="EF8" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="EG8" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="EH8" s="4" t="s">
+      <c r="EK8" s="4"/>
+      <c r="EL8" s="4"/>
+      <c r="EM8" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="EN8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="EO8" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="EP8" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="EI8" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="EJ8" s="4"/>
-      <c r="EK8" s="4"/>
-      <c r="EL8" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="EM8" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="EN8" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="EO8" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="EP8" s="4" t="s">
+      <c r="EQ8" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="ER8" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="EQ8" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="ER8" s="4" t="s">
-        <v>383</v>
       </c>
       <c r="ES8" s="4" t="s">
         <v>382</v>
       </c>
       <c r="ET8" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="EU8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="EU8" s="4" t="s">
-        <v>386</v>
-      </c>
       <c r="EV8" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="EW8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="EW8" s="13">
+      <c r="EX8" s="13">
         <v>20000000</v>
       </c>
-      <c r="EX8" s="4" t="s">
+      <c r="EY8" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="EZ8" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="FA8" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="EY8" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="EZ8" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="FA8" s="4"/>
       <c r="FB8" s="4"/>
       <c r="FC8" s="4"/>
       <c r="FD8" s="4"/>
       <c r="FE8" s="4"/>
       <c r="FF8" s="4"/>
-      <c r="FG8" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="FH8" s="4"/>
-      <c r="FI8" s="4"/>
-      <c r="FJ8" s="4"/>
+      <c r="FG8" s="4"/>
+      <c r="FH8" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="FI8" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="FJ8" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="FK8" s="4" t="s">
+        <v>398</v>
+      </c>
     </row>
-    <row r="9" spans="1:166">
+    <row r="9" spans="1:167">
       <c r="A9" s="3" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>95</v>
@@ -4645,48 +4771,48 @@
       <c r="BF9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="BG9" s="4" t="s">
+      <c r="BG9" s="15"/>
+      <c r="BH9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="BH9" s="4"/>
-      <c r="BI9" s="8" t="s">
+      <c r="BI9" s="4"/>
+      <c r="BJ9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="BJ9" s="8" t="s">
+      <c r="BK9" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="BK9" s="8" t="s">
+      <c r="BL9" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BL9" s="4" t="s">
+      <c r="BM9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BM9" s="4" t="s">
+      <c r="BN9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BN9" s="4" t="s">
+      <c r="BO9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="BO9" s="4" t="s">
+      <c r="BP9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BP9" s="4" t="s">
+      <c r="BQ9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BQ9" s="4" t="s">
+      <c r="BR9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BR9" s="4" t="s">
+      <c r="BS9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="BS9" s="15"/>
-      <c r="BT9" s="4" t="s">
+      <c r="BT9" s="15"/>
+      <c r="BU9" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="BU9" s="4" t="s">
+      <c r="BV9" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="BV9" s="4"/>
       <c r="BW9" s="4"/>
       <c r="BX9" s="4"/>
       <c r="BY9" s="4"/>
@@ -4699,84 +4825,84 @@
       <c r="CF9" s="4"/>
       <c r="CG9" s="4"/>
       <c r="CH9" s="4"/>
-      <c r="CI9" s="4" t="s">
+      <c r="CI9" s="4"/>
+      <c r="CJ9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="CJ9" s="4"/>
-      <c r="CK9" s="4" t="s">
+      <c r="CK9" s="4"/>
+      <c r="CL9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CL9" s="4" t="s">
+      <c r="CM9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="CM9" s="4" t="s">
+      <c r="CN9" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="CN9" s="4" t="s">
+      <c r="CO9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="CO9" s="4" t="s">
+      <c r="CP9" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="CP9" s="4" t="s">
+      <c r="CQ9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CQ9" s="4" t="s">
+      <c r="CR9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="CR9" s="4" t="s">
+      <c r="CS9" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="CS9" s="4" t="s">
+      <c r="CT9" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="CT9" s="4" t="s">
+      <c r="CU9" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="CU9" s="4" t="s">
+      <c r="CV9" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="CV9" s="4"/>
-      <c r="CW9" s="4" t="s">
+      <c r="CW9" s="4"/>
+      <c r="CX9" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="CX9" s="4" t="s">
+      <c r="CY9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="CY9" s="10" t="s">
+      <c r="CZ9" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="CZ9" s="4" t="s">
+      <c r="DA9" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="DA9" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="DB9" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="DC9" s="2" t="s">
+      <c r="DC9" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DD9" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="DD9" s="12"/>
-      <c r="DE9" s="2"/>
+      <c r="DE9" s="12"/>
       <c r="DF9" s="2"/>
       <c r="DG9" s="2"/>
       <c r="DH9" s="2"/>
       <c r="DI9" s="2"/>
-      <c r="DJ9" s="11" t="s">
+      <c r="DJ9" s="2"/>
+      <c r="DK9" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="DK9" s="4" t="s">
+      <c r="DL9" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="DL9" s="4"/>
-      <c r="DM9" s="4" t="s">
+      <c r="DM9" s="4"/>
+      <c r="DN9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="DN9" s="4"/>
-      <c r="DO9" s="11"/>
-      <c r="DP9" s="4"/>
+      <c r="DO9" s="4"/>
+      <c r="DP9" s="11"/>
       <c r="DQ9" s="4"/>
       <c r="DR9" s="4"/>
       <c r="DS9" s="4"/>
@@ -4819,19 +4945,26 @@
       <c r="FD9" s="4"/>
       <c r="FE9" s="4"/>
       <c r="FF9" s="4"/>
-      <c r="FG9" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="FH9" s="4"/>
-      <c r="FI9" s="4"/>
-      <c r="FJ9" s="4"/>
+      <c r="FG9" s="4"/>
+      <c r="FH9" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="FI9" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="FJ9" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="FK9" s="4" t="s">
+        <v>398</v>
+      </c>
     </row>
-    <row r="10" spans="1:166">
+    <row r="10" spans="1:167">
       <c r="A10" s="3" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>285</v>
@@ -4931,45 +5064,45 @@
       <c r="BF10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="BG10" s="4" t="s">
+      <c r="BG10" s="15"/>
+      <c r="BH10" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="BH10" s="4" t="s">
+      <c r="BI10" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="BI10" s="8" t="s">
+      <c r="BJ10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="BJ10" s="4" t="s">
+      <c r="BK10" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BK10" s="4" t="s">
+      <c r="BL10" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="BL10" s="4" t="s">
+      <c r="BM10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BM10" s="4" t="s">
+      <c r="BN10" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="BN10" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="BO10" s="4" t="s">
         <v>296</v>
       </c>
       <c r="BP10" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="BQ10" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="BQ10" s="4" t="s">
+      <c r="BR10" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="BR10" s="4"/>
-      <c r="BS10" s="15"/>
-      <c r="BT10" s="4" t="s">
+      <c r="BS10" s="4"/>
+      <c r="BT10" s="15"/>
+      <c r="BU10" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="BU10" s="4"/>
       <c r="BV10" s="4"/>
       <c r="BW10" s="4"/>
       <c r="BX10" s="4"/>
@@ -4983,29 +5116,29 @@
       <c r="CF10" s="4"/>
       <c r="CG10" s="4"/>
       <c r="CH10" s="4"/>
-      <c r="CI10" s="4" t="s">
+      <c r="CI10" s="4"/>
+      <c r="CJ10" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="CJ10" s="4"/>
-      <c r="CK10" s="4" t="s">
+      <c r="CK10" s="4"/>
+      <c r="CL10" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="CL10" s="4" t="s">
+      <c r="CM10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="4" t="s">
+      <c r="CN10" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="CN10" s="4" t="s">
+      <c r="CO10" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="CO10" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="CP10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="4"/>
+      <c r="CQ10" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="CR10" s="4"/>
       <c r="CS10" s="4"/>
       <c r="CT10" s="4"/>
@@ -5013,30 +5146,30 @@
       <c r="CV10" s="4"/>
       <c r="CW10" s="4"/>
       <c r="CX10" s="4"/>
-      <c r="CY10" s="10"/>
-      <c r="CZ10" s="4"/>
+      <c r="CY10" s="4"/>
+      <c r="CZ10" s="10"/>
       <c r="DA10" s="4"/>
       <c r="DB10" s="4"/>
-      <c r="DC10" s="2"/>
-      <c r="DD10" s="12"/>
-      <c r="DE10" s="2"/>
+      <c r="DC10" s="4"/>
+      <c r="DD10" s="2"/>
+      <c r="DE10" s="12"/>
       <c r="DF10" s="2"/>
       <c r="DG10" s="2"/>
       <c r="DH10" s="2"/>
       <c r="DI10" s="2"/>
-      <c r="DJ10" s="11" t="s">
+      <c r="DJ10" s="2"/>
+      <c r="DK10" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="DK10" s="4" t="s">
+      <c r="DL10" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="DL10" s="4"/>
-      <c r="DM10" s="4" t="s">
+      <c r="DM10" s="4"/>
+      <c r="DN10" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="DN10" s="4"/>
-      <c r="DO10" s="11"/>
-      <c r="DP10" s="4"/>
+      <c r="DO10" s="4"/>
+      <c r="DP10" s="11"/>
       <c r="DQ10" s="4"/>
       <c r="DR10" s="4"/>
       <c r="DS10" s="4"/>
@@ -5079,19 +5212,26 @@
       <c r="FD10" s="4"/>
       <c r="FE10" s="4"/>
       <c r="FF10" s="4"/>
-      <c r="FG10" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="FH10" s="4"/>
-      <c r="FI10" s="4"/>
-      <c r="FJ10" s="4"/>
+      <c r="FG10" s="4"/>
+      <c r="FH10" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="FI10" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="FJ10" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="FK10" s="4" t="s">
+        <v>398</v>
+      </c>
     </row>
-    <row r="11" spans="1:166">
+    <row r="11" spans="1:167">
       <c r="A11" s="3" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>224</v>
@@ -5191,50 +5331,50 @@
       <c r="BF11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="BG11" s="4" t="s">
+      <c r="BG11" s="15"/>
+      <c r="BH11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="BH11" s="4"/>
-      <c r="BI11" s="8" t="s">
+      <c r="BI11" s="4"/>
+      <c r="BJ11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="BJ11" s="8" t="s">
+      <c r="BK11" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="BK11" s="8" t="s">
+      <c r="BL11" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BL11" s="4" t="s">
+      <c r="BM11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BM11" s="4" t="s">
+      <c r="BN11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BN11" s="4" t="s">
+      <c r="BO11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="BO11" s="4" t="s">
+      <c r="BP11" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BP11" s="4" t="s">
+      <c r="BQ11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BQ11" s="4" t="s">
+      <c r="BR11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BR11" s="4" t="s">
+      <c r="BS11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="BS11" s="15" t="s">
+      <c r="BT11" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="BT11" s="4" t="s">
+      <c r="BU11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="BU11" s="4" t="s">
+      <c r="BV11" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="BV11" s="4"/>
       <c r="BW11" s="4"/>
       <c r="BX11" s="4"/>
       <c r="BY11" s="4"/>
@@ -5247,64 +5387,64 @@
       <c r="CF11" s="4"/>
       <c r="CG11" s="4"/>
       <c r="CH11" s="4"/>
-      <c r="CI11" s="4" t="s">
+      <c r="CI11" s="4"/>
+      <c r="CJ11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="CJ11" s="4" t="s">
+      <c r="CK11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="CK11" s="4" t="s">
+      <c r="CL11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CL11" s="4" t="s">
+      <c r="CM11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="CM11" s="4" t="s">
+      <c r="CN11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="CN11" s="4" t="s">
+      <c r="CO11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="CO11" s="4" t="s">
+      <c r="CP11" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="CP11" s="4" t="s">
+      <c r="CQ11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CQ11" s="4" t="s">
+      <c r="CR11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="CR11" s="4"/>
       <c r="CS11" s="4"/>
       <c r="CT11" s="4"/>
       <c r="CU11" s="4"/>
       <c r="CV11" s="4"/>
       <c r="CW11" s="4"/>
       <c r="CX11" s="4"/>
-      <c r="CY11" s="10"/>
-      <c r="CZ11" s="4"/>
+      <c r="CY11" s="4"/>
+      <c r="CZ11" s="10"/>
       <c r="DA11" s="4"/>
       <c r="DB11" s="4"/>
-      <c r="DC11" s="2"/>
-      <c r="DD11" s="12"/>
-      <c r="DE11" s="2"/>
+      <c r="DC11" s="4"/>
+      <c r="DD11" s="2"/>
+      <c r="DE11" s="12"/>
       <c r="DF11" s="2"/>
       <c r="DG11" s="2"/>
       <c r="DH11" s="2"/>
       <c r="DI11" s="2"/>
-      <c r="DJ11" s="11" t="s">
+      <c r="DJ11" s="2"/>
+      <c r="DK11" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="DK11" s="4" t="s">
+      <c r="DL11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="DL11" s="4"/>
-      <c r="DM11" s="4" t="s">
+      <c r="DM11" s="4"/>
+      <c r="DN11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="DN11" s="4"/>
-      <c r="DO11" s="11"/>
-      <c r="DP11" s="4"/>
+      <c r="DO11" s="4"/>
+      <c r="DP11" s="11"/>
       <c r="DQ11" s="4"/>
       <c r="DR11" s="4"/>
       <c r="DS11" s="4"/>
@@ -5347,19 +5487,26 @@
       <c r="FD11" s="4"/>
       <c r="FE11" s="4"/>
       <c r="FF11" s="4"/>
-      <c r="FG11" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="FH11" s="4"/>
-      <c r="FI11" s="4"/>
-      <c r="FJ11" s="4"/>
+      <c r="FG11" s="4"/>
+      <c r="FH11" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="FI11" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="FJ11" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="FK11" s="4" t="s">
+        <v>398</v>
+      </c>
     </row>
-    <row r="12" spans="1:166">
+    <row r="12" spans="1:167">
       <c r="A12" s="3" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>95</v>
@@ -5457,130 +5604,130 @@
         <v>119</v>
       </c>
       <c r="BF12" s="15"/>
-      <c r="BG12" s="4" t="s">
+      <c r="BG12" s="15"/>
+      <c r="BH12" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BH12" s="4" t="s">
+      <c r="BI12" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="BI12" s="4" t="s">
+      <c r="BJ12" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="BJ12" s="4" t="s">
+      <c r="BK12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="BK12" s="4" t="s">
+      <c r="BL12" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="BL12" s="4" t="s">
+      <c r="BM12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="BM12" s="4" t="s">
+      <c r="BN12" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="BN12" s="4" t="s">
+      <c r="BO12" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="BO12" s="4" t="s">
+      <c r="BP12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BP12" s="4" t="s">
+      <c r="BQ12" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="BQ12" s="4" t="s">
+      <c r="BR12" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BR12" s="4"/>
-      <c r="BS12" s="15"/>
-      <c r="BT12" s="4"/>
+      <c r="BS12" s="4"/>
+      <c r="BT12" s="15"/>
       <c r="BU12" s="4"/>
       <c r="BV12" s="4"/>
       <c r="BW12" s="4"/>
       <c r="BX12" s="4"/>
-      <c r="BY12" s="4" t="s">
+      <c r="BY12" s="4"/>
+      <c r="BZ12" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="BZ12" s="4" t="s">
+      <c r="CA12" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="CA12" s="4" t="s">
+      <c r="CB12" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="CB12" s="4" t="s">
+      <c r="CC12" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="CC12" s="4" t="s">
+      <c r="CD12" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="CD12" s="4" t="s">
+      <c r="CE12" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CE12" s="4" t="s">
+      <c r="CF12" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="CF12" s="4" t="s">
+      <c r="CG12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="CG12" s="4" t="s">
+      <c r="CH12" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="CH12" s="4"/>
-      <c r="CI12" s="4" t="s">
+      <c r="CI12" s="4"/>
+      <c r="CJ12" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="CJ12" s="4"/>
-      <c r="CK12" s="4" t="s">
+      <c r="CK12" s="4"/>
+      <c r="CL12" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="CL12" s="4" t="s">
+      <c r="CM12" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="CM12" s="4" t="s">
+      <c r="CN12" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="CN12" s="4" t="s">
+      <c r="CO12" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="CO12" s="4" t="s">
+      <c r="CP12" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="CP12" s="4" t="s">
+      <c r="CQ12" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="CQ12" s="4" t="s">
+      <c r="CR12" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="CR12" s="4"/>
       <c r="CS12" s="4"/>
       <c r="CT12" s="4"/>
       <c r="CU12" s="4"/>
       <c r="CV12" s="4"/>
       <c r="CW12" s="4"/>
       <c r="CX12" s="4"/>
-      <c r="CY12" s="10"/>
-      <c r="CZ12" s="4"/>
+      <c r="CY12" s="4"/>
+      <c r="CZ12" s="10"/>
       <c r="DA12" s="4"/>
       <c r="DB12" s="4"/>
       <c r="DC12" s="4"/>
-      <c r="DD12" s="10"/>
-      <c r="DE12" s="4"/>
+      <c r="DD12" s="4"/>
+      <c r="DE12" s="10"/>
       <c r="DF12" s="4"/>
       <c r="DG12" s="4"/>
       <c r="DH12" s="4"/>
       <c r="DI12" s="4"/>
-      <c r="DJ12" s="11" t="s">
+      <c r="DJ12" s="4"/>
+      <c r="DK12" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="DK12" s="4" t="s">
+      <c r="DL12" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="DL12" s="4"/>
-      <c r="DM12" s="4" t="s">
+      <c r="DM12" s="4"/>
+      <c r="DN12" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="DN12" s="4"/>
-      <c r="DO12" s="11"/>
-      <c r="DP12" s="4"/>
+      <c r="DO12" s="4"/>
+      <c r="DP12" s="11"/>
       <c r="DQ12" s="4"/>
       <c r="DR12" s="4"/>
       <c r="DS12" s="4"/>
@@ -5623,19 +5770,26 @@
       <c r="FD12" s="4"/>
       <c r="FE12" s="4"/>
       <c r="FF12" s="4"/>
-      <c r="FG12" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="FH12" s="4"/>
-      <c r="FI12" s="4"/>
-      <c r="FJ12" s="4"/>
+      <c r="FG12" s="4"/>
+      <c r="FH12" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="FI12" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="FJ12" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="FK12" s="4" t="s">
+        <v>398</v>
+      </c>
     </row>
-    <row r="13" spans="1:166">
+    <row r="13" spans="1:167">
       <c r="A13" s="3" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>279</v>
@@ -5735,45 +5889,45 @@
         <v>22</v>
       </c>
       <c r="BF13" s="15"/>
-      <c r="BG13" s="4" t="s">
+      <c r="BG13" s="15"/>
+      <c r="BH13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="BH13" s="4" t="s">
+      <c r="BI13" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="BI13" s="8" t="s">
+      <c r="BJ13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="BJ13" s="4" t="s">
+      <c r="BK13" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BK13" s="4" t="s">
+      <c r="BL13" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="BL13" s="4" t="s">
+      <c r="BM13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BM13" s="4" t="s">
+      <c r="BN13" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="BN13" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="BO13" s="4" t="s">
         <v>296</v>
       </c>
       <c r="BP13" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="BQ13" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="BQ13" s="4" t="s">
+      <c r="BR13" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="BR13" s="4"/>
-      <c r="BS13" s="15"/>
-      <c r="BT13" s="4" t="s">
+      <c r="BS13" s="4"/>
+      <c r="BT13" s="15"/>
+      <c r="BU13" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="BU13" s="4"/>
       <c r="BV13" s="4"/>
       <c r="BW13" s="4"/>
       <c r="BX13" s="4"/>
@@ -5787,26 +5941,26 @@
       <c r="CF13" s="4"/>
       <c r="CG13" s="4"/>
       <c r="CH13" s="4"/>
-      <c r="CI13" s="4" t="s">
+      <c r="CI13" s="4"/>
+      <c r="CJ13" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="CJ13" s="4"/>
-      <c r="CK13" s="4" t="s">
+      <c r="CK13" s="4"/>
+      <c r="CL13" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="CL13" s="4" t="s">
+      <c r="CM13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="CM13" s="4" t="s">
+      <c r="CN13" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="CN13" s="4" t="s">
+      <c r="CO13" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="CO13" s="4" t="s">
+      <c r="CP13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="CP13" s="4"/>
       <c r="CQ13" s="4"/>
       <c r="CR13" s="4"/>
       <c r="CS13" s="4"/>
@@ -5815,30 +5969,30 @@
       <c r="CV13" s="4"/>
       <c r="CW13" s="4"/>
       <c r="CX13" s="4"/>
-      <c r="CY13" s="10"/>
-      <c r="CZ13" s="4"/>
+      <c r="CY13" s="4"/>
+      <c r="CZ13" s="10"/>
       <c r="DA13" s="4"/>
       <c r="DB13" s="4"/>
-      <c r="DC13" s="2"/>
-      <c r="DD13" s="12"/>
-      <c r="DE13" s="2"/>
+      <c r="DC13" s="4"/>
+      <c r="DD13" s="2"/>
+      <c r="DE13" s="12"/>
       <c r="DF13" s="2"/>
       <c r="DG13" s="2"/>
       <c r="DH13" s="2"/>
       <c r="DI13" s="2"/>
-      <c r="DJ13" s="11" t="s">
+      <c r="DJ13" s="2"/>
+      <c r="DK13" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="DK13" s="4" t="s">
+      <c r="DL13" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="DL13" s="4"/>
-      <c r="DM13" s="4" t="s">
+      <c r="DM13" s="4"/>
+      <c r="DN13" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="DN13" s="4"/>
-      <c r="DO13" s="11"/>
-      <c r="DP13" s="4"/>
+      <c r="DO13" s="4"/>
+      <c r="DP13" s="11"/>
       <c r="DQ13" s="4"/>
       <c r="DR13" s="4"/>
       <c r="DS13" s="4"/>
@@ -5881,19 +6035,26 @@
       <c r="FD13" s="4"/>
       <c r="FE13" s="4"/>
       <c r="FF13" s="4"/>
-      <c r="FG13" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="FH13" s="4"/>
-      <c r="FI13" s="4"/>
-      <c r="FJ13" s="4"/>
+      <c r="FG13" s="4"/>
+      <c r="FH13" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="FI13" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="FJ13" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="FK13" s="4" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="14" spans="1:166">
+    <row r="14" spans="1:167">
       <c r="A14" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -5991,48 +6152,48 @@
         <v>7</v>
       </c>
       <c r="BF14" s="15"/>
-      <c r="BG14" s="4" t="s">
+      <c r="BG14" s="15"/>
+      <c r="BH14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="BH14" s="4"/>
-      <c r="BI14" s="8" t="s">
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="BJ14" s="8" t="s">
+      <c r="BK14" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="BK14" s="8" t="s">
+      <c r="BL14" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BL14" s="4" t="s">
+      <c r="BM14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BM14" s="4" t="s">
+      <c r="BN14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BN14" s="4" t="s">
+      <c r="BO14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="BO14" s="4" t="s">
+      <c r="BP14" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BP14" s="4" t="s">
+      <c r="BQ14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BQ14" s="4" t="s">
+      <c r="BR14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BR14" s="4" t="s">
+      <c r="BS14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="BS14" s="15"/>
-      <c r="BT14" s="4" t="s">
+      <c r="BT14" s="15"/>
+      <c r="BU14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="BU14" s="4" t="s">
+      <c r="BV14" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="BV14" s="4"/>
       <c r="BW14" s="4"/>
       <c r="BX14" s="4"/>
       <c r="BY14" s="4"/>
@@ -6045,98 +6206,98 @@
       <c r="CF14" s="4"/>
       <c r="CG14" s="4"/>
       <c r="CH14" s="4"/>
-      <c r="CI14" s="4" t="s">
+      <c r="CI14" s="4"/>
+      <c r="CJ14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="CJ14" s="4" t="s">
+      <c r="CK14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="CK14" s="4" t="s">
+      <c r="CL14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CL14" s="4" t="s">
+      <c r="CM14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="CM14" s="4" t="s">
+      <c r="CN14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="CN14" s="4" t="s">
+      <c r="CO14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="CO14" s="4" t="s">
+      <c r="CP14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="CP14" s="4" t="s">
+      <c r="CQ14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CQ14" s="4" t="s">
+      <c r="CR14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="CR14" s="4" t="s">
+      <c r="CS14" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="CS14" s="4" t="s">
+      <c r="CT14" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="CT14" s="4" t="s">
+      <c r="CU14" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="CU14" s="4" t="s">
+      <c r="CV14" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="CV14" s="4"/>
-      <c r="CW14" s="4" t="s">
+      <c r="CW14" s="4"/>
+      <c r="CX14" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="CX14" s="4" t="s">
+      <c r="CY14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="CY14" s="4" t="s">
+      <c r="CZ14" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="CZ14" s="8" t="s">
+      <c r="DA14" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="DA14" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="DB14" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="DC14" s="1" t="s">
+      <c r="DC14" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="DD14" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="DD14" s="1" t="s">
+      <c r="DE14" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="DE14" s="2" t="s">
+      <c r="DF14" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DF14" s="2" t="s">
+      <c r="DG14" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="DG14" s="2" t="s">
+      <c r="DH14" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="DH14" s="2" t="s">
+      <c r="DI14" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="DI14" s="2" t="s">
+      <c r="DJ14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="DJ14" s="11" t="s">
+      <c r="DK14" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="DK14" s="4" t="s">
+      <c r="DL14" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="DL14" s="4"/>
-      <c r="DM14" s="4" t="s">
+      <c r="DM14" s="4"/>
+      <c r="DN14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="DN14" s="4"/>
-      <c r="DO14" s="11"/>
-      <c r="DP14" s="4"/>
+      <c r="DO14" s="4"/>
+      <c r="DP14" s="11"/>
       <c r="DQ14" s="4"/>
       <c r="DR14" s="4"/>
       <c r="DS14" s="4"/>
@@ -6179,19 +6340,20 @@
       <c r="FD14" s="4"/>
       <c r="FE14" s="4"/>
       <c r="FF14" s="4"/>
-      <c r="FG14" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="FH14" s="4"/>
+      <c r="FG14" s="4"/>
+      <c r="FH14" s="4" t="s">
+        <v>390</v>
+      </c>
       <c r="FI14" s="4"/>
       <c r="FJ14" s="4"/>
+      <c r="FK14" s="4"/>
     </row>
-    <row r="15" spans="1:166">
+    <row r="15" spans="1:167">
       <c r="A15" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -6216,7 +6378,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>20</v>
@@ -6289,48 +6451,48 @@
         <v>7</v>
       </c>
       <c r="BF15" s="15"/>
-      <c r="BG15" s="4" t="s">
+      <c r="BG15" s="15"/>
+      <c r="BH15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="BH15" s="4"/>
-      <c r="BI15" s="8" t="s">
+      <c r="BI15" s="4"/>
+      <c r="BJ15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="BJ15" s="8" t="s">
+      <c r="BK15" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="BK15" s="8" t="s">
+      <c r="BL15" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BL15" s="4" t="s">
+      <c r="BM15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BM15" s="4" t="s">
+      <c r="BN15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BN15" s="4" t="s">
+      <c r="BO15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="BO15" s="4" t="s">
+      <c r="BP15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BP15" s="4" t="s">
+      <c r="BQ15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BQ15" s="4" t="s">
+      <c r="BR15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BR15" s="4" t="s">
+      <c r="BS15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="BS15" s="15"/>
-      <c r="BT15" s="4" t="s">
+      <c r="BT15" s="15"/>
+      <c r="BU15" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="BU15" s="4" t="s">
+      <c r="BV15" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="BV15" s="4"/>
       <c r="BW15" s="4"/>
       <c r="BX15" s="4"/>
       <c r="BY15" s="4"/>
@@ -6343,74 +6505,74 @@
       <c r="CF15" s="4"/>
       <c r="CG15" s="4"/>
       <c r="CH15" s="4"/>
-      <c r="CI15" s="4" t="s">
+      <c r="CI15" s="4"/>
+      <c r="CJ15" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="CJ15" s="4"/>
-      <c r="CK15" s="4" t="s">
+      <c r="CK15" s="4"/>
+      <c r="CL15" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CL15" s="4" t="s">
+      <c r="CM15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="CM15" s="4" t="s">
+      <c r="CN15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="CN15" s="4" t="s">
+      <c r="CO15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="CO15" s="4" t="s">
+      <c r="CP15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="CP15" s="4" t="s">
+      <c r="CQ15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CQ15" s="4" t="s">
+      <c r="CR15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="CR15" s="4"/>
       <c r="CS15" s="4"/>
       <c r="CT15" s="4"/>
       <c r="CU15" s="4"/>
       <c r="CV15" s="4"/>
       <c r="CW15" s="4"/>
       <c r="CX15" s="4"/>
-      <c r="CY15" s="10"/>
-      <c r="CZ15" s="4"/>
+      <c r="CY15" s="4"/>
+      <c r="CZ15" s="10"/>
       <c r="DA15" s="4"/>
       <c r="DB15" s="4"/>
-      <c r="DC15" s="2"/>
-      <c r="DD15" s="12" t="s">
+      <c r="DC15" s="4"/>
+      <c r="DD15" s="2"/>
+      <c r="DE15" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="DE15" s="2" t="s">
+      <c r="DF15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DF15" s="2" t="s">
+      <c r="DG15" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="DG15" s="2" t="s">
+      <c r="DH15" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="DH15" s="2" t="s">
+      <c r="DI15" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="DI15" s="2" t="s">
+      <c r="DJ15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="DJ15" s="11" t="s">
+      <c r="DK15" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="DK15" s="4" t="s">
+      <c r="DL15" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="DL15" s="4"/>
-      <c r="DM15" s="4" t="s">
+      <c r="DM15" s="4"/>
+      <c r="DN15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="DN15" s="4"/>
-      <c r="DO15" s="11"/>
-      <c r="DP15" s="4"/>
+      <c r="DO15" s="4"/>
+      <c r="DP15" s="11"/>
       <c r="DQ15" s="4"/>
       <c r="DR15" s="4"/>
       <c r="DS15" s="4"/>
@@ -6453,30 +6615,31 @@
       <c r="FD15" s="4"/>
       <c r="FE15" s="4"/>
       <c r="FF15" s="4"/>
-      <c r="FG15" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="FH15" s="4"/>
+      <c r="FG15" s="4"/>
+      <c r="FH15" s="4" t="s">
+        <v>390</v>
+      </c>
       <c r="FI15" s="4"/>
       <c r="FJ15" s="4"/>
+      <c r="FK15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="FH1:FJ1"/>
-    <mergeCell ref="CI1:CQ1"/>
-    <mergeCell ref="BL1:CH1"/>
-    <mergeCell ref="BA1:BK1"/>
+    <mergeCell ref="FI1:FK1"/>
+    <mergeCell ref="CJ1:CR1"/>
+    <mergeCell ref="BM1:CI1"/>
+    <mergeCell ref="BA1:BL1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:M1"/>
     <mergeCell ref="N1:W1"/>
     <mergeCell ref="Y1:AJ1"/>
     <mergeCell ref="AL1:AZ1"/>
-    <mergeCell ref="DJ1:DN1"/>
-    <mergeCell ref="EU1:EZ1"/>
-    <mergeCell ref="FA1:FF1"/>
-    <mergeCell ref="DO1:ET1"/>
-    <mergeCell ref="CR1:DC1"/>
-    <mergeCell ref="DD1:DI1"/>
+    <mergeCell ref="DK1:DO1"/>
+    <mergeCell ref="EV1:FA1"/>
+    <mergeCell ref="FB1:FG1"/>
+    <mergeCell ref="DP1:EU1"/>
+    <mergeCell ref="CS1:DD1"/>
+    <mergeCell ref="DE1:DJ1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
